--- a/Documentacion/Base de Datos CBD v1.xlsx
+++ b/Documentacion/Base de Datos CBD v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oavalos/Documents/Personal/Proyecto CBD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20EED531-4B06-E545-AD53-C587D3C3EEE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA4F1CB-5A56-4C47-B266-2BDFC6004B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{D4FEB497-8318-AB43-A3DA-832786BD3E10}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{D4FEB497-8318-AB43-A3DA-832786BD3E10}"/>
   </bookViews>
   <sheets>
     <sheet name="Estructura" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="143">
   <si>
     <t>nombre</t>
   </si>
@@ -196,9 +196,6 @@
     <t>id_tipo_cliente</t>
   </si>
   <si>
-    <t>identificacion_tipo</t>
-  </si>
-  <si>
     <t>identificacion_numero</t>
   </si>
   <si>
@@ -316,9 +313,6 @@
     <t>Pendiente, Enviado, Cancelado, Etc.</t>
   </si>
   <si>
-    <t>Tabla: cbd_direcciones _entrega</t>
-  </si>
-  <si>
     <t>cve_direccion_entrega</t>
   </si>
   <si>
@@ -349,9 +343,6 @@
     <t>cve_pedido_estatus</t>
   </si>
   <si>
-    <t>Tabla: cbd_direcciones _facturacion</t>
-  </si>
-  <si>
     <t>cve_direccion_facturacion</t>
   </si>
   <si>
@@ -455,6 +446,15 @@
   </si>
   <si>
     <t>ruta_miniatura</t>
+  </si>
+  <si>
+    <t>Tabla: cbd_direcciones_entrega</t>
+  </si>
+  <si>
+    <t>Tabla: cbd_direcciones_facturacion</t>
+  </si>
+  <si>
+    <t>id_tipo_identificacion</t>
   </si>
 </sst>
 </file>
@@ -1030,6 +1030,54 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1048,15 +1096,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1066,15 +1105,6 @@
     <xf numFmtId="0" fontId="2" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1111,46 +1141,16 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1339,16 +1339,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2616200</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>112889</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1382889</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>112889</xdr:rowOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1362,119 +1362,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9479844" y="5954889"/>
-          <a:ext cx="2937934" cy="1227667"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 32879"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1968500</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>98778</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1382889</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="33" name="Conector angular 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5335C99C-17E2-3443-876E-9910CB9B3A1A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7838722" y="7775222"/>
-          <a:ext cx="4579056" cy="1044222"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 57011"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>112889</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="34" name="Conector angular 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7900404-9446-D847-BF1A-87099EDD57AC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="9454444" y="7380111"/>
-          <a:ext cx="2991556" cy="1411"/>
+          <a:off x="9740900" y="7656689"/>
+          <a:ext cx="3922889" cy="3532011"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1504,16 +1394,126 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1968500</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1435100</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>98778</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1382889</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Conector angular 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5335C99C-17E2-3443-876E-9910CB9B3A1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4940300" y="8252178"/>
+          <a:ext cx="8723489" cy="5882922"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 87997"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1600200</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>112889</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="Conector angular 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7900404-9446-D847-BF1A-87099EDD57AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5105400" y="7859889"/>
+          <a:ext cx="8585200" cy="4814711"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 83580"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1219200</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>98778</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1397000</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1528,12 +1528,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7838722" y="7986889"/>
-          <a:ext cx="4593167" cy="2455333"/>
+          <a:off x="4724400" y="8455378"/>
+          <a:ext cx="8953500" cy="7356122"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 70002"/>
+            <a:gd name="adj1" fmla="val 92270"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -1724,116 +1724,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1915948</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>112889</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1382889</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>98535</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="69" name="Conector angular 68">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DC646EC-FC9D-B446-A45B-4488B627BBB5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="7786170" y="8198556"/>
-          <a:ext cx="4631608" cy="3640423"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 80214"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1490134</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>98778</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1368778</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="82" name="Conector angular 81">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{473F092B-E0FD-294C-85E4-30414056E697}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3747912" y="8396111"/>
-          <a:ext cx="8655755" cy="7636933"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 94370"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>1965739</xdr:colOff>
       <xdr:row>39</xdr:row>
@@ -1944,61 +1834,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>22579</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>804334</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="113" name="Conector angular 112">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D054B400-FAFB-2B4A-8B4B-B6595EB79495}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="10740821" y="7928429"/>
-          <a:ext cx="13663183" cy="9039748"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 94000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>56</xdr:row>
@@ -2029,6 +1864,116 @@
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
             <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1308100</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1384300</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Conector angular 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A47FAF0-464F-6B4C-839B-4D16B627C3D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="8432800" y="6007100"/>
+          <a:ext cx="5232400" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 15777"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1397000</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1371600</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Conector angular 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9F19A80-E81B-2546-B097-FC1C1277CC17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="8521700" y="1422400"/>
+          <a:ext cx="5130800" cy="4533900"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 16089"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -2352,9 +2297,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{770F6DCC-4CB2-7A4E-A798-91BAB4EC9683}">
-  <dimension ref="A1:AM96"/>
+  <dimension ref="A1:AM81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2409,24 +2356,89 @@
       <c r="I1" s="65"/>
       <c r="J1" s="65"/>
     </row>
-    <row r="5" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="C3" s="135" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="137"/>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="C4" s="100" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="101" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="101" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="101" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="102" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="99" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="99" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="99" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="11"/>
+    </row>
     <row r="6" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K6" s="150" t="s">
+      <c r="C6" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="K6" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="151"/>
-      <c r="M6" s="151"/>
-      <c r="N6" s="151"/>
-      <c r="O6" s="152"/>
-      <c r="S6" s="128" t="s">
+      <c r="L6" s="117"/>
+      <c r="M6" s="117"/>
+      <c r="N6" s="117"/>
+      <c r="O6" s="118"/>
+      <c r="S6" s="119" t="s">
         <v>36</v>
       </c>
-      <c r="T6" s="129"/>
-      <c r="U6" s="129"/>
-      <c r="V6" s="153"/>
-      <c r="W6" s="130"/>
+      <c r="T6" s="120"/>
+      <c r="U6" s="120"/>
+      <c r="V6" s="121"/>
+      <c r="W6" s="122"/>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="C7" s="25"/>
+      <c r="D7" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="5"/>
       <c r="K7" s="27" t="s">
         <v>22</v>
       </c>
@@ -2457,15 +2469,26 @@
       <c r="W7" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="AI7" s="128" t="s">
-        <v>119</v>
-      </c>
-      <c r="AJ7" s="129"/>
-      <c r="AK7" s="129"/>
-      <c r="AL7" s="129"/>
-      <c r="AM7" s="130"/>
+      <c r="AI7" s="119" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ7" s="120"/>
+      <c r="AK7" s="120"/>
+      <c r="AL7" s="120"/>
+      <c r="AM7" s="122"/>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="C8" s="25"/>
+      <c r="D8" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="5"/>
       <c r="K8" s="24" t="s">
         <v>23</v>
       </c>
@@ -2509,6 +2532,17 @@
       </c>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="C9" s="25"/>
+      <c r="D9" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="5"/>
       <c r="K9" s="25"/>
       <c r="L9" s="19" t="s">
         <v>18</v>
@@ -2539,7 +2573,7 @@
         <v>23</v>
       </c>
       <c r="AJ9" s="38" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AK9" s="38" t="s">
         <v>29</v>
@@ -2550,6 +2584,17 @@
       <c r="AM9" s="8"/>
     </row>
     <row r="10" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="25"/>
+      <c r="D10" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="5"/>
       <c r="K10" s="25"/>
       <c r="L10" s="19" t="s">
         <v>25</v>
@@ -2572,11 +2617,11 @@
         <v>39</v>
       </c>
       <c r="W10" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AI10" s="4"/>
       <c r="AJ10" s="18" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AK10" s="18" t="s">
         <v>33</v>
@@ -2587,6 +2632,17 @@
       <c r="AM10" s="5"/>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="C11" s="25"/>
+      <c r="D11" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="5"/>
       <c r="K11" s="25"/>
       <c r="L11" s="19" t="s">
         <v>0</v>
@@ -2599,16 +2655,16 @@
       </c>
       <c r="O11" s="5"/>
       <c r="S11" s="23"/>
-      <c r="AA11" s="154" t="s">
+      <c r="AA11" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="AB11" s="155"/>
-      <c r="AC11" s="155"/>
-      <c r="AD11" s="155"/>
-      <c r="AE11" s="156"/>
+      <c r="AB11" s="127"/>
+      <c r="AC11" s="127"/>
+      <c r="AD11" s="127"/>
+      <c r="AE11" s="128"/>
       <c r="AI11" s="4"/>
       <c r="AJ11" s="19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AK11" s="64" t="s">
         <v>33</v>
@@ -2619,6 +2675,17 @@
       <c r="AM11" s="5"/>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="C12" s="25"/>
+      <c r="D12" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="5"/>
       <c r="K12" s="25"/>
       <c r="L12" s="19" t="s">
         <v>26</v>
@@ -2651,7 +2718,7 @@
         <v>1</v>
       </c>
       <c r="AK12" s="18" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AL12" s="19" t="s">
         <v>39</v>
@@ -2659,6 +2726,17 @@
       <c r="AM12" s="5"/>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="C13" s="25"/>
+      <c r="D13" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="5"/>
       <c r="K13" s="25"/>
       <c r="L13" s="19" t="s">
         <v>27</v>
@@ -2686,7 +2764,7 @@
       <c r="AE13" s="3"/>
       <c r="AI13" s="4"/>
       <c r="AJ13" s="18" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="AK13" s="18" t="s">
         <v>33</v>
@@ -2697,6 +2775,17 @@
       <c r="AM13" s="5"/>
     </row>
     <row r="14" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="25"/>
+      <c r="D14" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="5"/>
       <c r="K14" s="25"/>
       <c r="L14" s="19" t="s">
         <v>14</v>
@@ -2735,6 +2824,17 @@
       <c r="AM14" s="5"/>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="C15" s="25"/>
+      <c r="D15" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="5"/>
       <c r="K15" s="37" t="s">
         <v>46</v>
       </c>
@@ -2748,13 +2848,13 @@
         <v>39</v>
       </c>
       <c r="O15" s="8"/>
-      <c r="S15" s="143" t="s">
+      <c r="S15" s="123" t="s">
         <v>37</v>
       </c>
-      <c r="T15" s="144"/>
-      <c r="U15" s="144"/>
-      <c r="V15" s="144"/>
-      <c r="W15" s="146"/>
+      <c r="T15" s="124"/>
+      <c r="U15" s="124"/>
+      <c r="V15" s="124"/>
+      <c r="W15" s="125"/>
       <c r="AA15" s="44" t="s">
         <v>46</v>
       </c>
@@ -2779,6 +2879,17 @@
       <c r="AM15" s="5"/>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="C16" s="25"/>
+      <c r="D16" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="5"/>
       <c r="K16" s="25"/>
       <c r="L16" s="19" t="s">
         <v>4</v>
@@ -2829,6 +2940,15 @@
       <c r="AM16" s="5"/>
     </row>
     <row r="17" spans="3:39" x14ac:dyDescent="0.2">
+      <c r="C17" s="25"/>
+      <c r="D17" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" s="18"/>
+      <c r="G17" s="5"/>
       <c r="K17" s="25"/>
       <c r="L17" s="19" t="s">
         <v>8</v>
@@ -2871,6 +2991,15 @@
       <c r="AM17" s="5"/>
     </row>
     <row r="18" spans="3:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="25"/>
+      <c r="D18" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="19"/>
+      <c r="G18" s="5"/>
       <c r="K18" s="25"/>
       <c r="L18" s="19" t="s">
         <v>5</v>
@@ -2917,10 +3046,19 @@
         <v>39</v>
       </c>
       <c r="AM18" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="3:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="25"/>
+      <c r="D19" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="18"/>
+      <c r="G19" s="5"/>
       <c r="K19" s="25"/>
       <c r="L19" s="19" t="s">
         <v>6</v>
@@ -2952,6 +3090,17 @@
       <c r="AE19" s="6"/>
     </row>
     <row r="20" spans="3:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="25"/>
+      <c r="D20" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="5"/>
       <c r="K20" s="26"/>
       <c r="L20" s="21" t="s">
         <v>3</v>
@@ -2963,7 +3112,7 @@
         <v>39</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S20" s="26"/>
       <c r="T20" s="21" t="s">
@@ -2976,19 +3125,41 @@
         <v>39</v>
       </c>
       <c r="W20" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="3:39" x14ac:dyDescent="0.2">
-      <c r="AI21" s="125" t="s">
-        <v>123</v>
-      </c>
-      <c r="AJ21" s="126"/>
-      <c r="AK21" s="126"/>
-      <c r="AL21" s="126"/>
-      <c r="AM21" s="127"/>
-    </row>
-    <row r="22" spans="3:39" x14ac:dyDescent="0.2">
+      <c r="C21" s="25"/>
+      <c r="D21" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="18"/>
+      <c r="G21" s="5"/>
+      <c r="AI21" s="138" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ21" s="139"/>
+      <c r="AK21" s="139"/>
+      <c r="AL21" s="139"/>
+      <c r="AM21" s="140"/>
+    </row>
+    <row r="22" spans="3:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="26"/>
+      <c r="D22" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="AI22" s="104" t="s">
         <v>22</v>
       </c>
@@ -3006,11 +3177,12 @@
       </c>
     </row>
     <row r="23" spans="3:39" x14ac:dyDescent="0.2">
+      <c r="C23" s="23"/>
       <c r="AI23" s="107" t="s">
         <v>23</v>
       </c>
       <c r="AJ23" s="108" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AK23" s="108" t="s">
         <v>29</v>
@@ -3046,34 +3218,41 @@
       </c>
       <c r="AM25" s="5"/>
     </row>
-    <row r="26" spans="3:39" x14ac:dyDescent="0.2">
-      <c r="K26" s="147" t="s">
+    <row r="26" spans="3:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K26" s="129" t="s">
         <v>50</v>
       </c>
-      <c r="L26" s="148"/>
-      <c r="M26" s="148"/>
-      <c r="N26" s="148"/>
-      <c r="O26" s="149"/>
-      <c r="S26" s="131" t="s">
-        <v>75</v>
-      </c>
-      <c r="T26" s="132"/>
-      <c r="U26" s="132"/>
-      <c r="V26" s="132"/>
-      <c r="W26" s="133"/>
+      <c r="L26" s="130"/>
+      <c r="M26" s="130"/>
+      <c r="N26" s="130"/>
+      <c r="O26" s="131"/>
+      <c r="S26" s="141" t="s">
+        <v>74</v>
+      </c>
+      <c r="T26" s="142"/>
+      <c r="U26" s="142"/>
+      <c r="V26" s="142"/>
+      <c r="W26" s="143"/>
       <c r="AI26" s="4"/>
       <c r="AJ26" s="18" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AK26" s="18" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AL26" s="18" t="s">
         <v>39</v>
       </c>
       <c r="AM26" s="5"/>
     </row>
-    <row r="27" spans="3:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:39" x14ac:dyDescent="0.2">
+      <c r="C27" s="154" t="s">
+        <v>141</v>
+      </c>
+      <c r="D27" s="155"/>
+      <c r="E27" s="155"/>
+      <c r="F27" s="155"/>
+      <c r="G27" s="156"/>
       <c r="K27" s="59" t="s">
         <v>22</v>
       </c>
@@ -3117,13 +3296,21 @@
       <c r="AM27" s="5"/>
     </row>
     <row r="28" spans="3:39" x14ac:dyDescent="0.2">
-      <c r="C28" s="143" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28" s="144"/>
-      <c r="E28" s="144"/>
-      <c r="F28" s="145"/>
-      <c r="G28" s="146"/>
+      <c r="C28" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="G28" s="55" t="s">
+        <v>21</v>
+      </c>
       <c r="K28" s="62" t="s">
         <v>23</v>
       </c>
@@ -3141,7 +3328,7 @@
         <v>23</v>
       </c>
       <c r="T28" s="74" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U28" s="74" t="s">
         <v>29</v>
@@ -3161,21 +3348,19 @@
       <c r="AM28" s="5"/>
     </row>
     <row r="29" spans="3:39" x14ac:dyDescent="0.2">
-      <c r="C29" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="F29" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="G29" s="43" t="s">
-        <v>21</v>
-      </c>
+      <c r="C29" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="E29" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" s="58"/>
       <c r="K29" s="25"/>
       <c r="L29" s="19" t="s">
         <v>0</v>
@@ -3191,7 +3376,7 @@
         <v>46</v>
       </c>
       <c r="T29" s="63" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U29" s="63" t="s">
         <v>29</v>
@@ -3211,19 +3396,19 @@
       <c r="AM29" s="5"/>
     </row>
     <row r="30" spans="3:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="D30" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="E30" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="F30" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="G30" s="7"/>
+      <c r="C30" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="G30" s="10"/>
       <c r="K30" s="25"/>
       <c r="L30" s="19" t="s">
         <v>26</v>
@@ -3237,7 +3422,7 @@
       <c r="O30" s="5"/>
       <c r="S30" s="25"/>
       <c r="T30" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="U30" s="18" t="s">
         <v>30</v>
@@ -3259,7 +3444,7 @@
         <v>39</v>
       </c>
       <c r="AM30" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="3:39" x14ac:dyDescent="0.2">
@@ -3268,14 +3453,12 @@
         <v>0</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="F31" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>62</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31" s="5"/>
       <c r="K31" s="25"/>
       <c r="L31" s="19" t="s">
         <v>27</v>
@@ -3287,30 +3470,28 @@
       <c r="O31" s="5"/>
       <c r="S31" s="25"/>
       <c r="T31" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U31" s="18" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="V31" s="18" t="s">
         <v>39</v>
       </c>
       <c r="W31" s="5"/>
     </row>
-    <row r="32" spans="3:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="26"/>
-      <c r="D32" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="F32" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>63</v>
-      </c>
+    <row r="32" spans="3:39" x14ac:dyDescent="0.2">
+      <c r="C32" s="25"/>
+      <c r="D32" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G32" s="5"/>
       <c r="K32" s="25"/>
       <c r="L32" s="19" t="s">
         <v>14</v>
@@ -3324,10 +3505,10 @@
       <c r="O32" s="5"/>
       <c r="S32" s="25"/>
       <c r="T32" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U32" s="18" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="V32" s="18" t="s">
         <v>39</v>
@@ -3335,6 +3516,17 @@
       <c r="W32" s="5"/>
     </row>
     <row r="33" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="C33" s="25"/>
+      <c r="D33" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G33" s="5"/>
       <c r="K33" s="25"/>
       <c r="L33" s="19" t="s">
         <v>25</v>
@@ -3348,23 +3540,34 @@
       <c r="O33" s="5"/>
       <c r="S33" s="25"/>
       <c r="T33" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U33" s="18" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="V33" s="18" t="s">
         <v>39</v>
       </c>
       <c r="W33" s="5"/>
     </row>
-    <row r="34" spans="3:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="C34" s="25"/>
+      <c r="D34" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G34" s="5"/>
       <c r="K34" s="25"/>
       <c r="L34" s="19" t="s">
         <v>12</v>
       </c>
       <c r="M34" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N34" s="19" t="s">
         <v>39</v>
@@ -3372,24 +3575,28 @@
       <c r="O34" s="5"/>
       <c r="S34" s="25"/>
       <c r="T34" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U34" s="64" t="s">
         <v>41</v>
       </c>
       <c r="V34" s="18"/>
       <c r="W34" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="3:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="134" t="s">
-        <v>71</v>
-      </c>
-      <c r="D35" s="135"/>
-      <c r="E35" s="135"/>
-      <c r="F35" s="135"/>
-      <c r="G35" s="136"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G35" s="5"/>
       <c r="K35" s="25"/>
       <c r="L35" s="19" t="s">
         <v>52</v>
@@ -3405,7 +3612,7 @@
         <v>46</v>
       </c>
       <c r="T35" s="78" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U35" s="78" t="s">
         <v>29</v>
@@ -3416,26 +3623,22 @@
       <c r="W35" s="86"/>
     </row>
     <row r="36" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C36" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="D36" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E36" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="F36" s="67" t="s">
-        <v>40</v>
-      </c>
-      <c r="G36" s="29" t="s">
-        <v>21</v>
-      </c>
+      <c r="C36" s="25"/>
+      <c r="D36" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G36" s="5"/>
       <c r="K36" s="44" t="s">
         <v>46</v>
       </c>
       <c r="L36" s="45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M36" s="66" t="s">
         <v>29</v>
@@ -3448,7 +3651,7 @@
         <v>46</v>
       </c>
       <c r="T36" s="99" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U36" s="99" t="s">
         <v>29</v>
@@ -3457,33 +3660,31 @@
         <v>39</v>
       </c>
       <c r="W36" s="11"/>
-      <c r="AA36" s="125" t="s">
-        <v>112</v>
-      </c>
-      <c r="AB36" s="126"/>
-      <c r="AC36" s="126"/>
-      <c r="AD36" s="126"/>
-      <c r="AE36" s="127"/>
+      <c r="AA36" s="138" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB36" s="139"/>
+      <c r="AC36" s="139"/>
+      <c r="AD36" s="139"/>
+      <c r="AE36" s="140"/>
     </row>
     <row r="37" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C37" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E37" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="F37" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="G37" s="13"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="E37" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G37" s="5"/>
       <c r="K37" s="24" t="s">
         <v>46</v>
       </c>
       <c r="L37" s="17" t="s">
-        <v>56</v>
+        <v>142</v>
       </c>
       <c r="M37" s="17" t="s">
         <v>29</v>
@@ -3498,7 +3699,7 @@
         <v>46</v>
       </c>
       <c r="T37" s="57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="U37" s="57" t="s">
         <v>29</v>
@@ -3523,24 +3724,22 @@
     </row>
     <row r="38" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C38" s="25"/>
-      <c r="D38" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="E38" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="F38" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>73</v>
-      </c>
+      <c r="D38" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="E38" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G38" s="5"/>
       <c r="K38" s="68"/>
       <c r="L38" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M38" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N38" s="19" t="s">
         <v>39</v>
@@ -3548,7 +3747,7 @@
       <c r="O38" s="9"/>
       <c r="S38" s="4"/>
       <c r="T38" s="18" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="U38" s="64" t="s">
         <v>41</v>
@@ -3559,7 +3758,7 @@
         <v>23</v>
       </c>
       <c r="AB38" s="108" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="AC38" s="108" t="s">
         <v>29</v>
@@ -3569,25 +3768,23 @@
       </c>
       <c r="AE38" s="109"/>
     </row>
-    <row r="39" spans="3:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="26"/>
-      <c r="D39" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E39" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="F39" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>63</v>
-      </c>
+    <row r="39" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="C39" s="25"/>
+      <c r="D39" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E39" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G39" s="5"/>
       <c r="K39" s="73" t="s">
         <v>46</v>
       </c>
       <c r="L39" s="74" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M39" s="74" t="s">
         <v>29</v>
@@ -3598,7 +3795,7 @@
       <c r="O39" s="75"/>
       <c r="S39" s="68"/>
       <c r="T39" s="19" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="U39" s="18" t="s">
         <v>30</v>
@@ -3609,7 +3806,7 @@
         <v>46</v>
       </c>
       <c r="AB39" s="74" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="AC39" s="74" t="s">
         <v>29</v>
@@ -3620,6 +3817,17 @@
       <c r="AE39" s="75"/>
     </row>
     <row r="40" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="C40" s="25"/>
+      <c r="D40" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E40" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="F40" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G40" s="5"/>
       <c r="K40" s="76" t="s">
         <v>46</v>
       </c>
@@ -3646,7 +3854,7 @@
         <v>46</v>
       </c>
       <c r="AB40" s="91" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC40" s="91" t="s">
         <v>29</v>
@@ -3657,19 +3865,28 @@
       <c r="AE40" s="14"/>
     </row>
     <row r="41" spans="3:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K41" s="98" t="s">
-        <v>46</v>
-      </c>
-      <c r="L41" s="99" t="s">
-        <v>85</v>
-      </c>
-      <c r="M41" s="99" t="s">
-        <v>29</v>
-      </c>
-      <c r="N41" s="99" t="s">
-        <v>39</v>
-      </c>
-      <c r="O41" s="11"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="F41" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G41" s="5"/>
+      <c r="K41" s="25"/>
+      <c r="L41" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="M41" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="N41" s="19"/>
+      <c r="O41" s="5" t="s">
+        <v>73</v>
+      </c>
       <c r="S41" s="26"/>
       <c r="T41" s="21" t="s">
         <v>6</v>
@@ -3681,7 +3898,7 @@
       <c r="W41" s="6"/>
       <c r="AA41" s="20"/>
       <c r="AB41" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC41" s="22" t="s">
         <v>29</v>
@@ -3692,161 +3909,116 @@
       <c r="AE41" s="6"/>
     </row>
     <row r="42" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C42" s="131" t="s">
-        <v>64</v>
-      </c>
-      <c r="D42" s="132"/>
-      <c r="E42" s="132"/>
-      <c r="F42" s="132"/>
-      <c r="G42" s="133"/>
-      <c r="K42" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="L42" s="57" t="s">
-        <v>86</v>
-      </c>
-      <c r="M42" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="N42" s="57"/>
-      <c r="O42" s="58"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F42" s="19"/>
+      <c r="G42" s="5"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="M42" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="N42" s="18"/>
+      <c r="O42" s="5"/>
     </row>
     <row r="43" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C43" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="D43" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="E43" s="70" t="s">
-        <v>20</v>
-      </c>
-      <c r="F43" s="71" t="s">
-        <v>40</v>
-      </c>
-      <c r="G43" s="72" t="s">
-        <v>21</v>
-      </c>
+      <c r="C43" s="25"/>
+      <c r="D43" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F43" s="18"/>
+      <c r="G43" s="5"/>
       <c r="K43" s="25"/>
       <c r="L43" s="19" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M43" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="N43" s="19"/>
-      <c r="O43" s="5" t="s">
-        <v>74</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="N43" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="O43" s="5"/>
     </row>
     <row r="44" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C44" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="D44" s="74" t="s">
-        <v>65</v>
-      </c>
-      <c r="E44" s="74" t="s">
-        <v>29</v>
-      </c>
-      <c r="F44" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="G44" s="75"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F44" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G44" s="5"/>
       <c r="K44" s="25"/>
       <c r="L44" s="19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M44" s="18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N44" s="18"/>
       <c r="O44" s="5"/>
     </row>
     <row r="45" spans="3:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C45" s="25"/>
-      <c r="D45" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="E45" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="F45" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="K45" s="25"/>
-      <c r="L45" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="M45" s="18" t="s">
+      <c r="D45" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="N45" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="O45" s="5"/>
-    </row>
-    <row r="46" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C46" s="4"/>
-      <c r="D46" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E46" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F46" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="K46" s="25"/>
-      <c r="L46" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="M46" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="N46" s="18"/>
-      <c r="O46" s="5"/>
-      <c r="S46" s="137" t="s">
-        <v>87</v>
-      </c>
-      <c r="T46" s="138"/>
-      <c r="U46" s="138"/>
-      <c r="V46" s="138"/>
-      <c r="W46" s="139"/>
-    </row>
-    <row r="47" spans="3:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="26"/>
-      <c r="D47" s="21" t="s">
+      <c r="F45" s="18"/>
+      <c r="G45" s="5"/>
+      <c r="K45" s="26"/>
+      <c r="L45" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="F47" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="K47" s="26"/>
-      <c r="L47" s="21" t="s">
+      <c r="M45" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="N45" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="O45" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="3:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C46" s="26"/>
+      <c r="D46" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="N47" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="O47" s="6" t="s">
-        <v>63</v>
-      </c>
+      <c r="E46" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F46" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="S46" s="147" t="s">
+        <v>86</v>
+      </c>
+      <c r="T46" s="148"/>
+      <c r="U46" s="148"/>
+      <c r="V46" s="148"/>
+      <c r="W46" s="149"/>
+    </row>
+    <row r="47" spans="3:31" x14ac:dyDescent="0.2">
       <c r="S47" s="87" t="s">
         <v>22</v>
       </c>
@@ -3875,7 +4047,7 @@
         <v>23</v>
       </c>
       <c r="T48" s="91" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U48" s="91" t="s">
         <v>29</v>
@@ -3905,56 +4077,41 @@
       </c>
       <c r="W49" s="5"/>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C50" s="116" t="s">
-        <v>68</v>
-      </c>
-      <c r="D50" s="117"/>
-      <c r="E50" s="117"/>
-      <c r="F50" s="117"/>
-      <c r="G50" s="118"/>
-      <c r="K50" s="116" t="s">
-        <v>105</v>
-      </c>
-      <c r="L50" s="117"/>
-      <c r="M50" s="117"/>
-      <c r="N50" s="117"/>
-      <c r="O50" s="118"/>
+    <row r="50" spans="3:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K50" s="132" t="s">
+        <v>103</v>
+      </c>
+      <c r="L50" s="133"/>
+      <c r="M50" s="133"/>
+      <c r="N50" s="133"/>
+      <c r="O50" s="134"/>
       <c r="S50" s="25"/>
       <c r="T50" s="18" t="s">
         <v>1</v>
       </c>
       <c r="U50" s="18" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="V50" s="18" t="s">
         <v>39</v>
       </c>
       <c r="W50" s="5"/>
-      <c r="AA50" s="140" t="s">
-        <v>93</v>
-      </c>
-      <c r="AB50" s="141"/>
-      <c r="AC50" s="141"/>
-      <c r="AD50" s="141"/>
-      <c r="AE50" s="142"/>
+      <c r="AA50" s="150" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB50" s="151"/>
+      <c r="AC50" s="151"/>
+      <c r="AD50" s="151"/>
+      <c r="AE50" s="152"/>
     </row>
     <row r="51" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C51" s="80" t="s">
-        <v>22</v>
-      </c>
-      <c r="D51" s="81" t="s">
-        <v>19</v>
-      </c>
-      <c r="E51" s="81" t="s">
-        <v>20</v>
-      </c>
-      <c r="F51" s="82" t="s">
-        <v>40</v>
-      </c>
-      <c r="G51" s="83" t="s">
-        <v>21</v>
-      </c>
+      <c r="C51" s="123" t="s">
+        <v>59</v>
+      </c>
+      <c r="D51" s="124"/>
+      <c r="E51" s="124"/>
+      <c r="F51" s="153"/>
+      <c r="G51" s="125"/>
       <c r="K51" s="80" t="s">
         <v>22</v>
       </c>
@@ -3972,10 +4129,10 @@
       </c>
       <c r="S51" s="25"/>
       <c r="T51" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="U51" s="18" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="V51" s="18" t="s">
         <v>39</v>
@@ -3998,24 +4155,26 @@
       </c>
     </row>
     <row r="52" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C52" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="D52" s="78" t="s">
-        <v>70</v>
-      </c>
-      <c r="E52" s="78" t="s">
-        <v>29</v>
-      </c>
-      <c r="F52" s="85" t="s">
-        <v>34</v>
-      </c>
-      <c r="G52" s="86"/>
+      <c r="C52" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="E52" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="F52" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="G52" s="43" t="s">
+        <v>21</v>
+      </c>
       <c r="K52" s="84" t="s">
         <v>23</v>
       </c>
       <c r="L52" s="78" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M52" s="78" t="s">
         <v>29</v>
@@ -4026,7 +4185,7 @@
       <c r="O52" s="86"/>
       <c r="S52" s="25"/>
       <c r="T52" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U52" s="18" t="s">
         <v>33</v>
@@ -4039,7 +4198,7 @@
         <v>23</v>
       </c>
       <c r="AB52" s="96" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC52" s="96" t="s">
         <v>29</v>
@@ -4050,19 +4209,19 @@
       <c r="AE52" s="16"/>
     </row>
     <row r="53" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C53" s="25"/>
-      <c r="D53" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="E53" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="F53" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>69</v>
-      </c>
+      <c r="C53" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="D53" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="E53" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="F53" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="G53" s="7"/>
       <c r="K53" s="25"/>
       <c r="L53" s="18" t="s">
         <v>0</v>
@@ -4074,11 +4233,11 @@
         <v>39</v>
       </c>
       <c r="O53" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S53" s="25"/>
       <c r="T53" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="U53" s="18" t="s">
         <v>33</v>
@@ -4091,7 +4250,7 @@
         <v>46</v>
       </c>
       <c r="AB53" s="91" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC53" s="91" t="s">
         <v>29</v>
@@ -4102,18 +4261,18 @@
       <c r="AE53" s="14"/>
     </row>
     <row r="54" spans="3:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C54" s="26"/>
-      <c r="D54" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E54" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="F54" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="G54" s="6" t="s">
-        <v>63</v>
+      <c r="C54" s="25"/>
+      <c r="D54" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E54" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F54" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="K54" s="26"/>
       <c r="L54" s="21" t="s">
@@ -4126,11 +4285,11 @@
         <v>39</v>
       </c>
       <c r="O54" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S54" s="25"/>
       <c r="T54" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U54" s="18" t="s">
         <v>29</v>
@@ -4144,17 +4303,30 @@
         <v>0</v>
       </c>
       <c r="AC54" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AD54" s="19" t="s">
         <v>39</v>
       </c>
       <c r="AE54" s="5"/>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C55" s="26"/>
+      <c r="D55" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F55" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="S55" s="4"/>
       <c r="T55" s="19" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="U55" s="18" t="s">
         <v>33</v>
@@ -4163,7 +4335,7 @@
         <v>39</v>
       </c>
       <c r="W55" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AA55" s="25"/>
       <c r="AB55" s="18" t="s">
@@ -4177,10 +4349,10 @@
       </c>
       <c r="AE55" s="5"/>
     </row>
-    <row r="56" spans="3:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="S56" s="4"/>
       <c r="T56" s="19" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="U56" s="18" t="s">
         <v>31</v>
@@ -4203,19 +4375,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C57" s="119" t="s">
-        <v>96</v>
-      </c>
-      <c r="D57" s="120"/>
-      <c r="E57" s="120"/>
-      <c r="F57" s="120"/>
-      <c r="G57" s="121"/>
+    <row r="57" spans="3:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="S57" s="62" t="s">
         <v>46</v>
       </c>
       <c r="T57" s="63" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="U57" s="63" t="s">
         <v>29</v>
@@ -4226,7 +4391,7 @@
       <c r="W57" s="10"/>
       <c r="AA57" s="4"/>
       <c r="AB57" s="19" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AC57" s="64" t="s">
         <v>33</v>
@@ -4237,21 +4402,13 @@
       <c r="AE57" s="5"/>
     </row>
     <row r="58" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C58" s="100" t="s">
-        <v>22</v>
-      </c>
-      <c r="D58" s="101" t="s">
-        <v>19</v>
-      </c>
-      <c r="E58" s="101" t="s">
-        <v>20</v>
-      </c>
-      <c r="F58" s="101" t="s">
-        <v>40</v>
-      </c>
-      <c r="G58" s="102" t="s">
-        <v>21</v>
-      </c>
+      <c r="C58" s="144" t="s">
+        <v>70</v>
+      </c>
+      <c r="D58" s="145"/>
+      <c r="E58" s="145"/>
+      <c r="F58" s="145"/>
+      <c r="G58" s="146"/>
       <c r="S58" s="4"/>
       <c r="T58" s="19" t="s">
         <v>2</v>
@@ -4276,19 +4433,21 @@
       <c r="AE58" s="5"/>
     </row>
     <row r="59" spans="3:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C59" s="98" t="s">
-        <v>23</v>
-      </c>
-      <c r="D59" s="99" t="s">
-        <v>97</v>
-      </c>
-      <c r="E59" s="99" t="s">
-        <v>29</v>
-      </c>
-      <c r="F59" s="99" t="s">
-        <v>34</v>
-      </c>
-      <c r="G59" s="11"/>
+      <c r="C59" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D59" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F59" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="G59" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="S59" s="26"/>
       <c r="T59" s="21" t="s">
         <v>3</v>
@@ -4300,7 +4459,7 @@
         <v>39</v>
       </c>
       <c r="W59" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AA59" s="25"/>
       <c r="AB59" s="19" t="s">
@@ -4317,19 +4476,21 @@
       </c>
     </row>
     <row r="60" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C60" s="4"/>
-      <c r="D60" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="E60" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="F60" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="G60" s="5"/>
+      <c r="C60" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E60" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F60" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="G60" s="13"/>
       <c r="T60" s="111" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="AA60" s="25"/>
       <c r="AB60" s="19" t="s">
@@ -4344,17 +4505,19 @@
       </c>
     </row>
     <row r="61" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C61" s="4"/>
+      <c r="C61" s="25"/>
       <c r="D61" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="E61" s="64" t="s">
-        <v>31</v>
-      </c>
-      <c r="F61" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="G61" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="E61" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F61" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="AA61" s="25"/>
       <c r="AB61" s="19" t="s">
         <v>5</v>
@@ -4367,18 +4530,20 @@
       </c>
       <c r="AE61" s="5"/>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C62" s="4"/>
-      <c r="D62" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E62" s="64" t="s">
-        <v>31</v>
-      </c>
-      <c r="F62" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="G62" s="5"/>
+    <row r="62" spans="3:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C62" s="26"/>
+      <c r="D62" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F62" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="AA62" s="25"/>
       <c r="AB62" s="19" t="s">
         <v>6</v>
@@ -4390,17 +4555,6 @@
       <c r="AE62" s="5"/>
     </row>
     <row r="63" spans="3:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C63" s="4"/>
-      <c r="D63" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="E63" s="64" t="s">
-        <v>31</v>
-      </c>
-      <c r="F63" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="G63" s="5"/>
       <c r="AA63" s="26"/>
       <c r="AB63" s="22" t="s">
         <v>3</v>
@@ -4410,67 +4564,57 @@
       </c>
       <c r="AD63" s="22"/>
       <c r="AE63" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="65" spans="3:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C65" s="141" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C64" s="4"/>
-      <c r="D64" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E64" s="64" t="s">
-        <v>31</v>
-      </c>
-      <c r="F64" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="G64" s="5"/>
-    </row>
-    <row r="65" spans="3:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C65" s="4"/>
-      <c r="D65" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="E65" s="64" t="s">
-        <v>33</v>
-      </c>
-      <c r="F65" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="G65" s="5"/>
+      <c r="D65" s="142"/>
+      <c r="E65" s="142"/>
+      <c r="F65" s="142"/>
+      <c r="G65" s="143"/>
     </row>
     <row r="66" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C66" s="4"/>
-      <c r="D66" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="E66" s="64" t="s">
-        <v>109</v>
-      </c>
-      <c r="F66" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="G66" s="5"/>
-      <c r="AA66" s="147" t="s">
-        <v>134</v>
-      </c>
-      <c r="AB66" s="148"/>
-      <c r="AC66" s="148"/>
-      <c r="AD66" s="148"/>
-      <c r="AE66" s="149"/>
+      <c r="C66" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="D66" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="E66" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="F66" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="G66" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA66" s="129" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB66" s="130"/>
+      <c r="AC66" s="130"/>
+      <c r="AD66" s="130"/>
+      <c r="AE66" s="131"/>
     </row>
     <row r="67" spans="3:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C67" s="4"/>
-      <c r="D67" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="E67" s="64" t="s">
-        <v>109</v>
-      </c>
-      <c r="F67" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="G67" s="5"/>
+      <c r="C67" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="D67" s="74" t="s">
+        <v>64</v>
+      </c>
+      <c r="E67" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="F67" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="G67" s="75"/>
       <c r="AA67" s="59" t="s">
         <v>22</v>
       </c>
@@ -4488,29 +4632,31 @@
       </c>
     </row>
     <row r="68" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C68" s="4"/>
-      <c r="D68" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="E68" s="64" t="s">
-        <v>109</v>
-      </c>
-      <c r="F68" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="G68" s="5"/>
-      <c r="S68" s="125" t="s">
-        <v>130</v>
-      </c>
-      <c r="T68" s="126"/>
-      <c r="U68" s="126"/>
-      <c r="V68" s="126"/>
-      <c r="W68" s="127"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E68" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F68" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="S68" s="138" t="s">
+        <v>127</v>
+      </c>
+      <c r="T68" s="139"/>
+      <c r="U68" s="139"/>
+      <c r="V68" s="139"/>
+      <c r="W68" s="140"/>
       <c r="AA68" s="62" t="s">
         <v>23</v>
       </c>
       <c r="AB68" s="63" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AC68" s="63" t="s">
         <v>29</v>
@@ -4522,16 +4668,18 @@
     </row>
     <row r="69" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C69" s="4"/>
-      <c r="D69" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E69" s="64" t="s">
-        <v>41</v>
-      </c>
-      <c r="F69" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="G69" s="5"/>
+      <c r="D69" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F69" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>134</v>
+      </c>
       <c r="S69" s="104" t="s">
         <v>22</v>
       </c>
@@ -4552,7 +4700,7 @@
         <v>0</v>
       </c>
       <c r="AC69" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AD69" s="19" t="s">
         <v>39</v>
@@ -4560,20 +4708,24 @@
       <c r="AE69" s="5"/>
     </row>
     <row r="70" spans="3:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C70" s="4"/>
-      <c r="D70" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="E70" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="F70" s="18"/>
-      <c r="G70" s="5"/>
+      <c r="C70" s="26"/>
+      <c r="D70" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E70" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F70" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="S70" s="112" t="s">
         <v>23</v>
       </c>
       <c r="T70" s="113" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="U70" s="113" t="s">
         <v>29</v>
@@ -4593,76 +4745,57 @@
         <v>39</v>
       </c>
       <c r="AE70" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="71" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C71" s="4"/>
-      <c r="D71" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E71" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F71" s="19"/>
-      <c r="G71" s="5"/>
-    </row>
-    <row r="72" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C72" s="4"/>
-      <c r="D72" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E72" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F72" s="18"/>
-      <c r="G72" s="5"/>
-    </row>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="72" spans="3:31" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="73" spans="3:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C73" s="4"/>
-      <c r="D73" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E73" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="F73" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="G73" s="5"/>
+      <c r="C73" s="132" t="s">
+        <v>67</v>
+      </c>
+      <c r="D73" s="133"/>
+      <c r="E73" s="133"/>
+      <c r="F73" s="133"/>
+      <c r="G73" s="134"/>
     </row>
     <row r="74" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C74" s="4"/>
-      <c r="D74" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E74" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="F74" s="18"/>
-      <c r="G74" s="5"/>
-      <c r="S74" s="131" t="s">
-        <v>127</v>
-      </c>
-      <c r="T74" s="132"/>
-      <c r="U74" s="132"/>
-      <c r="V74" s="132"/>
-      <c r="W74" s="133"/>
-    </row>
-    <row r="75" spans="3:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C75" s="20"/>
-      <c r="D75" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E75" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="F75" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="G75" s="6" t="s">
-        <v>63</v>
-      </c>
+      <c r="C74" s="80" t="s">
+        <v>22</v>
+      </c>
+      <c r="D74" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="E74" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="F74" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="G74" s="83" t="s">
+        <v>21</v>
+      </c>
+      <c r="S74" s="141" t="s">
+        <v>124</v>
+      </c>
+      <c r="T74" s="142"/>
+      <c r="U74" s="142"/>
+      <c r="V74" s="142"/>
+      <c r="W74" s="143"/>
+    </row>
+    <row r="75" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="C75" s="84" t="s">
+        <v>23</v>
+      </c>
+      <c r="D75" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E75" s="78" t="s">
+        <v>29</v>
+      </c>
+      <c r="F75" s="85" t="s">
+        <v>34</v>
+      </c>
+      <c r="G75" s="86"/>
       <c r="S75" s="69" t="s">
         <v>22</v>
       </c>
@@ -4680,11 +4813,24 @@
       </c>
     </row>
     <row r="76" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="C76" s="25"/>
+      <c r="D76" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E76" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F76" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="S76" s="73" t="s">
         <v>23</v>
       </c>
       <c r="T76" s="74" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="U76" s="74" t="s">
         <v>29</v>
@@ -4695,11 +4841,24 @@
       <c r="W76" s="75"/>
     </row>
     <row r="77" spans="3:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C77" s="26"/>
+      <c r="D77" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E77" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F77" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="S77" s="25" t="s">
         <v>46</v>
       </c>
       <c r="T77" s="18" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="U77" s="18" t="s">
         <v>29</v>
@@ -4710,16 +4869,9 @@
       <c r="W77" s="5"/>
     </row>
     <row r="78" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C78" s="122" t="s">
-        <v>107</v>
-      </c>
-      <c r="D78" s="123"/>
-      <c r="E78" s="123"/>
-      <c r="F78" s="123"/>
-      <c r="G78" s="124"/>
       <c r="S78" s="4"/>
       <c r="T78" s="18" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="U78" s="18" t="s">
         <v>29</v>
@@ -4730,24 +4882,9 @@
       <c r="W78" s="5"/>
     </row>
     <row r="79" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C79" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="D79" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="E79" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="F79" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="G79" s="55" t="s">
-        <v>21</v>
-      </c>
       <c r="S79" s="4"/>
       <c r="T79" s="18" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="U79" s="18" t="s">
         <v>29</v>
@@ -4758,19 +4895,6 @@
       <c r="W79" s="5"/>
     </row>
     <row r="80" spans="3:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C80" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="D80" s="57" t="s">
-        <v>108</v>
-      </c>
-      <c r="E80" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="F80" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="G80" s="58"/>
       <c r="S80" s="20"/>
       <c r="T80" s="22" t="s">
         <v>3</v>
@@ -4782,239 +4906,37 @@
         <v>39</v>
       </c>
       <c r="W80" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C81" s="4"/>
-      <c r="D81" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="E81" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F81" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="G81" s="5"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="81" spans="20:20" x14ac:dyDescent="0.2">
       <c r="T81" s="111" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C82" s="4"/>
-      <c r="D82" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E82" s="64" t="s">
-        <v>41</v>
-      </c>
-      <c r="F82" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="G82" s="5"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C83" s="4"/>
-      <c r="D83" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="E83" s="64" t="s">
-        <v>31</v>
-      </c>
-      <c r="F83" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="G83" s="5"/>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C84" s="4"/>
-      <c r="D84" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E84" s="64" t="s">
-        <v>31</v>
-      </c>
-      <c r="F84" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="G84" s="5"/>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C85" s="4"/>
-      <c r="D85" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="E85" s="64" t="s">
-        <v>31</v>
-      </c>
-      <c r="F85" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="G85" s="5"/>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C86" s="4"/>
-      <c r="D86" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E86" s="64" t="s">
-        <v>31</v>
-      </c>
-      <c r="F86" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="G86" s="5"/>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C87" s="4"/>
-      <c r="D87" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="E87" s="64" t="s">
-        <v>33</v>
-      </c>
-      <c r="F87" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="G87" s="5"/>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C88" s="4"/>
-      <c r="D88" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="E88" s="64" t="s">
-        <v>109</v>
-      </c>
-      <c r="F88" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="G88" s="5"/>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C89" s="4"/>
-      <c r="D89" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="E89" s="64" t="s">
-        <v>109</v>
-      </c>
-      <c r="F89" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="G89" s="5"/>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C90" s="4"/>
-      <c r="D90" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="E90" s="64" t="s">
-        <v>109</v>
-      </c>
-      <c r="F90" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="G90" s="5"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C91" s="4"/>
-      <c r="D91" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E91" s="64" t="s">
-        <v>41</v>
-      </c>
-      <c r="F91" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="G91" s="5"/>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C92" s="4"/>
-      <c r="D92" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E92" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F92" s="19"/>
-      <c r="G92" s="5"/>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C93" s="4"/>
-      <c r="D93" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E93" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F93" s="18"/>
-      <c r="G93" s="5"/>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C94" s="4"/>
-      <c r="D94" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E94" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="F94" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="G94" s="5"/>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C95" s="4"/>
-      <c r="D95" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E95" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="F95" s="18"/>
-      <c r="G95" s="5"/>
-    </row>
-    <row r="96" spans="3:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C96" s="20"/>
-      <c r="D96" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E96" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="F96" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="G96" s="6" t="s">
-        <v>63</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="K50:O50"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="AA36:AE36"/>
+    <mergeCell ref="AI7:AM7"/>
+    <mergeCell ref="AI21:AM21"/>
+    <mergeCell ref="S74:W74"/>
+    <mergeCell ref="S68:W68"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="S26:W26"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="S46:W46"/>
+    <mergeCell ref="AA50:AE50"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="AA66:AE66"/>
     <mergeCell ref="K6:O6"/>
     <mergeCell ref="S6:W6"/>
     <mergeCell ref="S15:W15"/>
     <mergeCell ref="AA11:AE11"/>
     <mergeCell ref="K26:O26"/>
-    <mergeCell ref="K50:O50"/>
-    <mergeCell ref="C57:G57"/>
-    <mergeCell ref="C78:G78"/>
-    <mergeCell ref="AA36:AE36"/>
-    <mergeCell ref="AI7:AM7"/>
-    <mergeCell ref="AI21:AM21"/>
-    <mergeCell ref="S74:W74"/>
-    <mergeCell ref="S68:W68"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="S26:W26"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="S46:W46"/>
-    <mergeCell ref="AA50:AE50"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="AA66:AE66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Documentacion/Base de Datos CBD v1.xlsx
+++ b/Documentacion/Base de Datos CBD v1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oavalos/Documents/Personal/Proyecto CBD/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oavalos/Documents/Personal/Proyecto CBD/Codigo/Documentacion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA4F1CB-5A56-4C47-B266-2BDFC6004B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA57592-3C48-1742-A18B-D7FC07D239AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{D4FEB497-8318-AB43-A3DA-832786BD3E10}"/>
   </bookViews>
@@ -21,12 +21,19 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="162">
   <si>
     <t>nombre</t>
   </si>
@@ -259,18 +266,12 @@
     <t>id_articulo</t>
   </si>
   <si>
-    <t>fch_pedido</t>
-  </si>
-  <si>
     <t>total</t>
   </si>
   <si>
     <t>iva</t>
   </si>
   <si>
-    <t>guia</t>
-  </si>
-  <si>
     <t>id_pedido_estatus</t>
   </si>
   <si>
@@ -292,12 +293,6 @@
     <t>cve_articulo</t>
   </si>
   <si>
-    <t>costo</t>
-  </si>
-  <si>
-    <t>fabricante</t>
-  </si>
-  <si>
     <t>marca</t>
   </si>
   <si>
@@ -310,9 +305,6 @@
     <t>cve_articulo_fotografia</t>
   </si>
   <si>
-    <t>Pendiente, Enviado, Cancelado, Etc.</t>
-  </si>
-  <si>
     <t>cve_direccion_entrega</t>
   </si>
   <si>
@@ -370,12 +362,6 @@
     <t>varchar (500)</t>
   </si>
   <si>
-    <t>formato</t>
-  </si>
-  <si>
-    <t>Aceite, Gomita, etc.</t>
-  </si>
-  <si>
     <t>Tabla: cbd_blog</t>
   </si>
   <si>
@@ -397,39 +383,21 @@
     <t>mensaje</t>
   </si>
   <si>
-    <t>numero_banco_pago</t>
-  </si>
-  <si>
     <t>Tabla: cbd_pedidos_agendados</t>
   </si>
   <si>
     <t>cve_pedido_agendado</t>
   </si>
   <si>
-    <t>numero_identificacion</t>
-  </si>
-  <si>
-    <t>Tabla: cbd_articulos_detalle</t>
-  </si>
-  <si>
-    <t>cve_articulo_detalle</t>
-  </si>
-  <si>
     <t>cve_categoria_articulo</t>
   </si>
   <si>
     <t>imagen_ruta</t>
   </si>
   <si>
-    <t>Tabla: cbd_cata_categoria_articulos</t>
-  </si>
-  <si>
     <t>* Documentación DHL</t>
   </si>
   <si>
-    <t>* Revisar campos inventario</t>
-  </si>
-  <si>
     <t>Jalisco, Michoacan, CDMX, etc.</t>
   </si>
   <si>
@@ -455,6 +423,102 @@
   </si>
   <si>
     <t>id_tipo_identificacion</t>
+  </si>
+  <si>
+    <t>Pendiente, Enviado, Cancelado, Devuelto, Etc.</t>
+  </si>
+  <si>
+    <t>metodo_pago</t>
+  </si>
+  <si>
+    <t>fch_cancelacion</t>
+  </si>
+  <si>
+    <t>fch_devolucion</t>
+  </si>
+  <si>
+    <t>guia_envio</t>
+  </si>
+  <si>
+    <t>telefono_contacto</t>
+  </si>
+  <si>
+    <t>precio_unitario</t>
+  </si>
+  <si>
+    <t>subtotal</t>
+  </si>
+  <si>
+    <t>descuento</t>
+  </si>
+  <si>
+    <t>sku</t>
+  </si>
+  <si>
+    <t>id_subcategoria_articulo</t>
+  </si>
+  <si>
+    <t>cve_subcategoria_articulo</t>
+  </si>
+  <si>
+    <t>concentracion</t>
+  </si>
+  <si>
+    <t>presentacion</t>
+  </si>
+  <si>
+    <t>sabor</t>
+  </si>
+  <si>
+    <t>descripcion_corta</t>
+  </si>
+  <si>
+    <t>descripcion_larga</t>
+  </si>
+  <si>
+    <t>varchar (1000)</t>
+  </si>
+  <si>
+    <t>precio</t>
+  </si>
+  <si>
+    <t>inventario_cantidad</t>
+  </si>
+  <si>
+    <t>Tabla: cbd_articulos_historico</t>
+  </si>
+  <si>
+    <t>Tabla: cbd_pedidos_historico</t>
+  </si>
+  <si>
+    <t>numero_referencia_pago</t>
+  </si>
+  <si>
+    <t>id_metodo_pago</t>
+  </si>
+  <si>
+    <t>cve_metodo_pago</t>
+  </si>
+  <si>
+    <t>Scotiabank, Etc</t>
+  </si>
+  <si>
+    <t>Tabla: cbd_cata_metodo_pago</t>
+  </si>
+  <si>
+    <t>precio_con_descuento</t>
+  </si>
+  <si>
+    <t>Tabla: cbd_cata_categoria_articulo</t>
+  </si>
+  <si>
+    <t>Tabla: cbd_cata_subcategoria_articulo</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>fecha_creacion</t>
   </si>
 </sst>
 </file>
@@ -520,7 +584,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -601,12 +665,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
@@ -627,6 +685,30 @@
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -853,7 +935,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -894,7 +976,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -951,7 +1032,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -959,30 +1039,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1012,24 +1092,92 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1069,42 +1217,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1114,22 +1226,43 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1139,18 +1272,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1615,9 +1736,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>1954696</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>121478</xdr:rowOff>
+      <xdr:colOff>1467069</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>120431</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
@@ -1638,8 +1759,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="28956000" y="9795565"/>
-          <a:ext cx="2473739" cy="1016000"/>
+          <a:off x="30162500" y="11408103"/>
+          <a:ext cx="2951940" cy="1047"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1671,12 +1792,12 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>2314222</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>112889</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>84667</xdr:rowOff>
     </xdr:to>
@@ -1693,12 +1814,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="19275778" y="6956778"/>
-          <a:ext cx="3810000" cy="3429000"/>
+          <a:off x="20526022" y="7861300"/>
+          <a:ext cx="3883378" cy="3094567"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 67910"/>
+            <a:gd name="adj1" fmla="val 67987"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -1725,15 +1846,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>1965739</xdr:colOff>
+      <xdr:colOff>1447800</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>99391</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>817218</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>77304</xdr:rowOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1748,12 +1869,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="29121652" y="8139043"/>
-          <a:ext cx="2484783" cy="1656522"/>
+          <a:off x="30162500" y="8455991"/>
+          <a:ext cx="3001618" cy="2669209"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 49111"/>
+            <a:gd name="adj1" fmla="val 57616"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -1837,7 +1958,7 @@
       <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>114302</xdr:rowOff>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
@@ -1858,8 +1979,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="30581600" y="12014202"/>
-          <a:ext cx="2476500" cy="2273298"/>
+          <a:off x="30695900" y="12039600"/>
+          <a:ext cx="2476500" cy="2286000"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1974,6 +2095,116 @@
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
             <a:gd name="adj1" fmla="val 16089"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Conector angular 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA2B95AD-6905-9E4A-9D9A-5D69B90BF947}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="29095700" y="12268200"/>
+          <a:ext cx="4064000" cy="3492500"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 36875"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1214782</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>97735</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>6074</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>110435</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Conector angular 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32D32206-659A-834F-A7DD-6D2552D9B1D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="19425478" y="8413474"/>
+          <a:ext cx="5019813" cy="4187135"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 82780"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -2297,10 +2528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{770F6DCC-4CB2-7A4E-A798-91BAB4EC9683}">
-  <dimension ref="A1:AM81"/>
+  <dimension ref="A1:AM134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="O30" zoomScale="133" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T45" sqref="T45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2327,113 +2558,113 @@
     <col min="22" max="22" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="26" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="27" width="10.83203125" style="1"/>
-    <col min="28" max="28" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="30.5" style="1" bestFit="1" customWidth="1"/>
     <col min="32" max="34" width="10.83203125" style="1"/>
     <col min="35" max="35" width="5.5" style="1" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="17.5" style="1" bestFit="1" customWidth="1"/>
     <col min="40" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="37" x14ac:dyDescent="0.45">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
     </row>
     <row r="2" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="C3" s="135" t="s">
-        <v>140</v>
-      </c>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="137"/>
+      <c r="C3" s="131" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="133"/>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="C4" s="100" t="s">
+      <c r="C4" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="101" t="s">
+      <c r="D4" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="101" t="s">
+      <c r="E4" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="101" t="s">
+      <c r="F4" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="102" t="s">
+      <c r="G4" s="100" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="98" t="s">
+      <c r="C5" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="99" t="s">
-        <v>95</v>
-      </c>
-      <c r="E5" s="99" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="99" t="s">
+      <c r="D5" s="97" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="97" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="97" t="s">
         <v>34</v>
       </c>
       <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="E6" s="63" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="63" t="s">
+      <c r="D6" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="62" t="s">
         <v>39</v>
       </c>
       <c r="G6" s="10"/>
-      <c r="K6" s="116" t="s">
+      <c r="K6" s="146" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="117"/>
-      <c r="M6" s="117"/>
-      <c r="N6" s="117"/>
-      <c r="O6" s="118"/>
-      <c r="S6" s="119" t="s">
+      <c r="L6" s="147"/>
+      <c r="M6" s="147"/>
+      <c r="N6" s="147"/>
+      <c r="O6" s="148"/>
+      <c r="S6" s="149" t="s">
         <v>36</v>
       </c>
-      <c r="T6" s="120"/>
-      <c r="U6" s="120"/>
-      <c r="V6" s="121"/>
-      <c r="W6" s="122"/>
+      <c r="T6" s="150"/>
+      <c r="U6" s="150"/>
+      <c r="V6" s="151"/>
+      <c r="W6" s="152"/>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C7" s="25"/>
       <c r="D7" s="18" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F7" s="19" t="s">
         <v>39</v>
@@ -2454,35 +2685,35 @@
       <c r="O7" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="S7" s="33" t="s">
+      <c r="S7" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="T7" s="34" t="s">
+      <c r="T7" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="U7" s="34" t="s">
+      <c r="U7" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="V7" s="35" t="s">
+      <c r="V7" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="W7" s="36" t="s">
+      <c r="W7" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="AI7" s="119" t="s">
-        <v>116</v>
-      </c>
-      <c r="AJ7" s="120"/>
-      <c r="AK7" s="120"/>
-      <c r="AL7" s="120"/>
-      <c r="AM7" s="122"/>
+      <c r="AI7" s="149" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ7" s="150"/>
+      <c r="AK7" s="150"/>
+      <c r="AL7" s="150"/>
+      <c r="AM7" s="152"/>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C8" s="25"/>
       <c r="D8" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="64" t="s">
+      <c r="E8" s="63" t="s">
         <v>31</v>
       </c>
       <c r="F8" s="19" t="s">
@@ -2502,32 +2733,32 @@
         <v>34</v>
       </c>
       <c r="O8" s="13"/>
-      <c r="S8" s="37" t="s">
+      <c r="S8" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="T8" s="38" t="s">
+      <c r="T8" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="U8" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="V8" s="39" t="s">
+      <c r="U8" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="V8" s="38" t="s">
         <v>34</v>
       </c>
       <c r="W8" s="8"/>
-      <c r="AI8" s="33" t="s">
+      <c r="AI8" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="AJ8" s="34" t="s">
+      <c r="AJ8" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="AK8" s="34" t="s">
+      <c r="AK8" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="AL8" s="34" t="s">
+      <c r="AL8" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="AM8" s="36" t="s">
+      <c r="AM8" s="35" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2536,7 +2767,7 @@
       <c r="D9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="64" t="s">
+      <c r="E9" s="63" t="s">
         <v>31</v>
       </c>
       <c r="F9" s="19" t="s">
@@ -2563,22 +2794,22 @@
       <c r="U9" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="V9" s="31" t="s">
+      <c r="V9" s="30" t="s">
         <v>39</v>
       </c>
       <c r="W9" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AI9" s="37" t="s">
+      <c r="AI9" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="AJ9" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="AK9" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="AL9" s="38" t="s">
+      <c r="AJ9" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK9" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL9" s="37" t="s">
         <v>34</v>
       </c>
       <c r="AM9" s="8"/>
@@ -2586,9 +2817,9 @@
     <row r="10" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C10" s="25"/>
       <c r="D10" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="E10" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="63" t="s">
         <v>31</v>
       </c>
       <c r="F10" s="19" t="s">
@@ -2613,7 +2844,7 @@
       <c r="U10" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="V10" s="32" t="s">
+      <c r="V10" s="31" t="s">
         <v>39</v>
       </c>
       <c r="W10" s="6" t="s">
@@ -2621,7 +2852,7 @@
       </c>
       <c r="AI10" s="4"/>
       <c r="AJ10" s="18" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="AK10" s="18" t="s">
         <v>33</v>
@@ -2636,7 +2867,7 @@
       <c r="D11" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="64" t="s">
+      <c r="E11" s="63" t="s">
         <v>31</v>
       </c>
       <c r="F11" s="19" t="s">
@@ -2655,18 +2886,18 @@
       </c>
       <c r="O11" s="5"/>
       <c r="S11" s="23"/>
-      <c r="AA11" s="126" t="s">
+      <c r="AA11" s="156" t="s">
         <v>43</v>
       </c>
-      <c r="AB11" s="127"/>
-      <c r="AC11" s="127"/>
-      <c r="AD11" s="127"/>
-      <c r="AE11" s="128"/>
+      <c r="AB11" s="157"/>
+      <c r="AC11" s="157"/>
+      <c r="AD11" s="157"/>
+      <c r="AE11" s="158"/>
       <c r="AI11" s="4"/>
       <c r="AJ11" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="AK11" s="64" t="s">
+        <v>119</v>
+      </c>
+      <c r="AK11" s="63" t="s">
         <v>33</v>
       </c>
       <c r="AL11" s="19" t="s">
@@ -2677,9 +2908,9 @@
     <row r="12" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C12" s="25"/>
       <c r="D12" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="E12" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="63" t="s">
         <v>33</v>
       </c>
       <c r="F12" s="19" t="s">
@@ -2698,19 +2929,19 @@
       </c>
       <c r="O12" s="5"/>
       <c r="S12" s="23"/>
-      <c r="AA12" s="47" t="s">
+      <c r="AA12" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="AB12" s="48" t="s">
+      <c r="AB12" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="AC12" s="48" t="s">
+      <c r="AC12" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="AD12" s="48" t="s">
+      <c r="AD12" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="AE12" s="49" t="s">
+      <c r="AE12" s="48" t="s">
         <v>21</v>
       </c>
       <c r="AI12" s="4"/>
@@ -2718,7 +2949,7 @@
         <v>1</v>
       </c>
       <c r="AK12" s="18" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="AL12" s="19" t="s">
         <v>39</v>
@@ -2728,10 +2959,10 @@
     <row r="13" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C13" s="25"/>
       <c r="D13" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="E13" s="64" t="s">
-        <v>106</v>
+        <v>95</v>
+      </c>
+      <c r="E13" s="63" t="s">
+        <v>101</v>
       </c>
       <c r="F13" s="19" t="s">
         <v>39</v>
@@ -2749,22 +2980,22 @@
       </c>
       <c r="O13" s="5"/>
       <c r="S13" s="23"/>
-      <c r="AA13" s="50" t="s">
+      <c r="AA13" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="AB13" s="51" t="s">
+      <c r="AB13" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="AC13" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD13" s="51" t="s">
+      <c r="AC13" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD13" s="50" t="s">
         <v>34</v>
       </c>
       <c r="AE13" s="3"/>
       <c r="AI13" s="4"/>
       <c r="AJ13" s="18" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="AK13" s="18" t="s">
         <v>33</v>
@@ -2777,10 +3008,10 @@
     <row r="14" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C14" s="25"/>
       <c r="D14" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="63" t="s">
         <v>101</v>
-      </c>
-      <c r="E14" s="64" t="s">
-        <v>106</v>
       </c>
       <c r="F14" s="19" t="s">
         <v>39</v>
@@ -2798,16 +3029,16 @@
       </c>
       <c r="O14" s="5"/>
       <c r="S14" s="23"/>
-      <c r="AA14" s="37" t="s">
+      <c r="AA14" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="AB14" s="38" t="s">
+      <c r="AB14" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="AC14" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD14" s="38" t="s">
+      <c r="AC14" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD14" s="37" t="s">
         <v>39</v>
       </c>
       <c r="AE14" s="8"/>
@@ -2826,45 +3057,45 @@
     <row r="15" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C15" s="25"/>
       <c r="D15" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="E15" s="64" t="s">
-        <v>106</v>
+        <v>94</v>
+      </c>
+      <c r="E15" s="63" t="s">
+        <v>101</v>
       </c>
       <c r="F15" s="19" t="s">
         <v>39</v>
       </c>
       <c r="G15" s="5"/>
-      <c r="K15" s="37" t="s">
+      <c r="K15" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="L15" s="38" t="s">
+      <c r="L15" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="M15" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="N15" s="38" t="s">
+      <c r="M15" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="N15" s="37" t="s">
         <v>39</v>
       </c>
       <c r="O15" s="8"/>
-      <c r="S15" s="123" t="s">
+      <c r="S15" s="153" t="s">
         <v>37</v>
       </c>
-      <c r="T15" s="124"/>
-      <c r="U15" s="124"/>
-      <c r="V15" s="124"/>
-      <c r="W15" s="125"/>
-      <c r="AA15" s="44" t="s">
+      <c r="T15" s="154"/>
+      <c r="U15" s="154"/>
+      <c r="V15" s="154"/>
+      <c r="W15" s="155"/>
+      <c r="AA15" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="AB15" s="45" t="s">
+      <c r="AB15" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="AC15" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD15" s="45" t="s">
+      <c r="AC15" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD15" s="44" t="s">
         <v>39</v>
       </c>
       <c r="AE15" s="7"/>
@@ -2883,7 +3114,7 @@
       <c r="D16" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="64" t="s">
+      <c r="E16" s="63" t="s">
         <v>41</v>
       </c>
       <c r="F16" s="19" t="s">
@@ -2901,19 +3132,19 @@
         <v>39</v>
       </c>
       <c r="O16" s="5"/>
-      <c r="S16" s="40" t="s">
+      <c r="S16" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="T16" s="41" t="s">
+      <c r="T16" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="U16" s="41" t="s">
+      <c r="U16" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="V16" s="115" t="s">
+      <c r="V16" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="W16" s="43" t="s">
+      <c r="W16" s="42" t="s">
         <v>21</v>
       </c>
       <c r="AA16" s="25"/>
@@ -2942,10 +3173,10 @@
     <row r="17" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C17" s="25"/>
       <c r="D17" s="19" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="5"/>
@@ -2958,16 +3189,16 @@
       </c>
       <c r="N17" s="18"/>
       <c r="O17" s="5"/>
-      <c r="S17" s="44" t="s">
+      <c r="S17" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="T17" s="45" t="s">
+      <c r="T17" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="U17" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="V17" s="45" t="s">
+      <c r="U17" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="V17" s="44" t="s">
         <v>34</v>
       </c>
       <c r="W17" s="7"/>
@@ -3138,13 +3369,13 @@
       </c>
       <c r="F21" s="18"/>
       <c r="G21" s="5"/>
-      <c r="AI21" s="138" t="s">
-        <v>120</v>
-      </c>
-      <c r="AJ21" s="139"/>
-      <c r="AK21" s="139"/>
-      <c r="AL21" s="139"/>
-      <c r="AM21" s="140"/>
+      <c r="AI21" s="172" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ21" s="173"/>
+      <c r="AK21" s="173"/>
+      <c r="AL21" s="173"/>
+      <c r="AM21" s="174"/>
     </row>
     <row r="22" spans="3:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C22" s="26"/>
@@ -3160,37 +3391,37 @@
       <c r="G22" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AI22" s="104" t="s">
+      <c r="AI22" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="AJ22" s="105" t="s">
+      <c r="AJ22" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="AK22" s="105" t="s">
+      <c r="AK22" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="AL22" s="105" t="s">
+      <c r="AL22" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="AM22" s="106" t="s">
+      <c r="AM22" s="104" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C23" s="23"/>
-      <c r="AI23" s="107" t="s">
+      <c r="AI23" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="AJ23" s="108" t="s">
-        <v>121</v>
-      </c>
-      <c r="AK23" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="AL23" s="108" t="s">
+      <c r="AJ23" s="106" t="s">
+        <v>114</v>
+      </c>
+      <c r="AK23" s="106" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL23" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="AM23" s="109"/>
+      <c r="AM23" s="107"/>
     </row>
     <row r="24" spans="3:39" x14ac:dyDescent="0.2">
       <c r="AI24" s="4"/>
@@ -3219,26 +3450,26 @@
       <c r="AM25" s="5"/>
     </row>
     <row r="26" spans="3:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K26" s="129" t="s">
+      <c r="K26" s="143" t="s">
         <v>50</v>
       </c>
-      <c r="L26" s="130"/>
-      <c r="M26" s="130"/>
-      <c r="N26" s="130"/>
-      <c r="O26" s="131"/>
-      <c r="S26" s="141" t="s">
+      <c r="L26" s="144"/>
+      <c r="M26" s="144"/>
+      <c r="N26" s="144"/>
+      <c r="O26" s="145"/>
+      <c r="S26" s="159" t="s">
         <v>74</v>
       </c>
-      <c r="T26" s="142"/>
-      <c r="U26" s="142"/>
-      <c r="V26" s="142"/>
-      <c r="W26" s="143"/>
+      <c r="T26" s="160"/>
+      <c r="U26" s="160"/>
+      <c r="V26" s="160"/>
+      <c r="W26" s="161"/>
       <c r="AI26" s="4"/>
       <c r="AJ26" s="18" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="AK26" s="18" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="AL26" s="18" t="s">
         <v>39</v>
@@ -3246,41 +3477,41 @@
       <c r="AM26" s="5"/>
     </row>
     <row r="27" spans="3:39" x14ac:dyDescent="0.2">
-      <c r="C27" s="154" t="s">
-        <v>141</v>
-      </c>
-      <c r="D27" s="155"/>
-      <c r="E27" s="155"/>
-      <c r="F27" s="155"/>
-      <c r="G27" s="156"/>
-      <c r="K27" s="59" t="s">
+      <c r="C27" s="169" t="s">
+        <v>128</v>
+      </c>
+      <c r="D27" s="170"/>
+      <c r="E27" s="170"/>
+      <c r="F27" s="170"/>
+      <c r="G27" s="171"/>
+      <c r="K27" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="L27" s="60" t="s">
+      <c r="L27" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="M27" s="60" t="s">
+      <c r="M27" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="N27" s="60" t="s">
+      <c r="N27" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="O27" s="61" t="s">
+      <c r="O27" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="S27" s="69" t="s">
+      <c r="S27" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="T27" s="70" t="s">
+      <c r="T27" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="U27" s="70" t="s">
+      <c r="U27" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="V27" s="70" t="s">
+      <c r="V27" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="W27" s="72" t="s">
+      <c r="W27" s="70" t="s">
         <v>21</v>
       </c>
       <c r="AI27" s="4"/>
@@ -3296,47 +3527,47 @@
       <c r="AM27" s="5"/>
     </row>
     <row r="28" spans="3:39" x14ac:dyDescent="0.2">
-      <c r="C28" s="53" t="s">
+      <c r="C28" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="54" t="s">
+      <c r="D28" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="54" t="s">
+      <c r="E28" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="F28" s="54" t="s">
+      <c r="F28" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="G28" s="55" t="s">
+      <c r="G28" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="K28" s="62" t="s">
+      <c r="K28" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="L28" s="63" t="s">
+      <c r="L28" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="M28" s="63" t="s">
-        <v>29</v>
-      </c>
-      <c r="N28" s="63" t="s">
+      <c r="M28" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="N28" s="62" t="s">
         <v>34</v>
       </c>
       <c r="O28" s="10"/>
-      <c r="S28" s="73" t="s">
+      <c r="S28" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="T28" s="74" t="s">
+      <c r="T28" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="U28" s="74" t="s">
-        <v>29</v>
-      </c>
-      <c r="V28" s="74" t="s">
+      <c r="U28" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="V28" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="W28" s="75"/>
+      <c r="W28" s="73"/>
       <c r="AI28" s="4"/>
       <c r="AJ28" s="19" t="s">
         <v>6</v>
@@ -3348,19 +3579,19 @@
       <c r="AM28" s="5"/>
     </row>
     <row r="29" spans="3:39" x14ac:dyDescent="0.2">
-      <c r="C29" s="56" t="s">
+      <c r="C29" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="57" t="s">
-        <v>105</v>
-      </c>
-      <c r="E29" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="F29" s="57" t="s">
+      <c r="D29" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="G29" s="58"/>
+      <c r="G29" s="57"/>
       <c r="K29" s="25"/>
       <c r="L29" s="19" t="s">
         <v>0</v>
@@ -3372,19 +3603,19 @@
         <v>39</v>
       </c>
       <c r="O29" s="5"/>
-      <c r="S29" s="62" t="s">
+      <c r="S29" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="T29" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="U29" s="63" t="s">
-        <v>29</v>
-      </c>
-      <c r="V29" s="63" t="s">
-        <v>39</v>
-      </c>
-      <c r="W29" s="97"/>
+      <c r="T29" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="U29" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="V29" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="W29" s="95"/>
       <c r="AI29" s="4"/>
       <c r="AJ29" s="19" t="s">
         <v>8</v>
@@ -3396,16 +3627,16 @@
       <c r="AM29" s="5"/>
     </row>
     <row r="30" spans="3:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="62" t="s">
+      <c r="C30" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="E30" s="63" t="s">
-        <v>29</v>
-      </c>
-      <c r="F30" s="63" t="s">
+      <c r="D30" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="62" t="s">
         <v>39</v>
       </c>
       <c r="G30" s="10"/>
@@ -3420,19 +3651,17 @@
         <v>39</v>
       </c>
       <c r="O30" s="5"/>
-      <c r="S30" s="25"/>
+      <c r="S30" s="4"/>
       <c r="T30" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="U30" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="V30" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="W30" s="12" t="s">
-        <v>7</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="U30" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="V30" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="W30" s="5"/>
       <c r="AI30" s="20"/>
       <c r="AJ30" s="21" t="s">
         <v>3</v>
@@ -3470,10 +3699,10 @@
       <c r="O31" s="5"/>
       <c r="S31" s="25"/>
       <c r="T31" s="18" t="s">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="U31" s="18" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="V31" s="18" t="s">
         <v>39</v>
@@ -3485,7 +3714,7 @@
       <c r="D32" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E32" s="64" t="s">
+      <c r="E32" s="63" t="s">
         <v>41</v>
       </c>
       <c r="F32" s="19" t="s">
@@ -3503,12 +3732,12 @@
         <v>39</v>
       </c>
       <c r="O32" s="5"/>
-      <c r="S32" s="25"/>
+      <c r="S32" s="4"/>
       <c r="T32" s="18" t="s">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="U32" s="18" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="V32" s="18" t="s">
         <v>39</v>
@@ -3520,7 +3749,7 @@
       <c r="D33" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="E33" s="64" t="s">
+      <c r="E33" s="63" t="s">
         <v>31</v>
       </c>
       <c r="F33" s="19" t="s">
@@ -3540,10 +3769,10 @@
       <c r="O33" s="5"/>
       <c r="S33" s="25"/>
       <c r="T33" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U33" s="18" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="V33" s="18" t="s">
         <v>39</v>
@@ -3555,7 +3784,7 @@
       <c r="D34" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="64" t="s">
+      <c r="E34" s="63" t="s">
         <v>31</v>
       </c>
       <c r="F34" s="19" t="s">
@@ -3574,23 +3803,23 @@
       </c>
       <c r="O34" s="5"/>
       <c r="S34" s="25"/>
-      <c r="T34" s="19" t="s">
+      <c r="T34" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="U34" s="64" t="s">
-        <v>41</v>
-      </c>
-      <c r="V34" s="18"/>
-      <c r="W34" s="5" t="s">
-        <v>132</v>
-      </c>
+      <c r="U34" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="V34" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="W34" s="5"/>
     </row>
     <row r="35" spans="3:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C35" s="25"/>
       <c r="D35" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="E35" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="E35" s="63" t="s">
         <v>31</v>
       </c>
       <c r="F35" s="19" t="s">
@@ -3608,268 +3837,276 @@
         <v>39</v>
       </c>
       <c r="O35" s="5"/>
-      <c r="S35" s="84" t="s">
-        <v>46</v>
-      </c>
-      <c r="T35" s="78" t="s">
-        <v>81</v>
-      </c>
-      <c r="U35" s="78" t="s">
-        <v>29</v>
-      </c>
-      <c r="V35" s="78" t="s">
-        <v>39</v>
-      </c>
-      <c r="W35" s="86"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="U35" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="V35" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="W35" s="5"/>
     </row>
     <row r="36" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C36" s="25"/>
       <c r="D36" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E36" s="64" t="s">
+      <c r="E36" s="63" t="s">
         <v>31</v>
       </c>
       <c r="F36" s="19" t="s">
         <v>39</v>
       </c>
       <c r="G36" s="5"/>
-      <c r="K36" s="44" t="s">
+      <c r="K36" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="L36" s="45" t="s">
+      <c r="L36" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="M36" s="66" t="s">
-        <v>29</v>
-      </c>
-      <c r="N36" s="45" t="s">
+      <c r="M36" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="N36" s="44" t="s">
         <v>39</v>
       </c>
       <c r="O36" s="7"/>
-      <c r="S36" s="98" t="s">
-        <v>46</v>
-      </c>
-      <c r="T36" s="99" t="s">
-        <v>84</v>
-      </c>
-      <c r="U36" s="99" t="s">
-        <v>29</v>
-      </c>
-      <c r="V36" s="99" t="s">
-        <v>39</v>
-      </c>
-      <c r="W36" s="11"/>
-      <c r="AA36" s="138" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB36" s="139"/>
-      <c r="AC36" s="139"/>
-      <c r="AD36" s="139"/>
-      <c r="AE36" s="140"/>
+      <c r="S36" s="25"/>
+      <c r="T36" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="U36" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="V36" s="18"/>
+      <c r="W36" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA36" s="172" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB36" s="173"/>
+      <c r="AC36" s="173"/>
+      <c r="AD36" s="173"/>
+      <c r="AE36" s="174"/>
     </row>
     <row r="37" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C37" s="25"/>
       <c r="D37" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="E37" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="E37" s="63" t="s">
         <v>33</v>
       </c>
       <c r="F37" s="19" t="s">
         <v>39</v>
       </c>
       <c r="G37" s="5"/>
-      <c r="K37" s="24" t="s">
+      <c r="K37" s="111" t="s">
         <v>46</v>
       </c>
-      <c r="L37" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="M37" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="N37" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="O37" s="13" t="s">
+      <c r="L37" s="112" t="s">
+        <v>129</v>
+      </c>
+      <c r="M37" s="112" t="s">
+        <v>29</v>
+      </c>
+      <c r="N37" s="112" t="s">
+        <v>39</v>
+      </c>
+      <c r="O37" s="113" t="s">
         <v>54</v>
       </c>
-      <c r="S37" s="56" t="s">
+      <c r="S37" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="T37" s="57" t="s">
-        <v>85</v>
-      </c>
-      <c r="U37" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="V37" s="57"/>
-      <c r="W37" s="58"/>
-      <c r="AA37" s="104" t="s">
+      <c r="T37" s="76" t="s">
+        <v>79</v>
+      </c>
+      <c r="U37" s="76" t="s">
+        <v>29</v>
+      </c>
+      <c r="V37" s="76" t="s">
+        <v>39</v>
+      </c>
+      <c r="W37" s="84"/>
+      <c r="AA37" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="AB37" s="105" t="s">
+      <c r="AB37" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="AC37" s="105" t="s">
+      <c r="AC37" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="AD37" s="105" t="s">
+      <c r="AD37" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="AE37" s="106" t="s">
+      <c r="AE37" s="104" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="38" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C38" s="25"/>
       <c r="D38" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="E38" s="64" t="s">
-        <v>106</v>
+        <v>95</v>
+      </c>
+      <c r="E38" s="63" t="s">
+        <v>101</v>
       </c>
       <c r="F38" s="19" t="s">
         <v>39</v>
       </c>
       <c r="G38" s="5"/>
-      <c r="K38" s="68"/>
-      <c r="L38" s="19" t="s">
+      <c r="K38" s="111"/>
+      <c r="L38" s="112" t="s">
         <v>56</v>
       </c>
-      <c r="M38" s="19" t="s">
+      <c r="M38" s="112" t="s">
         <v>58</v>
       </c>
-      <c r="N38" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="O38" s="9"/>
-      <c r="S38" s="4"/>
-      <c r="T38" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="U38" s="64" t="s">
-        <v>41</v>
-      </c>
-      <c r="V38" s="18"/>
-      <c r="W38" s="5"/>
-      <c r="AA38" s="107" t="s">
+      <c r="N38" s="112" t="s">
+        <v>39</v>
+      </c>
+      <c r="O38" s="113"/>
+      <c r="S38" s="96" t="s">
+        <v>46</v>
+      </c>
+      <c r="T38" s="97" t="s">
+        <v>82</v>
+      </c>
+      <c r="U38" s="97" t="s">
+        <v>29</v>
+      </c>
+      <c r="V38" s="97" t="s">
+        <v>39</v>
+      </c>
+      <c r="W38" s="11"/>
+      <c r="AA38" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="AB38" s="108" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC38" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD38" s="108" t="s">
+      <c r="AB38" s="106" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC38" s="106" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD38" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="AE38" s="109"/>
+      <c r="AE38" s="107"/>
     </row>
     <row r="39" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C39" s="25"/>
       <c r="D39" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="E39" s="63" t="s">
         <v>101</v>
       </c>
-      <c r="E39" s="64" t="s">
+      <c r="F39" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G39" s="5"/>
+      <c r="K39" s="71" t="s">
+        <v>46</v>
+      </c>
+      <c r="L39" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="M39" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="N39" s="72" t="s">
+        <v>39</v>
+      </c>
+      <c r="O39" s="73"/>
+      <c r="S39" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="T39" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="U39" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="V39" s="56"/>
+      <c r="W39" s="57"/>
+      <c r="AA39" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB39" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="F39" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="G39" s="5"/>
-      <c r="K39" s="73" t="s">
-        <v>46</v>
-      </c>
-      <c r="L39" s="74" t="s">
-        <v>66</v>
-      </c>
-      <c r="M39" s="74" t="s">
-        <v>29</v>
-      </c>
-      <c r="N39" s="74" t="s">
-        <v>39</v>
-      </c>
-      <c r="O39" s="75"/>
-      <c r="S39" s="68"/>
-      <c r="T39" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="U39" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="V39" s="19"/>
-      <c r="W39" s="9"/>
-      <c r="AA39" s="103" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB39" s="74" t="s">
-        <v>111</v>
-      </c>
-      <c r="AC39" s="74" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD39" s="74" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE39" s="75"/>
+      <c r="AC39" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD39" s="72" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE39" s="73"/>
     </row>
     <row r="40" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C40" s="25"/>
       <c r="D40" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="E40" s="64" t="s">
-        <v>106</v>
+        <v>94</v>
+      </c>
+      <c r="E40" s="63" t="s">
+        <v>101</v>
       </c>
       <c r="F40" s="19" t="s">
         <v>39</v>
       </c>
       <c r="G40" s="5"/>
-      <c r="K40" s="76" t="s">
+      <c r="K40" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="L40" s="77" t="s">
+      <c r="L40" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="M40" s="78" t="s">
-        <v>29</v>
-      </c>
-      <c r="N40" s="77" t="s">
-        <v>39</v>
-      </c>
-      <c r="O40" s="79"/>
-      <c r="S40" s="25"/>
-      <c r="T40" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="U40" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="V40" s="18"/>
-      <c r="W40" s="5"/>
+      <c r="M40" s="76" t="s">
+        <v>29</v>
+      </c>
+      <c r="N40" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="O40" s="77"/>
+      <c r="S40" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="T40" s="62" t="s">
+        <v>153</v>
+      </c>
+      <c r="U40" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="V40" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="W40" s="10"/>
       <c r="AA40" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="AB40" s="91" t="s">
+      <c r="AB40" s="89" t="s">
         <v>76</v>
       </c>
-      <c r="AC40" s="91" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD40" s="91" t="s">
+      <c r="AC40" s="89" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD40" s="89" t="s">
         <v>39</v>
       </c>
       <c r="AE40" s="14"/>
     </row>
-    <row r="41" spans="3:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C41" s="25"/>
       <c r="D41" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E41" s="64" t="s">
+      <c r="E41" s="63" t="s">
         <v>41</v>
       </c>
       <c r="F41" s="19" t="s">
@@ -3887,28 +4124,30 @@
       <c r="O41" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="S41" s="26"/>
-      <c r="T41" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="U41" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="V41" s="22"/>
-      <c r="W41" s="6"/>
-      <c r="AA41" s="20"/>
-      <c r="AB41" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC41" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD41" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE41" s="6"/>
-    </row>
-    <row r="42" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="S41" s="4"/>
+      <c r="T41" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="U41" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="V41" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="W41" s="5"/>
+      <c r="AA41" s="4"/>
+      <c r="AB41" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC41" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD41" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE41" s="5"/>
+    </row>
+    <row r="42" spans="3:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C42" s="25"/>
       <c r="D42" s="19" t="s">
         <v>4</v>
@@ -3927,6 +4166,28 @@
       </c>
       <c r="N42" s="18"/>
       <c r="O42" s="5"/>
+      <c r="S42" s="25"/>
+      <c r="T42" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="U42" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="V42" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="W42" s="12"/>
+      <c r="AA42" s="20"/>
+      <c r="AB42" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC42" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD42" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE42" s="6"/>
     </row>
     <row r="43" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C43" s="25"/>
@@ -3949,6 +4210,15 @@
         <v>39</v>
       </c>
       <c r="O43" s="5"/>
+      <c r="S43" s="66"/>
+      <c r="T43" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="U43" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="V43" s="19"/>
+      <c r="W43" s="9"/>
     </row>
     <row r="44" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C44" s="25"/>
@@ -3971,6 +4241,15 @@
       </c>
       <c r="N44" s="18"/>
       <c r="O44" s="5"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="U44" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="V44" s="18"/>
+      <c r="W44" s="5"/>
     </row>
     <row r="45" spans="3:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C45" s="25"/>
@@ -3995,6 +4274,15 @@
       <c r="O45" s="6" t="s">
         <v>62</v>
       </c>
+      <c r="S45" s="4"/>
+      <c r="T45" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="U45" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="V45" s="18"/>
+      <c r="W45" s="5"/>
     </row>
     <row r="46" spans="3:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C46" s="26"/>
@@ -4010,30 +4298,26 @@
       <c r="G46" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="S46" s="147" t="s">
-        <v>86</v>
-      </c>
-      <c r="T46" s="148"/>
-      <c r="U46" s="148"/>
-      <c r="V46" s="148"/>
-      <c r="W46" s="149"/>
-    </row>
-    <row r="47" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="S47" s="87" t="s">
-        <v>22</v>
-      </c>
-      <c r="T47" s="88" t="s">
-        <v>19</v>
-      </c>
-      <c r="U47" s="88" t="s">
-        <v>20</v>
-      </c>
-      <c r="V47" s="88" t="s">
-        <v>40</v>
-      </c>
-      <c r="W47" s="89" t="s">
-        <v>21</v>
-      </c>
+      <c r="S46" s="25"/>
+      <c r="T46" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="U46" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="V46" s="18"/>
+      <c r="W46" s="5"/>
+    </row>
+    <row r="47" spans="3:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S47" s="26"/>
+      <c r="T47" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="U47" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="V47" s="22"/>
+      <c r="W47" s="6"/>
     </row>
     <row r="48" spans="3:31" x14ac:dyDescent="0.2">
       <c r="M48" s="2" t="s">
@@ -4043,19 +4327,6 @@
       <c r="O48" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="S48" s="90" t="s">
-        <v>23</v>
-      </c>
-      <c r="T48" s="91" t="s">
-        <v>87</v>
-      </c>
-      <c r="U48" s="91" t="s">
-        <v>29</v>
-      </c>
-      <c r="V48" s="91" t="s">
-        <v>34</v>
-      </c>
-      <c r="W48" s="14"/>
     </row>
     <row r="49" spans="3:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M49" s="2" t="s">
@@ -4065,160 +4336,138 @@
       <c r="O49" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="S49" s="25"/>
-      <c r="T49" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="U49" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="V49" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="W49" s="5"/>
     </row>
     <row r="50" spans="3:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K50" s="132" t="s">
-        <v>103</v>
-      </c>
-      <c r="L50" s="133"/>
-      <c r="M50" s="133"/>
-      <c r="N50" s="133"/>
-      <c r="O50" s="134"/>
-      <c r="S50" s="25"/>
-      <c r="T50" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="U50" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="V50" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="W50" s="5"/>
-      <c r="AA50" s="150" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB50" s="151"/>
-      <c r="AC50" s="151"/>
-      <c r="AD50" s="151"/>
-      <c r="AE50" s="152"/>
+      <c r="K50" s="165" t="s">
+        <v>98</v>
+      </c>
+      <c r="L50" s="166"/>
+      <c r="M50" s="166"/>
+      <c r="N50" s="166"/>
+      <c r="O50" s="167"/>
+      <c r="AA50" s="175" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB50" s="176"/>
+      <c r="AC50" s="176"/>
+      <c r="AD50" s="176"/>
+      <c r="AE50" s="177"/>
     </row>
     <row r="51" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C51" s="123" t="s">
+      <c r="C51" s="153" t="s">
         <v>59</v>
       </c>
-      <c r="D51" s="124"/>
-      <c r="E51" s="124"/>
-      <c r="F51" s="153"/>
-      <c r="G51" s="125"/>
-      <c r="K51" s="80" t="s">
+      <c r="D51" s="154"/>
+      <c r="E51" s="154"/>
+      <c r="F51" s="168"/>
+      <c r="G51" s="155"/>
+      <c r="K51" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="L51" s="81" t="s">
+      <c r="L51" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="M51" s="81" t="s">
+      <c r="M51" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="N51" s="82" t="s">
+      <c r="N51" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="O51" s="83" t="s">
+      <c r="O51" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="S51" s="25"/>
-      <c r="T51" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="U51" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="V51" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="W51" s="5"/>
-      <c r="AA51" s="92" t="s">
+      <c r="S51" s="134" t="s">
+        <v>84</v>
+      </c>
+      <c r="T51" s="135"/>
+      <c r="U51" s="135"/>
+      <c r="V51" s="135"/>
+      <c r="W51" s="136"/>
+      <c r="AA51" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="AB51" s="93" t="s">
+      <c r="AB51" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="AC51" s="93" t="s">
+      <c r="AC51" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="AD51" s="93" t="s">
+      <c r="AD51" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="AE51" s="94" t="s">
+      <c r="AE51" s="92" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="52" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C52" s="40" t="s">
+      <c r="C52" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D52" s="41" t="s">
+      <c r="D52" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="E52" s="41" t="s">
+      <c r="E52" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="F52" s="42" t="s">
+      <c r="F52" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="G52" s="43" t="s">
+      <c r="G52" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="K52" s="84" t="s">
+      <c r="K52" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="L52" s="78" t="s">
-        <v>104</v>
-      </c>
-      <c r="M52" s="78" t="s">
-        <v>29</v>
-      </c>
-      <c r="N52" s="85" t="s">
+      <c r="L52" s="76" t="s">
+        <v>99</v>
+      </c>
+      <c r="M52" s="76" t="s">
+        <v>29</v>
+      </c>
+      <c r="N52" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="O52" s="86"/>
-      <c r="S52" s="25"/>
-      <c r="T52" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="U52" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="V52" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="W52" s="5"/>
-      <c r="AA52" s="95" t="s">
+      <c r="O52" s="84"/>
+      <c r="S52" s="85" t="s">
+        <v>22</v>
+      </c>
+      <c r="T52" s="86" t="s">
+        <v>19</v>
+      </c>
+      <c r="U52" s="86" t="s">
+        <v>20</v>
+      </c>
+      <c r="V52" s="86" t="s">
+        <v>40</v>
+      </c>
+      <c r="W52" s="87" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA52" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="AB52" s="96" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC52" s="96" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD52" s="96" t="s">
+      <c r="AB52" s="94" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC52" s="94" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD52" s="94" t="s">
         <v>34</v>
       </c>
       <c r="AE52" s="16"/>
     </row>
     <row r="53" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C53" s="44" t="s">
+      <c r="C53" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="D53" s="45" t="s">
+      <c r="D53" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="E53" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="F53" s="46" t="s">
+      <c r="E53" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="F53" s="45" t="s">
         <v>34</v>
       </c>
       <c r="G53" s="7"/>
@@ -4229,33 +4478,35 @@
       <c r="M53" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="N53" s="31" t="s">
+      <c r="N53" s="30" t="s">
         <v>39</v>
       </c>
       <c r="O53" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="S53" s="25"/>
-      <c r="T53" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="U53" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="V53" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="W53" s="5"/>
-      <c r="AA53" s="90" t="s">
+        <v>130</v>
+      </c>
+      <c r="S53" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="T53" s="89" t="s">
+        <v>85</v>
+      </c>
+      <c r="U53" s="89" t="s">
+        <v>29</v>
+      </c>
+      <c r="V53" s="89" t="s">
+        <v>34</v>
+      </c>
+      <c r="W53" s="14"/>
+      <c r="AA53" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="AB53" s="91" t="s">
+      <c r="AB53" s="89" t="s">
         <v>76</v>
       </c>
-      <c r="AC53" s="91" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD53" s="91" t="s">
+      <c r="AC53" s="89" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD53" s="89" t="s">
         <v>39</v>
       </c>
       <c r="AE53" s="14"/>
@@ -4268,7 +4519,7 @@
       <c r="E54" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="F54" s="31" t="s">
+      <c r="F54" s="30" t="s">
         <v>39</v>
       </c>
       <c r="G54" s="5" t="s">
@@ -4281,7 +4532,7 @@
       <c r="M54" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="N54" s="32" t="s">
+      <c r="N54" s="31" t="s">
         <v>39</v>
       </c>
       <c r="O54" s="6" t="s">
@@ -4289,10 +4540,10 @@
       </c>
       <c r="S54" s="25"/>
       <c r="T54" s="19" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="U54" s="18" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="V54" s="18" t="s">
         <v>39</v>
@@ -4318,7 +4569,7 @@
       <c r="E55" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="F55" s="32" t="s">
+      <c r="F55" s="31" t="s">
         <v>39</v>
       </c>
       <c r="G55" s="6" t="s">
@@ -4326,22 +4577,20 @@
       </c>
       <c r="S55" s="4"/>
       <c r="T55" s="19" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="U55" s="18" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="V55" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="W55" s="9" t="s">
-        <v>115</v>
-      </c>
+      <c r="W55" s="5"/>
       <c r="AA55" s="25"/>
       <c r="AB55" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="AC55" s="64" t="s">
+      <c r="AC55" s="63" t="s">
         <v>33</v>
       </c>
       <c r="AD55" s="19" t="s">
@@ -4350,12 +4599,12 @@
       <c r="AE55" s="5"/>
     </row>
     <row r="56" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="S56" s="4"/>
-      <c r="T56" s="19" t="s">
-        <v>126</v>
+      <c r="S56" s="25"/>
+      <c r="T56" s="18" t="s">
+        <v>0</v>
       </c>
       <c r="U56" s="18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V56" s="18" t="s">
         <v>39</v>
@@ -4365,7 +4614,7 @@
       <c r="AB56" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="AC56" s="64" t="s">
+      <c r="AC56" s="63" t="s">
         <v>33</v>
       </c>
       <c r="AD56" s="19" t="s">
@@ -4376,24 +4625,24 @@
       </c>
     </row>
     <row r="57" spans="3:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="S57" s="62" t="s">
+      <c r="S57" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="T57" s="63" t="s">
-        <v>135</v>
-      </c>
-      <c r="U57" s="63" t="s">
-        <v>29</v>
-      </c>
-      <c r="V57" s="63" t="s">
+      <c r="T57" s="62" t="s">
+        <v>122</v>
+      </c>
+      <c r="U57" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="V57" s="62" t="s">
         <v>39</v>
       </c>
       <c r="W57" s="10"/>
       <c r="AA57" s="4"/>
       <c r="AB57" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC57" s="64" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC57" s="63" t="s">
         <v>33</v>
       </c>
       <c r="AD57" s="19" t="s">
@@ -4402,24 +4651,31 @@
       <c r="AE57" s="5"/>
     </row>
     <row r="58" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C58" s="144" t="s">
+      <c r="C58" s="162" t="s">
         <v>70</v>
       </c>
-      <c r="D58" s="145"/>
-      <c r="E58" s="145"/>
-      <c r="F58" s="145"/>
-      <c r="G58" s="146"/>
-      <c r="S58" s="4"/>
-      <c r="T58" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="U58" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="V58" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="W58" s="5"/>
+      <c r="D58" s="163"/>
+      <c r="E58" s="163"/>
+      <c r="F58" s="163"/>
+      <c r="G58" s="164"/>
+      <c r="K58" s="140" t="s">
+        <v>156</v>
+      </c>
+      <c r="L58" s="141"/>
+      <c r="M58" s="141"/>
+      <c r="N58" s="141"/>
+      <c r="O58" s="142"/>
+      <c r="S58" s="96" t="s">
+        <v>46</v>
+      </c>
+      <c r="T58" s="97" t="s">
+        <v>140</v>
+      </c>
+      <c r="U58" s="97" t="s">
+        <v>29</v>
+      </c>
+      <c r="V58" s="97"/>
+      <c r="W58" s="11"/>
       <c r="AA58" s="4"/>
       <c r="AB58" s="19" t="s">
         <v>2</v>
@@ -4432,35 +4688,45 @@
       </c>
       <c r="AE58" s="5"/>
     </row>
-    <row r="59" spans="3:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C59" s="27" t="s">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="C59" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="D59" s="28" t="s">
+      <c r="D59" s="115" t="s">
         <v>19</v>
       </c>
-      <c r="E59" s="28" t="s">
+      <c r="E59" s="115" t="s">
         <v>20</v>
       </c>
-      <c r="F59" s="67" t="s">
+      <c r="F59" s="116" t="s">
         <v>40</v>
       </c>
-      <c r="G59" s="29" t="s">
+      <c r="G59" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="S59" s="26"/>
-      <c r="T59" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="U59" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="V59" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="W59" s="6" t="s">
-        <v>62</v>
-      </c>
+      <c r="K59" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="L59" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="M59" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="N59" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="O59" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="S59" s="4"/>
+      <c r="T59" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="U59" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="W59" s="5"/>
       <c r="AA59" s="25"/>
       <c r="AB59" s="19" t="s">
         <v>4</v>
@@ -4476,22 +4742,41 @@
       </c>
     </row>
     <row r="60" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C60" s="24" t="s">
+      <c r="C60" s="111" t="s">
         <v>23</v>
       </c>
-      <c r="D60" s="17" t="s">
+      <c r="D60" s="112" t="s">
         <v>71</v>
       </c>
-      <c r="E60" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="F60" s="30" t="s">
+      <c r="E60" s="112" t="s">
+        <v>29</v>
+      </c>
+      <c r="F60" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="G60" s="13"/>
-      <c r="T60" s="111" t="s">
-        <v>133</v>
-      </c>
+      <c r="G60" s="113"/>
+      <c r="K60" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="L60" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="M60" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="N60" s="130" t="s">
+        <v>34</v>
+      </c>
+      <c r="O60" s="10"/>
+      <c r="S60" s="4"/>
+      <c r="T60" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="U60" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="V60" s="18"/>
+      <c r="W60" s="5"/>
       <c r="AA60" s="25"/>
       <c r="AB60" s="19" t="s">
         <v>8</v>
@@ -4499,7 +4784,7 @@
       <c r="AC60" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="AD60" s="52"/>
+      <c r="AD60" s="51"/>
       <c r="AE60" s="12" t="s">
         <v>7</v>
       </c>
@@ -4512,12 +4797,34 @@
       <c r="E61" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="F61" s="31" t="s">
+      <c r="F61" s="30" t="s">
         <v>39</v>
       </c>
       <c r="G61" s="5" t="s">
         <v>72</v>
       </c>
+      <c r="K61" s="25"/>
+      <c r="L61" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="M61" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="N61" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="O61" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="S61" s="4"/>
+      <c r="T61" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="U61" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="V61" s="18"/>
+      <c r="W61" s="5"/>
       <c r="AA61" s="25"/>
       <c r="AB61" s="19" t="s">
         <v>5</v>
@@ -4538,12 +4845,36 @@
       <c r="E62" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="F62" s="32" t="s">
+      <c r="F62" s="31" t="s">
         <v>39</v>
       </c>
       <c r="G62" s="6" t="s">
         <v>62</v>
       </c>
+      <c r="K62" s="26"/>
+      <c r="L62" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="N62" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="O62" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="S62" s="25"/>
+      <c r="T62" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="U62" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="V62" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="W62" s="5"/>
       <c r="AA62" s="25"/>
       <c r="AB62" s="19" t="s">
         <v>6</v>
@@ -4555,6 +4886,17 @@
       <c r="AE62" s="5"/>
     </row>
     <row r="63" spans="3:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S63" s="25"/>
+      <c r="T63" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="U63" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="V63" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="W63" s="5"/>
       <c r="AA63" s="26"/>
       <c r="AB63" s="22" t="s">
         <v>3</v>
@@ -4567,67 +4909,110 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="3:31" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="3:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S64" s="25"/>
+      <c r="T64" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="U64" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="V64" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="W64" s="5"/>
+    </row>
     <row r="65" spans="3:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C65" s="141" t="s">
+      <c r="C65" s="159" t="s">
         <v>63</v>
       </c>
-      <c r="D65" s="142"/>
-      <c r="E65" s="142"/>
-      <c r="F65" s="142"/>
-      <c r="G65" s="143"/>
+      <c r="D65" s="160"/>
+      <c r="E65" s="160"/>
+      <c r="F65" s="160"/>
+      <c r="G65" s="161"/>
+      <c r="S65" s="4"/>
+      <c r="T65" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="U65" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="V65" s="18"/>
+      <c r="W65" s="5"/>
     </row>
     <row r="66" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C66" s="69" t="s">
+      <c r="C66" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="D66" s="70" t="s">
+      <c r="D66" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="E66" s="70" t="s">
+      <c r="E66" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="F66" s="71" t="s">
+      <c r="F66" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="G66" s="72" t="s">
+      <c r="G66" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="AA66" s="129" t="s">
-        <v>131</v>
-      </c>
-      <c r="AB66" s="130"/>
-      <c r="AC66" s="130"/>
-      <c r="AD66" s="130"/>
-      <c r="AE66" s="131"/>
-    </row>
-    <row r="67" spans="3:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C67" s="73" t="s">
+      <c r="S66" s="25"/>
+      <c r="T66" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="U66" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="V66" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="W66" s="5"/>
+      <c r="AA66" s="143" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB66" s="144"/>
+      <c r="AC66" s="144"/>
+      <c r="AD66" s="144"/>
+      <c r="AE66" s="145"/>
+    </row>
+    <row r="67" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="C67" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="D67" s="74" t="s">
+      <c r="D67" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="E67" s="74" t="s">
-        <v>29</v>
-      </c>
-      <c r="F67" s="74" t="s">
+      <c r="E67" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="F67" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="G67" s="75"/>
-      <c r="AA67" s="59" t="s">
+      <c r="G67" s="73"/>
+      <c r="S67" s="4"/>
+      <c r="T67" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="U67" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="V67" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="W67" s="5"/>
+      <c r="AA67" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="AB67" s="60" t="s">
+      <c r="AB67" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="AC67" s="60" t="s">
+      <c r="AC67" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="AD67" s="60" t="s">
+      <c r="AD67" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="AE67" s="61" t="s">
+      <c r="AE67" s="60" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4645,23 +5030,27 @@
       <c r="G68" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="S68" s="138" t="s">
-        <v>127</v>
-      </c>
-      <c r="T68" s="139"/>
-      <c r="U68" s="139"/>
-      <c r="V68" s="139"/>
-      <c r="W68" s="140"/>
-      <c r="AA68" s="62" t="s">
+      <c r="S68" s="25"/>
+      <c r="T68" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="U68" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="V68" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="W68" s="5"/>
+      <c r="AA68" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="AB68" s="63" t="s">
-        <v>129</v>
-      </c>
-      <c r="AC68" s="63" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD68" s="63" t="s">
+      <c r="AB68" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC68" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD68" s="62" t="s">
         <v>34</v>
       </c>
       <c r="AE68" s="10"/>
@@ -4678,23 +5067,17 @@
         <v>39</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="S69" s="104" t="s">
-        <v>22</v>
-      </c>
-      <c r="T69" s="105" t="s">
-        <v>19</v>
-      </c>
-      <c r="U69" s="105" t="s">
-        <v>20</v>
-      </c>
-      <c r="V69" s="105" t="s">
-        <v>40</v>
-      </c>
-      <c r="W69" s="106" t="s">
-        <v>21</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="S69" s="25"/>
+      <c r="T69" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="U69" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="V69" s="18"/>
+      <c r="W69" s="5"/>
       <c r="AA69" s="4"/>
       <c r="AB69" s="18" t="s">
         <v>0</v>
@@ -4721,19 +5104,17 @@
       <c r="G70" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="S70" s="112" t="s">
-        <v>23</v>
-      </c>
-      <c r="T70" s="113" t="s">
-        <v>128</v>
-      </c>
-      <c r="U70" s="113" t="s">
-        <v>29</v>
-      </c>
-      <c r="V70" s="113" t="s">
-        <v>34</v>
-      </c>
-      <c r="W70" s="114"/>
+      <c r="S70" s="25"/>
+      <c r="T70" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U70" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="V70" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="W70" s="5"/>
       <c r="AA70" s="26"/>
       <c r="AB70" s="21" t="s">
         <v>3</v>
@@ -4748,71 +5129,109 @@
         <v>62</v>
       </c>
     </row>
-    <row r="72" spans="3:31" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="3:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C73" s="132" t="s">
+    <row r="71" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="S71" s="25"/>
+      <c r="T71" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U71" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="V71" s="18"/>
+      <c r="W71" s="5"/>
+    </row>
+    <row r="72" spans="3:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S72" s="26"/>
+      <c r="T72" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="U72" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="V72" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="W72" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="73" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="C73" s="165" t="s">
         <v>67</v>
       </c>
-      <c r="D73" s="133"/>
-      <c r="E73" s="133"/>
-      <c r="F73" s="133"/>
-      <c r="G73" s="134"/>
+      <c r="D73" s="166"/>
+      <c r="E73" s="166"/>
+      <c r="F73" s="166"/>
+      <c r="G73" s="167"/>
+      <c r="AA73" s="131" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB73" s="132"/>
+      <c r="AC73" s="132"/>
+      <c r="AD73" s="132"/>
+      <c r="AE73" s="133"/>
     </row>
     <row r="74" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C74" s="80" t="s">
+      <c r="C74" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="D74" s="81" t="s">
+      <c r="D74" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="E74" s="81" t="s">
+      <c r="E74" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="F74" s="82" t="s">
+      <c r="F74" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="G74" s="83" t="s">
+      <c r="G74" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="S74" s="141" t="s">
-        <v>124</v>
-      </c>
-      <c r="T74" s="142"/>
-      <c r="U74" s="142"/>
-      <c r="V74" s="142"/>
-      <c r="W74" s="143"/>
+      <c r="AA74" s="98" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB74" s="99" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC74" s="99" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD74" s="99" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE74" s="100" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="75" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C75" s="84" t="s">
+      <c r="C75" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="D75" s="78" t="s">
+      <c r="D75" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="E75" s="78" t="s">
-        <v>29</v>
-      </c>
-      <c r="F75" s="85" t="s">
+      <c r="E75" s="76" t="s">
+        <v>29</v>
+      </c>
+      <c r="F75" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="G75" s="86"/>
-      <c r="S75" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="T75" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="U75" s="70" t="s">
-        <v>20</v>
-      </c>
-      <c r="V75" s="70" t="s">
-        <v>40</v>
-      </c>
-      <c r="W75" s="72" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="76" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="G75" s="84"/>
+      <c r="AA75" s="96" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB75" s="97" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC75" s="97" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD75" s="97" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE75" s="11"/>
+    </row>
+    <row r="76" spans="3:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C76" s="25"/>
       <c r="D76" s="18" t="s">
         <v>0</v>
@@ -4820,25 +5239,23 @@
       <c r="E76" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="F76" s="31" t="s">
+      <c r="F76" s="30" t="s">
         <v>39</v>
       </c>
       <c r="G76" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="S76" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="T76" s="74" t="s">
-        <v>125</v>
-      </c>
-      <c r="U76" s="74" t="s">
-        <v>29</v>
-      </c>
-      <c r="V76" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="W76" s="75"/>
+      <c r="AA76" s="4"/>
+      <c r="AB76" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC76" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD76" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE76" s="5"/>
     </row>
     <row r="77" spans="3:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C77" s="26"/>
@@ -4848,95 +5265,650 @@
       <c r="E77" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="F77" s="32" t="s">
+      <c r="F77" s="31" t="s">
         <v>39</v>
       </c>
       <c r="G77" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="S77" s="25" t="s">
+      <c r="S77" s="134" t="s">
+        <v>150</v>
+      </c>
+      <c r="T77" s="135"/>
+      <c r="U77" s="135"/>
+      <c r="V77" s="135"/>
+      <c r="W77" s="136"/>
+      <c r="AA77" s="26"/>
+      <c r="AB77" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC77" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD77" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE77" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="78" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="S78" s="85" t="s">
+        <v>22</v>
+      </c>
+      <c r="T78" s="86" t="s">
+        <v>19</v>
+      </c>
+      <c r="U78" s="86" t="s">
+        <v>20</v>
+      </c>
+      <c r="V78" s="86" t="s">
+        <v>40</v>
+      </c>
+      <c r="W78" s="87" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="79" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="S79" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="T79" s="89" t="s">
+        <v>85</v>
+      </c>
+      <c r="U79" s="89" t="s">
+        <v>29</v>
+      </c>
+      <c r="V79" s="89"/>
+      <c r="W79" s="14"/>
+    </row>
+    <row r="80" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="S80" s="119"/>
+      <c r="T80" s="120" t="s">
+        <v>86</v>
+      </c>
+      <c r="U80" s="120" t="s">
+        <v>33</v>
+      </c>
+      <c r="V80" s="120"/>
+      <c r="W80" s="123"/>
+    </row>
+    <row r="81" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S81" s="122"/>
+      <c r="T81" s="120" t="s">
+        <v>139</v>
+      </c>
+      <c r="U81" s="120" t="s">
+        <v>41</v>
+      </c>
+      <c r="V81" s="120"/>
+      <c r="W81" s="123"/>
+    </row>
+    <row r="82" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S82" s="119"/>
+      <c r="T82" s="120" t="s">
+        <v>0</v>
+      </c>
+      <c r="U82" s="120" t="s">
+        <v>33</v>
+      </c>
+      <c r="V82" s="120"/>
+      <c r="W82" s="123"/>
+    </row>
+    <row r="83" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S83" s="119"/>
+      <c r="T83" s="120" t="s">
+        <v>122</v>
+      </c>
+      <c r="U83" s="120" t="s">
+        <v>29</v>
+      </c>
+      <c r="V83" s="120"/>
+      <c r="W83" s="123"/>
+    </row>
+    <row r="84" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S84" s="119"/>
+      <c r="T84" s="120" t="s">
+        <v>140</v>
+      </c>
+      <c r="U84" s="120" t="s">
+        <v>29</v>
+      </c>
+      <c r="V84" s="120"/>
+      <c r="W84" s="123"/>
+    </row>
+    <row r="85" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S85" s="122"/>
+      <c r="T85" s="120" t="s">
+        <v>142</v>
+      </c>
+      <c r="U85" s="120" t="s">
+        <v>58</v>
+      </c>
+      <c r="V85" s="128"/>
+      <c r="W85" s="123"/>
+    </row>
+    <row r="86" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S86" s="122"/>
+      <c r="T86" s="120" t="s">
+        <v>143</v>
+      </c>
+      <c r="U86" s="120" t="s">
+        <v>58</v>
+      </c>
+      <c r="V86" s="120"/>
+      <c r="W86" s="123"/>
+    </row>
+    <row r="87" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S87" s="122"/>
+      <c r="T87" s="120" t="s">
+        <v>144</v>
+      </c>
+      <c r="U87" s="120" t="s">
+        <v>58</v>
+      </c>
+      <c r="V87" s="120"/>
+      <c r="W87" s="123"/>
+    </row>
+    <row r="88" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S88" s="119"/>
+      <c r="T88" s="120" t="s">
+        <v>145</v>
+      </c>
+      <c r="U88" s="120" t="s">
+        <v>108</v>
+      </c>
+      <c r="V88" s="120"/>
+      <c r="W88" s="123"/>
+    </row>
+    <row r="89" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S89" s="119"/>
+      <c r="T89" s="120" t="s">
+        <v>146</v>
+      </c>
+      <c r="U89" s="120" t="s">
+        <v>160</v>
+      </c>
+      <c r="V89" s="120"/>
+      <c r="W89" s="123"/>
+    </row>
+    <row r="90" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S90" s="119"/>
+      <c r="T90" s="120" t="s">
+        <v>148</v>
+      </c>
+      <c r="U90" s="120" t="s">
+        <v>103</v>
+      </c>
+      <c r="V90" s="120"/>
+      <c r="W90" s="123"/>
+    </row>
+    <row r="91" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S91" s="122"/>
+      <c r="T91" s="120" t="s">
+        <v>157</v>
+      </c>
+      <c r="U91" s="120" t="s">
+        <v>103</v>
+      </c>
+      <c r="V91" s="120"/>
+      <c r="W91" s="123"/>
+    </row>
+    <row r="92" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S92" s="119"/>
+      <c r="T92" s="120" t="s">
+        <v>149</v>
+      </c>
+      <c r="U92" s="120" t="s">
+        <v>29</v>
+      </c>
+      <c r="V92" s="120"/>
+      <c r="W92" s="123"/>
+    </row>
+    <row r="93" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S93" s="122"/>
+      <c r="T93" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="U93" s="120" t="s">
+        <v>29</v>
+      </c>
+      <c r="V93" s="120"/>
+      <c r="W93" s="123"/>
+    </row>
+    <row r="94" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S94" s="119"/>
+      <c r="T94" s="120" t="s">
+        <v>4</v>
+      </c>
+      <c r="U94" s="120" t="s">
+        <v>29</v>
+      </c>
+      <c r="V94" s="120"/>
+      <c r="W94" s="123"/>
+    </row>
+    <row r="95" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S95" s="119"/>
+      <c r="T95" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="U95" s="120" t="s">
+        <v>29</v>
+      </c>
+      <c r="V95" s="120"/>
+      <c r="W95" s="123"/>
+    </row>
+    <row r="96" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S96" s="119"/>
+      <c r="T96" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="U96" s="120" t="s">
+        <v>30</v>
+      </c>
+      <c r="V96" s="120"/>
+      <c r="W96" s="123"/>
+    </row>
+    <row r="97" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S97" s="119"/>
+      <c r="T97" s="120" t="s">
+        <v>6</v>
+      </c>
+      <c r="U97" s="120" t="s">
+        <v>30</v>
+      </c>
+      <c r="V97" s="120"/>
+      <c r="W97" s="123"/>
+    </row>
+    <row r="98" spans="19:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S98" s="125"/>
+      <c r="T98" s="126" t="s">
+        <v>3</v>
+      </c>
+      <c r="U98" s="126" t="s">
+        <v>29</v>
+      </c>
+      <c r="V98" s="126"/>
+      <c r="W98" s="127"/>
+    </row>
+    <row r="101" spans="19:23" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="102" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S102" s="137" t="s">
+        <v>151</v>
+      </c>
+      <c r="T102" s="138"/>
+      <c r="U102" s="138"/>
+      <c r="V102" s="138"/>
+      <c r="W102" s="139"/>
+    </row>
+    <row r="103" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S103" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="T103" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="U103" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="V103" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="W103" s="70" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="104" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S104" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="T104" s="72" t="s">
+        <v>75</v>
+      </c>
+      <c r="U104" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="V104" s="72"/>
+      <c r="W104" s="73"/>
+    </row>
+    <row r="105" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S105" s="119"/>
+      <c r="T105" s="120" t="s">
+        <v>81</v>
+      </c>
+      <c r="U105" s="120" t="s">
+        <v>29</v>
+      </c>
+      <c r="V105" s="120"/>
+      <c r="W105" s="121"/>
+    </row>
+    <row r="106" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S106" s="122"/>
+      <c r="T106" s="120" t="s">
+        <v>135</v>
+      </c>
+      <c r="U106" s="120" t="s">
+        <v>58</v>
+      </c>
+      <c r="V106" s="120"/>
+      <c r="W106" s="123"/>
+    </row>
+    <row r="107" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S107" s="119"/>
+      <c r="T107" s="120" t="s">
+        <v>137</v>
+      </c>
+      <c r="U107" s="120" t="s">
+        <v>103</v>
+      </c>
+      <c r="V107" s="120"/>
+      <c r="W107" s="123"/>
+    </row>
+    <row r="108" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S108" s="122"/>
+      <c r="T108" s="120" t="s">
+        <v>138</v>
+      </c>
+      <c r="U108" s="120" t="s">
+        <v>103</v>
+      </c>
+      <c r="V108" s="120"/>
+      <c r="W108" s="123"/>
+    </row>
+    <row r="109" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S109" s="119"/>
+      <c r="T109" s="120" t="s">
+        <v>78</v>
+      </c>
+      <c r="U109" s="120" t="s">
+        <v>103</v>
+      </c>
+      <c r="V109" s="120"/>
+      <c r="W109" s="123"/>
+    </row>
+    <row r="110" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S110" s="119"/>
+      <c r="T110" s="120" t="s">
+        <v>80</v>
+      </c>
+      <c r="U110" s="120" t="s">
+        <v>103</v>
+      </c>
+      <c r="V110" s="120"/>
+      <c r="W110" s="123"/>
+    </row>
+    <row r="111" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S111" s="122"/>
+      <c r="T111" s="120" t="s">
+        <v>77</v>
+      </c>
+      <c r="U111" s="120" t="s">
+        <v>103</v>
+      </c>
+      <c r="V111" s="120"/>
+      <c r="W111" s="123"/>
+    </row>
+    <row r="112" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S112" s="119"/>
+      <c r="T112" s="120" t="s">
+        <v>134</v>
+      </c>
+      <c r="U112" s="124" t="s">
+        <v>58</v>
+      </c>
+      <c r="V112" s="120"/>
+      <c r="W112" s="123"/>
+    </row>
+    <row r="113" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S113" s="119"/>
+      <c r="T113" s="120" t="s">
+        <v>79</v>
+      </c>
+      <c r="U113" s="120" t="s">
+        <v>29</v>
+      </c>
+      <c r="V113" s="120"/>
+      <c r="W113" s="123"/>
+    </row>
+    <row r="114" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S114" s="119"/>
+      <c r="T114" s="120" t="s">
+        <v>82</v>
+      </c>
+      <c r="U114" s="120" t="s">
+        <v>29</v>
+      </c>
+      <c r="V114" s="120"/>
+      <c r="W114" s="123"/>
+    </row>
+    <row r="115" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S115" s="119"/>
+      <c r="T115" s="120" t="s">
+        <v>83</v>
+      </c>
+      <c r="U115" s="120" t="s">
+        <v>29</v>
+      </c>
+      <c r="V115" s="120"/>
+      <c r="W115" s="123"/>
+    </row>
+    <row r="116" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S116" s="122"/>
+      <c r="T116" s="120" t="s">
+        <v>131</v>
+      </c>
+      <c r="U116" s="124" t="s">
+        <v>41</v>
+      </c>
+      <c r="V116" s="120"/>
+      <c r="W116" s="123"/>
+    </row>
+    <row r="117" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S117" s="122"/>
+      <c r="T117" s="120" t="s">
+        <v>152</v>
+      </c>
+      <c r="U117" s="124" t="s">
+        <v>41</v>
+      </c>
+      <c r="V117" s="120"/>
+      <c r="W117" s="123"/>
+    </row>
+    <row r="118" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S118" s="119"/>
+      <c r="T118" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="U118" s="120" t="s">
+        <v>30</v>
+      </c>
+      <c r="V118" s="120"/>
+      <c r="W118" s="121"/>
+    </row>
+    <row r="119" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S119" s="119"/>
+      <c r="T119" s="120" t="s">
+        <v>102</v>
+      </c>
+      <c r="U119" s="120" t="s">
+        <v>30</v>
+      </c>
+      <c r="V119" s="120"/>
+      <c r="W119" s="123"/>
+    </row>
+    <row r="120" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S120" s="122"/>
+      <c r="T120" s="120" t="s">
+        <v>132</v>
+      </c>
+      <c r="U120" s="120" t="s">
+        <v>30</v>
+      </c>
+      <c r="V120" s="120"/>
+      <c r="W120" s="123"/>
+    </row>
+    <row r="121" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S121" s="122"/>
+      <c r="T121" s="120" t="s">
+        <v>133</v>
+      </c>
+      <c r="U121" s="120" t="s">
+        <v>30</v>
+      </c>
+      <c r="V121" s="120"/>
+      <c r="W121" s="123"/>
+    </row>
+    <row r="122" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S122" s="119"/>
+      <c r="T122" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="U122" s="120" t="s">
+        <v>29</v>
+      </c>
+      <c r="V122" s="120"/>
+      <c r="W122" s="123"/>
+    </row>
+    <row r="123" spans="19:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S123" s="125"/>
+      <c r="T123" s="126" t="s">
+        <v>6</v>
+      </c>
+      <c r="U123" s="126" t="s">
+        <v>30</v>
+      </c>
+      <c r="V123" s="126"/>
+      <c r="W123" s="127"/>
+    </row>
+    <row r="126" spans="19:23" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="127" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S127" s="159" t="s">
+        <v>116</v>
+      </c>
+      <c r="T127" s="160"/>
+      <c r="U127" s="160"/>
+      <c r="V127" s="160"/>
+      <c r="W127" s="161"/>
+    </row>
+    <row r="128" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S128" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="T128" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="U128" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="V128" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="W128" s="70" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="129" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S129" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="T129" s="72" t="s">
+        <v>117</v>
+      </c>
+      <c r="U129" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="V129" s="72" t="s">
+        <v>34</v>
+      </c>
+      <c r="W129" s="73"/>
+    </row>
+    <row r="130" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S130" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="T77" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="U77" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="V77" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="W77" s="5"/>
-    </row>
-    <row r="78" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="S78" s="4"/>
-      <c r="T78" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="U78" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="V78" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="W78" s="5"/>
-    </row>
-    <row r="79" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="S79" s="4"/>
-      <c r="T79" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="U79" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="V79" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="W79" s="5"/>
-    </row>
-    <row r="80" spans="3:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="S80" s="20"/>
-      <c r="T80" s="22" t="s">
+      <c r="T130" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="U130" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="V130" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="W130" s="5"/>
+    </row>
+    <row r="131" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S131" s="4"/>
+      <c r="T131" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="U131" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="V131" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="W131" s="5"/>
+    </row>
+    <row r="132" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S132" s="4"/>
+      <c r="T132" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="U132" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="V132" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="W132" s="5"/>
+    </row>
+    <row r="133" spans="19:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S133" s="20"/>
+      <c r="T133" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="U80" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="V80" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="W80" s="6" t="s">
+      <c r="U133" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="V133" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="W133" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="81" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T81" s="111" t="s">
-        <v>138</v>
+    <row r="134" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="T134" s="109" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="K50:O50"/>
+  <mergeCells count="24">
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="AA36:AE36"/>
     <mergeCell ref="AI7:AM7"/>
     <mergeCell ref="AI21:AM21"/>
-    <mergeCell ref="S74:W74"/>
-    <mergeCell ref="S68:W68"/>
+    <mergeCell ref="AA50:AE50"/>
+    <mergeCell ref="S127:W127"/>
     <mergeCell ref="C65:G65"/>
     <mergeCell ref="C58:G58"/>
     <mergeCell ref="S26:W26"/>
     <mergeCell ref="C73:G73"/>
-    <mergeCell ref="S46:W46"/>
-    <mergeCell ref="AA50:AE50"/>
+    <mergeCell ref="S51:W51"/>
     <mergeCell ref="C51:G51"/>
-    <mergeCell ref="AA66:AE66"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="K50:O50"/>
     <mergeCell ref="K6:O6"/>
     <mergeCell ref="S6:W6"/>
     <mergeCell ref="S15:W15"/>
     <mergeCell ref="AA11:AE11"/>
     <mergeCell ref="K26:O26"/>
+    <mergeCell ref="AA73:AE73"/>
+    <mergeCell ref="S77:W77"/>
+    <mergeCell ref="S102:W102"/>
+    <mergeCell ref="K58:O58"/>
+    <mergeCell ref="AA66:AE66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Documentacion/Base de Datos CBD v1.xlsx
+++ b/Documentacion/Base de Datos CBD v1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oavalos/Documents/Personal/Proyecto CBD/Codigo/Documentacion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA57592-3C48-1742-A18B-D7FC07D239AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D105AA-04C3-A94C-B306-001F6B876137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{D4FEB497-8318-AB43-A3DA-832786BD3E10}"/>
+    <workbookView xWindow="35480" yWindow="780" windowWidth="28800" windowHeight="16140" xr2:uid="{D4FEB497-8318-AB43-A3DA-832786BD3E10}"/>
   </bookViews>
   <sheets>
     <sheet name="Estructura" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="170">
   <si>
     <t>nombre</t>
   </si>
@@ -293,9 +293,6 @@
     <t>cve_articulo</t>
   </si>
   <si>
-    <t>marca</t>
-  </si>
-  <si>
     <t>cantidad</t>
   </si>
   <si>
@@ -519,6 +516,33 @@
   </si>
   <si>
     <t>fecha_creacion</t>
+  </si>
+  <si>
+    <t>id_venta_mayoreo</t>
+  </si>
+  <si>
+    <t>Tabla: cbd_ventas_mayoreo_seguimiento</t>
+  </si>
+  <si>
+    <t>cve_venta_mayoreo_seguimiento</t>
+  </si>
+  <si>
+    <t>0-Atendido, 1-Nuevo, 2-Atendido</t>
+  </si>
+  <si>
+    <t>cve_marca</t>
+  </si>
+  <si>
+    <t>id_marca</t>
+  </si>
+  <si>
+    <t>Tabla: cbd_cata_marcas</t>
+  </si>
+  <si>
+    <t>imagen</t>
+  </si>
+  <si>
+    <t>imagen_principal</t>
   </si>
 </sst>
 </file>
@@ -584,7 +608,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -708,6 +732,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -935,7 +971,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="189">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1133,6 +1169,27 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1169,13 +1226,88 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1187,27 +1319,9 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1215,63 +1329,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1374,8 +1431,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="14566900" y="2984500"/>
-          <a:ext cx="2438400" cy="406400"/>
+          <a:off x="30715475" y="3271826"/>
+          <a:ext cx="2429806" cy="401052"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -2228,6 +2285,171 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>463216</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>33898</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1250616</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>14800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Conector angular 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{326D7C04-E070-4441-B556-AF781E05A8E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="14566900" y="2984500"/>
+          <a:ext cx="2429806" cy="401052"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>76391</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>105038</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>229172</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>124137</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Conector angular 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AF2991D-2E6C-9C41-BE35-13584BF63AE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="46245188" y="4955865"/>
+          <a:ext cx="2310826" cy="219625"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 70248"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>2865929</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>123628</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>123628</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Conector angular 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AADA4A43-BCF0-254D-93A4-263F726FE0D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="21084248" y="11340088"/>
+          <a:ext cx="3337964" cy="2910885"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 82997"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2528,10 +2750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{770F6DCC-4CB2-7A4E-A798-91BAB4EC9683}">
-  <dimension ref="A1:AM134"/>
+  <dimension ref="A1:AS134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O30" zoomScale="133" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T45" sqref="T45"/>
+    <sheetView tabSelected="1" topLeftCell="P49" zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T67" sqref="T67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2567,8 +2789,11 @@
     <col min="36" max="36" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="16384" width="10.83203125" style="1"/>
+    <col min="39" max="39" width="28.5" style="1" customWidth="1"/>
+    <col min="40" max="41" width="10.83203125" style="1"/>
+    <col min="42" max="42" width="29.6640625" style="1" customWidth="1"/>
+    <col min="43" max="43" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="37" x14ac:dyDescent="0.45">
@@ -2589,13 +2814,13 @@
     </row>
     <row r="2" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="C3" s="131" t="s">
-        <v>127</v>
-      </c>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="132"/>
-      <c r="G3" s="133"/>
+      <c r="C3" s="142" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="143"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="143"/>
+      <c r="G3" s="144"/>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C4" s="98" t="s">
@@ -2619,7 +2844,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="97" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E5" s="97" t="s">
         <v>29</v>
@@ -2643,28 +2868,28 @@
         <v>39</v>
       </c>
       <c r="G6" s="10"/>
-      <c r="K6" s="146" t="s">
+      <c r="K6" s="182" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="147"/>
-      <c r="M6" s="147"/>
-      <c r="N6" s="147"/>
-      <c r="O6" s="148"/>
-      <c r="S6" s="149" t="s">
+      <c r="L6" s="183"/>
+      <c r="M6" s="183"/>
+      <c r="N6" s="183"/>
+      <c r="O6" s="184"/>
+      <c r="S6" s="176" t="s">
         <v>36</v>
       </c>
-      <c r="T6" s="150"/>
-      <c r="U6" s="150"/>
-      <c r="V6" s="151"/>
-      <c r="W6" s="152"/>
+      <c r="T6" s="177"/>
+      <c r="U6" s="177"/>
+      <c r="V6" s="185"/>
+      <c r="W6" s="178"/>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C7" s="25"/>
       <c r="D7" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F7" s="19" t="s">
         <v>39</v>
@@ -2700,13 +2925,13 @@
       <c r="W7" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="AI7" s="149" t="s">
-        <v>109</v>
-      </c>
-      <c r="AJ7" s="150"/>
-      <c r="AK7" s="150"/>
-      <c r="AL7" s="150"/>
-      <c r="AM7" s="152"/>
+      <c r="AI7" s="176" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ7" s="177"/>
+      <c r="AK7" s="177"/>
+      <c r="AL7" s="177"/>
+      <c r="AM7" s="178"/>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C8" s="25"/>
@@ -2804,7 +3029,7 @@
         <v>23</v>
       </c>
       <c r="AJ9" s="37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AK9" s="37" t="s">
         <v>29</v>
@@ -2817,7 +3042,7 @@
     <row r="10" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C10" s="25"/>
       <c r="D10" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E10" s="63" t="s">
         <v>31</v>
@@ -2852,7 +3077,7 @@
       </c>
       <c r="AI10" s="4"/>
       <c r="AJ10" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AK10" s="18" t="s">
         <v>33</v>
@@ -2886,16 +3111,16 @@
       </c>
       <c r="O11" s="5"/>
       <c r="S11" s="23"/>
-      <c r="AA11" s="156" t="s">
+      <c r="AA11" s="186" t="s">
         <v>43</v>
       </c>
-      <c r="AB11" s="157"/>
-      <c r="AC11" s="157"/>
-      <c r="AD11" s="157"/>
-      <c r="AE11" s="158"/>
+      <c r="AB11" s="187"/>
+      <c r="AC11" s="187"/>
+      <c r="AD11" s="187"/>
+      <c r="AE11" s="188"/>
       <c r="AI11" s="4"/>
       <c r="AJ11" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AK11" s="63" t="s">
         <v>33</v>
@@ -2908,7 +3133,7 @@
     <row r="12" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C12" s="25"/>
       <c r="D12" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E12" s="63" t="s">
         <v>33</v>
@@ -2949,7 +3174,7 @@
         <v>1</v>
       </c>
       <c r="AK12" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AL12" s="19" t="s">
         <v>39</v>
@@ -2959,10 +3184,10 @@
     <row r="13" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C13" s="25"/>
       <c r="D13" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E13" s="63" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F13" s="19" t="s">
         <v>39</v>
@@ -2995,7 +3220,7 @@
       <c r="AE13" s="3"/>
       <c r="AI13" s="4"/>
       <c r="AJ13" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AK13" s="18" t="s">
         <v>33</v>
@@ -3008,10 +3233,10 @@
     <row r="14" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C14" s="25"/>
       <c r="D14" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E14" s="63" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F14" s="19" t="s">
         <v>39</v>
@@ -3057,10 +3282,10 @@
     <row r="15" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C15" s="25"/>
       <c r="D15" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E15" s="63" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F15" s="19" t="s">
         <v>39</v>
@@ -3079,13 +3304,13 @@
         <v>39</v>
       </c>
       <c r="O15" s="8"/>
-      <c r="S15" s="153" t="s">
+      <c r="S15" s="163" t="s">
         <v>37</v>
       </c>
-      <c r="T15" s="154"/>
-      <c r="U15" s="154"/>
-      <c r="V15" s="154"/>
-      <c r="W15" s="155"/>
+      <c r="T15" s="164"/>
+      <c r="U15" s="164"/>
+      <c r="V15" s="164"/>
+      <c r="W15" s="166"/>
       <c r="AA15" s="43" t="s">
         <v>46</v>
       </c>
@@ -3170,13 +3395,13 @@
       </c>
       <c r="AM16" s="5"/>
     </row>
-    <row r="17" spans="3:39" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C17" s="25"/>
       <c r="D17" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="5"/>
@@ -3221,7 +3446,7 @@
       <c r="AL17" s="18"/>
       <c r="AM17" s="5"/>
     </row>
-    <row r="18" spans="3:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:45" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C18" s="25"/>
       <c r="D18" s="19" t="s">
         <v>4</v>
@@ -3280,7 +3505,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="3:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:45" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C19" s="25"/>
       <c r="D19" s="19" t="s">
         <v>8</v>
@@ -3320,7 +3545,7 @@
       <c r="AD19" s="22"/>
       <c r="AE19" s="6"/>
     </row>
-    <row r="20" spans="3:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:45" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C20" s="25"/>
       <c r="D20" s="19" t="s">
         <v>5</v>
@@ -3359,7 +3584,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="3:39" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C21" s="25"/>
       <c r="D21" s="19" t="s">
         <v>6</v>
@@ -3369,15 +3594,22 @@
       </c>
       <c r="F21" s="18"/>
       <c r="G21" s="5"/>
-      <c r="AI21" s="172" t="s">
-        <v>113</v>
-      </c>
-      <c r="AJ21" s="173"/>
-      <c r="AK21" s="173"/>
-      <c r="AL21" s="173"/>
-      <c r="AM21" s="174"/>
-    </row>
-    <row r="22" spans="3:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AI21" s="173" t="s">
+        <v>112</v>
+      </c>
+      <c r="AJ21" s="174"/>
+      <c r="AK21" s="174"/>
+      <c r="AL21" s="174"/>
+      <c r="AM21" s="175"/>
+      <c r="AO21" s="139" t="s">
+        <v>162</v>
+      </c>
+      <c r="AP21" s="140"/>
+      <c r="AQ21" s="140"/>
+      <c r="AR21" s="140"/>
+      <c r="AS21" s="141"/>
+    </row>
+    <row r="22" spans="3:45" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C22" s="26"/>
       <c r="D22" s="21" t="s">
         <v>3</v>
@@ -3406,14 +3638,29 @@
       <c r="AM22" s="104" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="3:39" x14ac:dyDescent="0.2">
+      <c r="AO22" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP22" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ22" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR22" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="AS22" s="60" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C23" s="23"/>
       <c r="AI23" s="105" t="s">
         <v>23</v>
       </c>
       <c r="AJ23" s="106" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AK23" s="106" t="s">
         <v>29</v>
@@ -3422,8 +3669,21 @@
         <v>34</v>
       </c>
       <c r="AM23" s="107"/>
-    </row>
-    <row r="24" spans="3:39" x14ac:dyDescent="0.2">
+      <c r="AO23" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP23" s="62" t="s">
+        <v>163</v>
+      </c>
+      <c r="AQ23" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="AR23" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="AS23" s="10"/>
+    </row>
+    <row r="24" spans="3:45" x14ac:dyDescent="0.2">
       <c r="AI24" s="4"/>
       <c r="AJ24" s="18" t="s">
         <v>0</v>
@@ -3435,8 +3695,21 @@
         <v>39</v>
       </c>
       <c r="AM24" s="5"/>
-    </row>
-    <row r="25" spans="3:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AO24" s="131" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP24" s="132" t="s">
+        <v>161</v>
+      </c>
+      <c r="AQ24" s="132" t="s">
+        <v>29</v>
+      </c>
+      <c r="AR24" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS24" s="133"/>
+    </row>
+    <row r="25" spans="3:45" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AI25" s="4"/>
       <c r="AJ25" s="18" t="s">
         <v>14</v>
@@ -3448,42 +3721,64 @@
         <v>39</v>
       </c>
       <c r="AM25" s="5"/>
-    </row>
-    <row r="26" spans="3:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K26" s="143" t="s">
+      <c r="AO25" s="4"/>
+      <c r="AP25" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ25" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="AR25" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS25" s="5"/>
+    </row>
+    <row r="26" spans="3:45" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K26" s="139" t="s">
         <v>50</v>
       </c>
-      <c r="L26" s="144"/>
-      <c r="M26" s="144"/>
-      <c r="N26" s="144"/>
-      <c r="O26" s="145"/>
-      <c r="S26" s="159" t="s">
+      <c r="L26" s="140"/>
+      <c r="M26" s="140"/>
+      <c r="N26" s="140"/>
+      <c r="O26" s="141"/>
+      <c r="S26" s="154" t="s">
         <v>74</v>
       </c>
-      <c r="T26" s="160"/>
-      <c r="U26" s="160"/>
-      <c r="V26" s="160"/>
-      <c r="W26" s="161"/>
+      <c r="T26" s="155"/>
+      <c r="U26" s="155"/>
+      <c r="V26" s="155"/>
+      <c r="W26" s="156"/>
       <c r="AI26" s="4"/>
       <c r="AJ26" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AK26" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AL26" s="18" t="s">
         <v>39</v>
       </c>
       <c r="AM26" s="5"/>
-    </row>
-    <row r="27" spans="3:39" x14ac:dyDescent="0.2">
-      <c r="C27" s="169" t="s">
-        <v>128</v>
-      </c>
-      <c r="D27" s="170"/>
-      <c r="E27" s="170"/>
-      <c r="F27" s="170"/>
-      <c r="G27" s="171"/>
+      <c r="AO26" s="4"/>
+      <c r="AP26" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ26" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="AR26" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS26" s="5"/>
+    </row>
+    <row r="27" spans="3:45" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="167" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27" s="168"/>
+      <c r="E27" s="168"/>
+      <c r="F27" s="168"/>
+      <c r="G27" s="169"/>
       <c r="K27" s="58" t="s">
         <v>22</v>
       </c>
@@ -3525,8 +3820,19 @@
         <v>39</v>
       </c>
       <c r="AM27" s="5"/>
-    </row>
-    <row r="28" spans="3:39" x14ac:dyDescent="0.2">
+      <c r="AO27" s="20"/>
+      <c r="AP27" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ27" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="AR27" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS27" s="6"/>
+    </row>
+    <row r="28" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C28" s="52" t="s">
         <v>22</v>
       </c>
@@ -3578,12 +3884,12 @@
       <c r="AL28" s="18"/>
       <c r="AM28" s="5"/>
     </row>
-    <row r="29" spans="3:39" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C29" s="55" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="56" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E29" s="56" t="s">
         <v>29</v>
@@ -3626,7 +3932,7 @@
       <c r="AL29" s="18"/>
       <c r="AM29" s="5"/>
     </row>
-    <row r="30" spans="3:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:45" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C30" s="61" t="s">
         <v>46</v>
       </c>
@@ -3653,7 +3959,7 @@
       <c r="O30" s="5"/>
       <c r="S30" s="4"/>
       <c r="T30" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="U30" s="19" t="s">
         <v>58</v>
@@ -3673,10 +3979,10 @@
         <v>39</v>
       </c>
       <c r="AM30" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="3:39" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="31" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C31" s="25"/>
       <c r="D31" s="18" t="s">
         <v>0</v>
@@ -3699,17 +4005,17 @@
       <c r="O31" s="5"/>
       <c r="S31" s="25"/>
       <c r="T31" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U31" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="V31" s="18" t="s">
         <v>39</v>
       </c>
       <c r="W31" s="5"/>
     </row>
-    <row r="32" spans="3:39" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:45" x14ac:dyDescent="0.2">
       <c r="C32" s="25"/>
       <c r="D32" s="18" t="s">
         <v>13</v>
@@ -3734,10 +4040,10 @@
       <c r="O32" s="5"/>
       <c r="S32" s="4"/>
       <c r="T32" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U32" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="V32" s="18" t="s">
         <v>39</v>
@@ -3772,7 +4078,7 @@
         <v>78</v>
       </c>
       <c r="U33" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="V33" s="18" t="s">
         <v>39</v>
@@ -3807,7 +4113,7 @@
         <v>80</v>
       </c>
       <c r="U34" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="V34" s="18" t="s">
         <v>39</v>
@@ -3817,7 +4123,7 @@
     <row r="35" spans="3:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C35" s="25"/>
       <c r="D35" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E35" s="63" t="s">
         <v>31</v>
@@ -3842,7 +4148,7 @@
         <v>77</v>
       </c>
       <c r="U35" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="V35" s="18" t="s">
         <v>39</v>
@@ -3876,27 +4182,27 @@
       <c r="O36" s="7"/>
       <c r="S36" s="25"/>
       <c r="T36" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="U36" s="63" t="s">
         <v>58</v>
       </c>
       <c r="V36" s="18"/>
       <c r="W36" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="AA36" s="172" t="s">
-        <v>104</v>
-      </c>
-      <c r="AB36" s="173"/>
-      <c r="AC36" s="173"/>
-      <c r="AD36" s="173"/>
-      <c r="AE36" s="174"/>
+        <v>119</v>
+      </c>
+      <c r="AA36" s="173" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB36" s="174"/>
+      <c r="AC36" s="174"/>
+      <c r="AD36" s="174"/>
+      <c r="AE36" s="175"/>
     </row>
     <row r="37" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C37" s="25"/>
       <c r="D37" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="63" t="s">
         <v>33</v>
@@ -3909,7 +4215,7 @@
         <v>46</v>
       </c>
       <c r="L37" s="112" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M37" s="112" t="s">
         <v>29</v>
@@ -3952,10 +4258,10 @@
     <row r="38" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C38" s="25"/>
       <c r="D38" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E38" s="63" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F38" s="19" t="s">
         <v>39</v>
@@ -3989,7 +4295,7 @@
         <v>23</v>
       </c>
       <c r="AB38" s="106" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AC38" s="106" t="s">
         <v>29</v>
@@ -4002,10 +4308,10 @@
     <row r="39" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C39" s="25"/>
       <c r="D39" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E39" s="63" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F39" s="19" t="s">
         <v>39</v>
@@ -4039,7 +4345,7 @@
         <v>46</v>
       </c>
       <c r="AB39" s="72" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AC39" s="72" t="s">
         <v>29</v>
@@ -4052,10 +4358,10 @@
     <row r="40" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C40" s="25"/>
       <c r="D40" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E40" s="63" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F40" s="19" t="s">
         <v>39</v>
@@ -4078,7 +4384,7 @@
         <v>46</v>
       </c>
       <c r="T40" s="62" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U40" s="62" t="s">
         <v>29</v>
@@ -4126,7 +4432,7 @@
       </c>
       <c r="S41" s="4"/>
       <c r="T41" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="U41" s="63" t="s">
         <v>41</v>
@@ -4137,7 +4443,7 @@
       <c r="W41" s="5"/>
       <c r="AA41" s="4"/>
       <c r="AB41" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AC41" s="18" t="s">
         <v>29</v>
@@ -4168,7 +4474,7 @@
       <c r="O42" s="5"/>
       <c r="S42" s="25"/>
       <c r="T42" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="U42" s="18" t="s">
         <v>30</v>
@@ -4179,10 +4485,10 @@
       <c r="W42" s="12"/>
       <c r="AA42" s="20"/>
       <c r="AB42" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AC42" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AD42" s="22" t="s">
         <v>39</v>
@@ -4212,7 +4518,7 @@
       <c r="O43" s="5"/>
       <c r="S43" s="66"/>
       <c r="T43" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="U43" s="18" t="s">
         <v>30</v>
@@ -4243,7 +4549,7 @@
       <c r="O44" s="5"/>
       <c r="S44" s="4"/>
       <c r="T44" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U44" s="18" t="s">
         <v>30</v>
@@ -4276,7 +4582,7 @@
       </c>
       <c r="S45" s="4"/>
       <c r="T45" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="U45" s="18" t="s">
         <v>30</v>
@@ -4338,29 +4644,29 @@
       </c>
     </row>
     <row r="50" spans="3:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K50" s="165" t="s">
-        <v>98</v>
-      </c>
-      <c r="L50" s="166"/>
-      <c r="M50" s="166"/>
-      <c r="N50" s="166"/>
-      <c r="O50" s="167"/>
-      <c r="AA50" s="175" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB50" s="176"/>
-      <c r="AC50" s="176"/>
-      <c r="AD50" s="176"/>
-      <c r="AE50" s="177"/>
+      <c r="K50" s="160" t="s">
+        <v>97</v>
+      </c>
+      <c r="L50" s="161"/>
+      <c r="M50" s="161"/>
+      <c r="N50" s="161"/>
+      <c r="O50" s="162"/>
+      <c r="AA50" s="179" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB50" s="180"/>
+      <c r="AC50" s="180"/>
+      <c r="AD50" s="180"/>
+      <c r="AE50" s="181"/>
     </row>
     <row r="51" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C51" s="153" t="s">
+      <c r="C51" s="163" t="s">
         <v>59</v>
       </c>
-      <c r="D51" s="154"/>
-      <c r="E51" s="154"/>
-      <c r="F51" s="168"/>
-      <c r="G51" s="155"/>
+      <c r="D51" s="164"/>
+      <c r="E51" s="164"/>
+      <c r="F51" s="165"/>
+      <c r="G51" s="166"/>
       <c r="K51" s="78" t="s">
         <v>22</v>
       </c>
@@ -4376,13 +4682,13 @@
       <c r="O51" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="S51" s="134" t="s">
+      <c r="S51" s="145" t="s">
         <v>84</v>
       </c>
-      <c r="T51" s="135"/>
-      <c r="U51" s="135"/>
-      <c r="V51" s="135"/>
-      <c r="W51" s="136"/>
+      <c r="T51" s="146"/>
+      <c r="U51" s="146"/>
+      <c r="V51" s="146"/>
+      <c r="W51" s="147"/>
       <c r="AA51" s="90" t="s">
         <v>22</v>
       </c>
@@ -4419,7 +4725,7 @@
         <v>23</v>
       </c>
       <c r="L52" s="76" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M52" s="76" t="s">
         <v>29</v>
@@ -4447,7 +4753,7 @@
         <v>23</v>
       </c>
       <c r="AB52" s="94" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AC52" s="94" t="s">
         <v>29</v>
@@ -4482,7 +4788,7 @@
         <v>39</v>
       </c>
       <c r="O53" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="S53" s="88" t="s">
         <v>23</v>
@@ -4538,17 +4844,19 @@
       <c r="O54" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="S54" s="25"/>
-      <c r="T54" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="U54" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="V54" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="W54" s="5"/>
+      <c r="S54" s="131" t="s">
+        <v>46</v>
+      </c>
+      <c r="T54" s="132" t="s">
+        <v>166</v>
+      </c>
+      <c r="U54" s="132" t="s">
+        <v>29</v>
+      </c>
+      <c r="V54" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="W54" s="133"/>
       <c r="AA54" s="25"/>
       <c r="AB54" s="18" t="s">
         <v>0</v>
@@ -4577,7 +4885,7 @@
       </c>
       <c r="S55" s="4"/>
       <c r="T55" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="U55" s="18" t="s">
         <v>41</v>
@@ -4629,7 +4937,7 @@
         <v>46</v>
       </c>
       <c r="T57" s="62" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="U57" s="62" t="s">
         <v>29</v>
@@ -4640,7 +4948,7 @@
       <c r="W57" s="10"/>
       <c r="AA57" s="4"/>
       <c r="AB57" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AC57" s="63" t="s">
         <v>33</v>
@@ -4651,25 +4959,25 @@
       <c r="AE57" s="5"/>
     </row>
     <row r="58" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C58" s="162" t="s">
+      <c r="C58" s="157" t="s">
         <v>70</v>
       </c>
-      <c r="D58" s="163"/>
-      <c r="E58" s="163"/>
-      <c r="F58" s="163"/>
-      <c r="G58" s="164"/>
-      <c r="K58" s="140" t="s">
-        <v>156</v>
-      </c>
-      <c r="L58" s="141"/>
-      <c r="M58" s="141"/>
-      <c r="N58" s="141"/>
-      <c r="O58" s="142"/>
+      <c r="D58" s="158"/>
+      <c r="E58" s="158"/>
+      <c r="F58" s="158"/>
+      <c r="G58" s="159"/>
+      <c r="K58" s="151" t="s">
+        <v>155</v>
+      </c>
+      <c r="L58" s="152"/>
+      <c r="M58" s="152"/>
+      <c r="N58" s="152"/>
+      <c r="O58" s="153"/>
       <c r="S58" s="96" t="s">
         <v>46</v>
       </c>
       <c r="T58" s="97" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="U58" s="97" t="s">
         <v>29</v>
@@ -4721,11 +5029,12 @@
       </c>
       <c r="S59" s="4"/>
       <c r="T59" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="U59" s="18" t="s">
         <v>58</v>
       </c>
+      <c r="V59" s="18"/>
       <c r="W59" s="5"/>
       <c r="AA59" s="25"/>
       <c r="AB59" s="19" t="s">
@@ -4759,7 +5068,7 @@
         <v>23</v>
       </c>
       <c r="L60" s="62" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M60" s="62" t="s">
         <v>29</v>
@@ -4770,7 +5079,7 @@
       <c r="O60" s="10"/>
       <c r="S60" s="4"/>
       <c r="T60" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="U60" s="18" t="s">
         <v>58</v>
@@ -4814,11 +5123,11 @@
         <v>39</v>
       </c>
       <c r="O61" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="S61" s="4"/>
       <c r="T61" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="U61" s="18" t="s">
         <v>58</v>
@@ -4866,10 +5175,10 @@
       </c>
       <c r="S62" s="25"/>
       <c r="T62" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="U62" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="V62" s="18" t="s">
         <v>39</v>
@@ -4888,10 +5197,10 @@
     <row r="63" spans="3:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="S63" s="25"/>
       <c r="T63" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="U63" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="V63" s="18" t="s">
         <v>39</v>
@@ -4912,10 +5221,10 @@
     <row r="64" spans="3:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="S64" s="25"/>
       <c r="T64" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U64" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="V64" s="18" t="s">
         <v>39</v>
@@ -4923,19 +5232,19 @@
       <c r="W64" s="5"/>
     </row>
     <row r="65" spans="3:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C65" s="159" t="s">
+      <c r="C65" s="154" t="s">
         <v>63</v>
       </c>
-      <c r="D65" s="160"/>
-      <c r="E65" s="160"/>
-      <c r="F65" s="160"/>
-      <c r="G65" s="161"/>
+      <c r="D65" s="155"/>
+      <c r="E65" s="155"/>
+      <c r="F65" s="155"/>
+      <c r="G65" s="156"/>
       <c r="S65" s="4"/>
       <c r="T65" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="U65" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="V65" s="18"/>
       <c r="W65" s="5"/>
@@ -4956,9 +5265,16 @@
       <c r="G66" s="70" t="s">
         <v>21</v>
       </c>
+      <c r="K66" s="170" t="s">
+        <v>167</v>
+      </c>
+      <c r="L66" s="171"/>
+      <c r="M66" s="171"/>
+      <c r="N66" s="171"/>
+      <c r="O66" s="172"/>
       <c r="S66" s="25"/>
       <c r="T66" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="U66" s="18" t="s">
         <v>29</v>
@@ -4967,13 +5283,13 @@
         <v>39</v>
       </c>
       <c r="W66" s="5"/>
-      <c r="AA66" s="143" t="s">
-        <v>158</v>
-      </c>
-      <c r="AB66" s="144"/>
-      <c r="AC66" s="144"/>
-      <c r="AD66" s="144"/>
-      <c r="AE66" s="145"/>
+      <c r="AA66" s="139" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB66" s="140"/>
+      <c r="AC66" s="140"/>
+      <c r="AD66" s="140"/>
+      <c r="AE66" s="141"/>
     </row>
     <row r="67" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C67" s="71" t="s">
@@ -4989,16 +5305,29 @@
         <v>34</v>
       </c>
       <c r="G67" s="73"/>
+      <c r="K67" s="134" t="s">
+        <v>22</v>
+      </c>
+      <c r="L67" s="135" t="s">
+        <v>19</v>
+      </c>
+      <c r="M67" s="135" t="s">
+        <v>20</v>
+      </c>
+      <c r="N67" s="136" t="s">
+        <v>40</v>
+      </c>
+      <c r="O67" s="137" t="s">
+        <v>21</v>
+      </c>
       <c r="S67" s="4"/>
       <c r="T67" s="19" t="s">
-        <v>2</v>
+        <v>169</v>
       </c>
       <c r="U67" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="V67" s="18" t="s">
-        <v>39</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="V67" s="18"/>
       <c r="W67" s="5"/>
       <c r="AA67" s="58" t="s">
         <v>22</v>
@@ -5030,14 +5359,27 @@
       <c r="G68" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="S68" s="25"/>
+      <c r="K68" s="131" t="s">
+        <v>23</v>
+      </c>
+      <c r="L68" s="132" t="s">
+        <v>165</v>
+      </c>
+      <c r="M68" s="132" t="s">
+        <v>29</v>
+      </c>
+      <c r="N68" s="138" t="s">
+        <v>34</v>
+      </c>
+      <c r="O68" s="133"/>
+      <c r="S68" s="4"/>
       <c r="T68" s="19" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U68" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="V68" s="19" t="s">
+      <c r="V68" s="18" t="s">
         <v>39</v>
       </c>
       <c r="W68" s="5"/>
@@ -5045,7 +5387,7 @@
         <v>23</v>
       </c>
       <c r="AB68" s="62" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AC68" s="62" t="s">
         <v>29</v>
@@ -5067,16 +5409,31 @@
         <v>39</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
+      </c>
+      <c r="K69" s="25"/>
+      <c r="L69" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="M69" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="N69" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="O69" s="5" t="s">
+        <v>154</v>
       </c>
       <c r="S69" s="25"/>
       <c r="T69" s="19" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="U69" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="V69" s="18"/>
+      <c r="V69" s="19" t="s">
+        <v>39</v>
+      </c>
       <c r="W69" s="5"/>
       <c r="AA69" s="4"/>
       <c r="AB69" s="18" t="s">
@@ -5104,72 +5461,103 @@
       <c r="G70" s="6" t="s">
         <v>62</v>
       </c>
+      <c r="K70" s="26"/>
+      <c r="L70" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="M70" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="N70" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="O70" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="S70" s="25"/>
       <c r="T70" s="19" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="U70" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="V70" s="19" t="s">
-        <v>39</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="V70" s="18"/>
       <c r="W70" s="5"/>
-      <c r="AA70" s="26"/>
-      <c r="AB70" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC70" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD70" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE70" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="71" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AA70" s="4"/>
+      <c r="AB70" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC70" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD70" s="18"/>
+      <c r="AE70" s="5"/>
+    </row>
+    <row r="71" spans="3:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="S71" s="25"/>
       <c r="T71" s="19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U71" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="V71" s="18"/>
+      <c r="V71" s="19" t="s">
+        <v>39</v>
+      </c>
       <c r="W71" s="5"/>
+      <c r="AA71" s="26"/>
+      <c r="AB71" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC71" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD71" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE71" s="6" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="72" spans="3:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="S72" s="26"/>
-      <c r="T72" s="21" t="s">
+      <c r="S72" s="25"/>
+      <c r="T72" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U72" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="V72" s="18"/>
+      <c r="W72" s="5"/>
+    </row>
+    <row r="73" spans="3:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C73" s="160" t="s">
+        <v>67</v>
+      </c>
+      <c r="D73" s="161"/>
+      <c r="E73" s="161"/>
+      <c r="F73" s="161"/>
+      <c r="G73" s="162"/>
+      <c r="S73" s="26"/>
+      <c r="T73" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="U72" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="V72" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="W72" s="6" t="s">
+      <c r="U73" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="V73" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="W73" s="6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="73" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C73" s="165" t="s">
-        <v>67</v>
-      </c>
-      <c r="D73" s="166"/>
-      <c r="E73" s="166"/>
-      <c r="F73" s="166"/>
-      <c r="G73" s="167"/>
-      <c r="AA73" s="131" t="s">
-        <v>159</v>
-      </c>
-      <c r="AB73" s="132"/>
-      <c r="AC73" s="132"/>
-      <c r="AD73" s="132"/>
-      <c r="AE73" s="133"/>
+      <c r="AA73" s="142" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB73" s="143"/>
+      <c r="AC73" s="143"/>
+      <c r="AD73" s="143"/>
+      <c r="AE73" s="144"/>
     </row>
     <row r="74" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C74" s="78" t="s">
@@ -5221,7 +5609,7 @@
         <v>23</v>
       </c>
       <c r="AB75" s="97" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AC75" s="97" t="s">
         <v>29</v>
@@ -5271,13 +5659,13 @@
       <c r="G77" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="S77" s="134" t="s">
-        <v>150</v>
-      </c>
-      <c r="T77" s="135"/>
-      <c r="U77" s="135"/>
-      <c r="V77" s="135"/>
-      <c r="W77" s="136"/>
+      <c r="S77" s="145" t="s">
+        <v>149</v>
+      </c>
+      <c r="T77" s="146"/>
+      <c r="U77" s="146"/>
+      <c r="V77" s="146"/>
+      <c r="W77" s="147"/>
       <c r="AA77" s="26"/>
       <c r="AB77" s="21" t="s">
         <v>3</v>
@@ -5325,10 +5713,10 @@
     <row r="80" spans="3:31" x14ac:dyDescent="0.2">
       <c r="S80" s="119"/>
       <c r="T80" s="120" t="s">
-        <v>86</v>
+        <v>166</v>
       </c>
       <c r="U80" s="120" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="V80" s="120"/>
       <c r="W80" s="123"/>
@@ -5336,7 +5724,7 @@
     <row r="81" spans="19:23" x14ac:dyDescent="0.2">
       <c r="S81" s="122"/>
       <c r="T81" s="120" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="U81" s="120" t="s">
         <v>41</v>
@@ -5358,7 +5746,7 @@
     <row r="83" spans="19:23" x14ac:dyDescent="0.2">
       <c r="S83" s="119"/>
       <c r="T83" s="120" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="U83" s="120" t="s">
         <v>29</v>
@@ -5369,7 +5757,7 @@
     <row r="84" spans="19:23" x14ac:dyDescent="0.2">
       <c r="S84" s="119"/>
       <c r="T84" s="120" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="U84" s="120" t="s">
         <v>29</v>
@@ -5380,7 +5768,7 @@
     <row r="85" spans="19:23" x14ac:dyDescent="0.2">
       <c r="S85" s="122"/>
       <c r="T85" s="120" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="U85" s="120" t="s">
         <v>58</v>
@@ -5391,7 +5779,7 @@
     <row r="86" spans="19:23" x14ac:dyDescent="0.2">
       <c r="S86" s="122"/>
       <c r="T86" s="120" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="U86" s="120" t="s">
         <v>58</v>
@@ -5402,7 +5790,7 @@
     <row r="87" spans="19:23" x14ac:dyDescent="0.2">
       <c r="S87" s="122"/>
       <c r="T87" s="120" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="U87" s="120" t="s">
         <v>58</v>
@@ -5413,10 +5801,10 @@
     <row r="88" spans="19:23" x14ac:dyDescent="0.2">
       <c r="S88" s="119"/>
       <c r="T88" s="120" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="U88" s="120" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="V88" s="120"/>
       <c r="W88" s="123"/>
@@ -5424,10 +5812,10 @@
     <row r="89" spans="19:23" x14ac:dyDescent="0.2">
       <c r="S89" s="119"/>
       <c r="T89" s="120" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="U89" s="120" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="V89" s="120"/>
       <c r="W89" s="123"/>
@@ -5435,10 +5823,10 @@
     <row r="90" spans="19:23" x14ac:dyDescent="0.2">
       <c r="S90" s="119"/>
       <c r="T90" s="120" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U90" s="120" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="V90" s="120"/>
       <c r="W90" s="123"/>
@@ -5446,10 +5834,10 @@
     <row r="91" spans="19:23" x14ac:dyDescent="0.2">
       <c r="S91" s="122"/>
       <c r="T91" s="120" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="U91" s="120" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="V91" s="120"/>
       <c r="W91" s="123"/>
@@ -5457,7 +5845,7 @@
     <row r="92" spans="19:23" x14ac:dyDescent="0.2">
       <c r="S92" s="119"/>
       <c r="T92" s="120" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="U92" s="120" t="s">
         <v>29</v>
@@ -5533,13 +5921,13 @@
     </row>
     <row r="101" spans="19:23" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="102" spans="19:23" x14ac:dyDescent="0.2">
-      <c r="S102" s="137" t="s">
-        <v>151</v>
-      </c>
-      <c r="T102" s="138"/>
-      <c r="U102" s="138"/>
-      <c r="V102" s="138"/>
-      <c r="W102" s="139"/>
+      <c r="S102" s="148" t="s">
+        <v>150</v>
+      </c>
+      <c r="T102" s="149"/>
+      <c r="U102" s="149"/>
+      <c r="V102" s="149"/>
+      <c r="W102" s="150"/>
     </row>
     <row r="103" spans="19:23" x14ac:dyDescent="0.2">
       <c r="S103" s="67" t="s">
@@ -5585,7 +5973,7 @@
     <row r="106" spans="19:23" x14ac:dyDescent="0.2">
       <c r="S106" s="122"/>
       <c r="T106" s="120" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="U106" s="120" t="s">
         <v>58</v>
@@ -5596,10 +5984,10 @@
     <row r="107" spans="19:23" x14ac:dyDescent="0.2">
       <c r="S107" s="119"/>
       <c r="T107" s="120" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U107" s="120" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="V107" s="120"/>
       <c r="W107" s="123"/>
@@ -5607,10 +5995,10 @@
     <row r="108" spans="19:23" x14ac:dyDescent="0.2">
       <c r="S108" s="122"/>
       <c r="T108" s="120" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U108" s="120" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="V108" s="120"/>
       <c r="W108" s="123"/>
@@ -5621,7 +6009,7 @@
         <v>78</v>
       </c>
       <c r="U109" s="120" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="V109" s="120"/>
       <c r="W109" s="123"/>
@@ -5632,7 +6020,7 @@
         <v>80</v>
       </c>
       <c r="U110" s="120" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="V110" s="120"/>
       <c r="W110" s="123"/>
@@ -5643,7 +6031,7 @@
         <v>77</v>
       </c>
       <c r="U111" s="120" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="V111" s="120"/>
       <c r="W111" s="123"/>
@@ -5651,7 +6039,7 @@
     <row r="112" spans="19:23" x14ac:dyDescent="0.2">
       <c r="S112" s="119"/>
       <c r="T112" s="120" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="U112" s="124" t="s">
         <v>58</v>
@@ -5695,7 +6083,7 @@
     <row r="116" spans="19:23" x14ac:dyDescent="0.2">
       <c r="S116" s="122"/>
       <c r="T116" s="120" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U116" s="124" t="s">
         <v>41</v>
@@ -5706,7 +6094,7 @@
     <row r="117" spans="19:23" x14ac:dyDescent="0.2">
       <c r="S117" s="122"/>
       <c r="T117" s="120" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="U117" s="124" t="s">
         <v>41</v>
@@ -5728,7 +6116,7 @@
     <row r="119" spans="19:23" x14ac:dyDescent="0.2">
       <c r="S119" s="119"/>
       <c r="T119" s="120" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="U119" s="120" t="s">
         <v>30</v>
@@ -5739,7 +6127,7 @@
     <row r="120" spans="19:23" x14ac:dyDescent="0.2">
       <c r="S120" s="122"/>
       <c r="T120" s="120" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U120" s="120" t="s">
         <v>30</v>
@@ -5750,7 +6138,7 @@
     <row r="121" spans="19:23" x14ac:dyDescent="0.2">
       <c r="S121" s="122"/>
       <c r="T121" s="120" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="U121" s="120" t="s">
         <v>30</v>
@@ -5782,13 +6170,13 @@
     </row>
     <row r="126" spans="19:23" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="127" spans="19:23" x14ac:dyDescent="0.2">
-      <c r="S127" s="159" t="s">
-        <v>116</v>
-      </c>
-      <c r="T127" s="160"/>
-      <c r="U127" s="160"/>
-      <c r="V127" s="160"/>
-      <c r="W127" s="161"/>
+      <c r="S127" s="154" t="s">
+        <v>115</v>
+      </c>
+      <c r="T127" s="155"/>
+      <c r="U127" s="155"/>
+      <c r="V127" s="155"/>
+      <c r="W127" s="156"/>
     </row>
     <row r="128" spans="19:23" x14ac:dyDescent="0.2">
       <c r="S128" s="67" t="s">
@@ -5812,7 +6200,7 @@
         <v>23</v>
       </c>
       <c r="T129" s="72" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="U129" s="72" t="s">
         <v>29</v>
@@ -5827,7 +6215,7 @@
         <v>46</v>
       </c>
       <c r="T130" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="U130" s="18" t="s">
         <v>29</v>
@@ -5840,7 +6228,7 @@
     <row r="131" spans="19:23" x14ac:dyDescent="0.2">
       <c r="S131" s="4"/>
       <c r="T131" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U131" s="18" t="s">
         <v>29</v>
@@ -5853,7 +6241,7 @@
     <row r="132" spans="19:23" x14ac:dyDescent="0.2">
       <c r="S132" s="4"/>
       <c r="T132" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U132" s="18" t="s">
         <v>29</v>
@@ -5880,16 +6268,20 @@
     </row>
     <row r="134" spans="19:23" x14ac:dyDescent="0.2">
       <c r="T134" s="109" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="26">
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="AA36:AE36"/>
     <mergeCell ref="AI7:AM7"/>
     <mergeCell ref="AI21:AM21"/>
     <mergeCell ref="AA50:AE50"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="S6:W6"/>
+    <mergeCell ref="S15:W15"/>
+    <mergeCell ref="AA11:AE11"/>
     <mergeCell ref="S127:W127"/>
     <mergeCell ref="C65:G65"/>
     <mergeCell ref="C58:G58"/>
@@ -5899,11 +6291,9 @@
     <mergeCell ref="C51:G51"/>
     <mergeCell ref="C27:G27"/>
     <mergeCell ref="K50:O50"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="S6:W6"/>
-    <mergeCell ref="S15:W15"/>
-    <mergeCell ref="AA11:AE11"/>
     <mergeCell ref="K26:O26"/>
+    <mergeCell ref="K66:O66"/>
+    <mergeCell ref="AO21:AS21"/>
     <mergeCell ref="AA73:AE73"/>
     <mergeCell ref="S77:W77"/>
     <mergeCell ref="S102:W102"/>

--- a/Documentacion/Base de Datos CBD v1.xlsx
+++ b/Documentacion/Base de Datos CBD v1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oavalos/Documents/Personal/Proyecto CBD/Codigo/Documentacion/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/omar/Documents/Proyecto CBD/Codigo/Documentacion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D105AA-04C3-A94C-B306-001F6B876137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2A254D-E015-0B4E-A0C7-20A7BE52D9F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35480" yWindow="780" windowWidth="28800" windowHeight="16140" xr2:uid="{D4FEB497-8318-AB43-A3DA-832786BD3E10}"/>
+    <workbookView xWindow="25600" yWindow="-340" windowWidth="38400" windowHeight="21140" xr2:uid="{D4FEB497-8318-AB43-A3DA-832786BD3E10}"/>
   </bookViews>
   <sheets>
     <sheet name="Estructura" sheetId="1" r:id="rId1"/>
@@ -1181,6 +1181,120 @@
     <xf numFmtId="0" fontId="4" fillId="23" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1190,22 +1304,13 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1224,111 +1329,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2752,8 +2752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{770F6DCC-4CB2-7A4E-A798-91BAB4EC9683}">
   <dimension ref="A1:AS134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P49" zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T67" sqref="T67"/>
+    <sheetView tabSelected="1" topLeftCell="O50" zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S56" sqref="S56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2814,13 +2814,13 @@
     </row>
     <row r="2" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="C3" s="142" t="s">
+      <c r="C3" s="139" t="s">
         <v>126</v>
       </c>
-      <c r="D3" s="143"/>
-      <c r="E3" s="143"/>
-      <c r="F3" s="143"/>
-      <c r="G3" s="144"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="140"/>
+      <c r="G3" s="141"/>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C4" s="98" t="s">
@@ -2868,20 +2868,20 @@
         <v>39</v>
       </c>
       <c r="G6" s="10"/>
-      <c r="K6" s="182" t="s">
+      <c r="K6" s="151" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="183"/>
-      <c r="M6" s="183"/>
-      <c r="N6" s="183"/>
-      <c r="O6" s="184"/>
-      <c r="S6" s="176" t="s">
+      <c r="L6" s="152"/>
+      <c r="M6" s="152"/>
+      <c r="N6" s="152"/>
+      <c r="O6" s="153"/>
+      <c r="S6" s="145" t="s">
         <v>36</v>
       </c>
-      <c r="T6" s="177"/>
-      <c r="U6" s="177"/>
-      <c r="V6" s="185"/>
-      <c r="W6" s="178"/>
+      <c r="T6" s="146"/>
+      <c r="U6" s="146"/>
+      <c r="V6" s="154"/>
+      <c r="W6" s="147"/>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C7" s="25"/>
@@ -2925,13 +2925,13 @@
       <c r="W7" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="AI7" s="176" t="s">
+      <c r="AI7" s="145" t="s">
         <v>108</v>
       </c>
-      <c r="AJ7" s="177"/>
-      <c r="AK7" s="177"/>
-      <c r="AL7" s="177"/>
-      <c r="AM7" s="178"/>
+      <c r="AJ7" s="146"/>
+      <c r="AK7" s="146"/>
+      <c r="AL7" s="146"/>
+      <c r="AM7" s="147"/>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C8" s="25"/>
@@ -3111,13 +3111,13 @@
       </c>
       <c r="O11" s="5"/>
       <c r="S11" s="23"/>
-      <c r="AA11" s="186" t="s">
+      <c r="AA11" s="158" t="s">
         <v>43</v>
       </c>
-      <c r="AB11" s="187"/>
-      <c r="AC11" s="187"/>
-      <c r="AD11" s="187"/>
-      <c r="AE11" s="188"/>
+      <c r="AB11" s="159"/>
+      <c r="AC11" s="159"/>
+      <c r="AD11" s="159"/>
+      <c r="AE11" s="160"/>
       <c r="AI11" s="4"/>
       <c r="AJ11" s="19" t="s">
         <v>118</v>
@@ -3304,13 +3304,13 @@
         <v>39</v>
       </c>
       <c r="O15" s="8"/>
-      <c r="S15" s="163" t="s">
+      <c r="S15" s="155" t="s">
         <v>37</v>
       </c>
-      <c r="T15" s="164"/>
-      <c r="U15" s="164"/>
-      <c r="V15" s="164"/>
-      <c r="W15" s="166"/>
+      <c r="T15" s="156"/>
+      <c r="U15" s="156"/>
+      <c r="V15" s="156"/>
+      <c r="W15" s="157"/>
       <c r="AA15" s="43" t="s">
         <v>46</v>
       </c>
@@ -3594,20 +3594,20 @@
       </c>
       <c r="F21" s="18"/>
       <c r="G21" s="5"/>
-      <c r="AI21" s="173" t="s">
+      <c r="AI21" s="142" t="s">
         <v>112</v>
       </c>
-      <c r="AJ21" s="174"/>
-      <c r="AK21" s="174"/>
-      <c r="AL21" s="174"/>
-      <c r="AM21" s="175"/>
-      <c r="AO21" s="139" t="s">
+      <c r="AJ21" s="143"/>
+      <c r="AK21" s="143"/>
+      <c r="AL21" s="143"/>
+      <c r="AM21" s="144"/>
+      <c r="AO21" s="177" t="s">
         <v>162</v>
       </c>
-      <c r="AP21" s="140"/>
-      <c r="AQ21" s="140"/>
-      <c r="AR21" s="140"/>
-      <c r="AS21" s="141"/>
+      <c r="AP21" s="178"/>
+      <c r="AQ21" s="178"/>
+      <c r="AR21" s="178"/>
+      <c r="AS21" s="179"/>
     </row>
     <row r="22" spans="3:45" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C22" s="26"/>
@@ -3734,20 +3734,20 @@
       <c r="AS25" s="5"/>
     </row>
     <row r="26" spans="3:45" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K26" s="139" t="s">
+      <c r="K26" s="177" t="s">
         <v>50</v>
       </c>
-      <c r="L26" s="140"/>
-      <c r="M26" s="140"/>
-      <c r="N26" s="140"/>
-      <c r="O26" s="141"/>
-      <c r="S26" s="154" t="s">
+      <c r="L26" s="178"/>
+      <c r="M26" s="178"/>
+      <c r="N26" s="178"/>
+      <c r="O26" s="179"/>
+      <c r="S26" s="161" t="s">
         <v>74</v>
       </c>
-      <c r="T26" s="155"/>
-      <c r="U26" s="155"/>
-      <c r="V26" s="155"/>
-      <c r="W26" s="156"/>
+      <c r="T26" s="162"/>
+      <c r="U26" s="162"/>
+      <c r="V26" s="162"/>
+      <c r="W26" s="163"/>
       <c r="AI26" s="4"/>
       <c r="AJ26" s="18" t="s">
         <v>114</v>
@@ -3772,13 +3772,13 @@
       <c r="AS26" s="5"/>
     </row>
     <row r="27" spans="3:45" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="167" t="s">
+      <c r="C27" s="174" t="s">
         <v>127</v>
       </c>
-      <c r="D27" s="168"/>
-      <c r="E27" s="168"/>
-      <c r="F27" s="168"/>
-      <c r="G27" s="169"/>
+      <c r="D27" s="175"/>
+      <c r="E27" s="175"/>
+      <c r="F27" s="175"/>
+      <c r="G27" s="176"/>
       <c r="K27" s="58" t="s">
         <v>22</v>
       </c>
@@ -4191,13 +4191,13 @@
       <c r="W36" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="AA36" s="173" t="s">
+      <c r="AA36" s="142" t="s">
         <v>103</v>
       </c>
-      <c r="AB36" s="174"/>
-      <c r="AC36" s="174"/>
-      <c r="AD36" s="174"/>
-      <c r="AE36" s="175"/>
+      <c r="AB36" s="143"/>
+      <c r="AC36" s="143"/>
+      <c r="AD36" s="143"/>
+      <c r="AE36" s="144"/>
     </row>
     <row r="37" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C37" s="25"/>
@@ -4644,29 +4644,29 @@
       </c>
     </row>
     <row r="50" spans="3:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K50" s="160" t="s">
+      <c r="K50" s="167" t="s">
         <v>97</v>
       </c>
-      <c r="L50" s="161"/>
-      <c r="M50" s="161"/>
-      <c r="N50" s="161"/>
-      <c r="O50" s="162"/>
-      <c r="AA50" s="179" t="s">
+      <c r="L50" s="168"/>
+      <c r="M50" s="168"/>
+      <c r="N50" s="168"/>
+      <c r="O50" s="169"/>
+      <c r="AA50" s="148" t="s">
         <v>87</v>
       </c>
-      <c r="AB50" s="180"/>
-      <c r="AC50" s="180"/>
-      <c r="AD50" s="180"/>
-      <c r="AE50" s="181"/>
+      <c r="AB50" s="149"/>
+      <c r="AC50" s="149"/>
+      <c r="AD50" s="149"/>
+      <c r="AE50" s="150"/>
     </row>
     <row r="51" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C51" s="163" t="s">
+      <c r="C51" s="155" t="s">
         <v>59</v>
       </c>
-      <c r="D51" s="164"/>
-      <c r="E51" s="164"/>
-      <c r="F51" s="165"/>
-      <c r="G51" s="166"/>
+      <c r="D51" s="156"/>
+      <c r="E51" s="156"/>
+      <c r="F51" s="173"/>
+      <c r="G51" s="157"/>
       <c r="K51" s="78" t="s">
         <v>22</v>
       </c>
@@ -4682,13 +4682,13 @@
       <c r="O51" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="S51" s="145" t="s">
+      <c r="S51" s="170" t="s">
         <v>84</v>
       </c>
-      <c r="T51" s="146"/>
-      <c r="U51" s="146"/>
-      <c r="V51" s="146"/>
-      <c r="W51" s="147"/>
+      <c r="T51" s="171"/>
+      <c r="U51" s="171"/>
+      <c r="V51" s="171"/>
+      <c r="W51" s="172"/>
       <c r="AA51" s="90" t="s">
         <v>22</v>
       </c>
@@ -4959,20 +4959,20 @@
       <c r="AE57" s="5"/>
     </row>
     <row r="58" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C58" s="157" t="s">
+      <c r="C58" s="164" t="s">
         <v>70</v>
       </c>
-      <c r="D58" s="158"/>
-      <c r="E58" s="158"/>
-      <c r="F58" s="158"/>
-      <c r="G58" s="159"/>
-      <c r="K58" s="151" t="s">
+      <c r="D58" s="165"/>
+      <c r="E58" s="165"/>
+      <c r="F58" s="165"/>
+      <c r="G58" s="166"/>
+      <c r="K58" s="186" t="s">
         <v>155</v>
       </c>
-      <c r="L58" s="152"/>
-      <c r="M58" s="152"/>
-      <c r="N58" s="152"/>
-      <c r="O58" s="153"/>
+      <c r="L58" s="187"/>
+      <c r="M58" s="187"/>
+      <c r="N58" s="187"/>
+      <c r="O58" s="188"/>
       <c r="S58" s="96" t="s">
         <v>46</v>
       </c>
@@ -5232,13 +5232,13 @@
       <c r="W64" s="5"/>
     </row>
     <row r="65" spans="3:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C65" s="154" t="s">
+      <c r="C65" s="161" t="s">
         <v>63</v>
       </c>
-      <c r="D65" s="155"/>
-      <c r="E65" s="155"/>
-      <c r="F65" s="155"/>
-      <c r="G65" s="156"/>
+      <c r="D65" s="162"/>
+      <c r="E65" s="162"/>
+      <c r="F65" s="162"/>
+      <c r="G65" s="163"/>
       <c r="S65" s="4"/>
       <c r="T65" s="19" t="s">
         <v>156</v>
@@ -5265,13 +5265,13 @@
       <c r="G66" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="K66" s="170" t="s">
+      <c r="K66" s="180" t="s">
         <v>167</v>
       </c>
-      <c r="L66" s="171"/>
-      <c r="M66" s="171"/>
-      <c r="N66" s="171"/>
-      <c r="O66" s="172"/>
+      <c r="L66" s="181"/>
+      <c r="M66" s="181"/>
+      <c r="N66" s="181"/>
+      <c r="O66" s="182"/>
       <c r="S66" s="25"/>
       <c r="T66" s="19" t="s">
         <v>148</v>
@@ -5283,13 +5283,13 @@
         <v>39</v>
       </c>
       <c r="W66" s="5"/>
-      <c r="AA66" s="139" t="s">
+      <c r="AA66" s="177" t="s">
         <v>157</v>
       </c>
-      <c r="AB66" s="140"/>
-      <c r="AC66" s="140"/>
-      <c r="AD66" s="140"/>
-      <c r="AE66" s="141"/>
+      <c r="AB66" s="178"/>
+      <c r="AC66" s="178"/>
+      <c r="AD66" s="178"/>
+      <c r="AE66" s="179"/>
     </row>
     <row r="67" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C67" s="71" t="s">
@@ -5531,13 +5531,13 @@
       <c r="W72" s="5"/>
     </row>
     <row r="73" spans="3:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C73" s="160" t="s">
+      <c r="C73" s="167" t="s">
         <v>67</v>
       </c>
-      <c r="D73" s="161"/>
-      <c r="E73" s="161"/>
-      <c r="F73" s="161"/>
-      <c r="G73" s="162"/>
+      <c r="D73" s="168"/>
+      <c r="E73" s="168"/>
+      <c r="F73" s="168"/>
+      <c r="G73" s="169"/>
       <c r="S73" s="26"/>
       <c r="T73" s="21" t="s">
         <v>3</v>
@@ -5551,13 +5551,13 @@
       <c r="W73" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AA73" s="142" t="s">
+      <c r="AA73" s="139" t="s">
         <v>158</v>
       </c>
-      <c r="AB73" s="143"/>
-      <c r="AC73" s="143"/>
-      <c r="AD73" s="143"/>
-      <c r="AE73" s="144"/>
+      <c r="AB73" s="140"/>
+      <c r="AC73" s="140"/>
+      <c r="AD73" s="140"/>
+      <c r="AE73" s="141"/>
     </row>
     <row r="74" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C74" s="78" t="s">
@@ -5659,13 +5659,13 @@
       <c r="G77" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="S77" s="145" t="s">
+      <c r="S77" s="170" t="s">
         <v>149</v>
       </c>
-      <c r="T77" s="146"/>
-      <c r="U77" s="146"/>
-      <c r="V77" s="146"/>
-      <c r="W77" s="147"/>
+      <c r="T77" s="171"/>
+      <c r="U77" s="171"/>
+      <c r="V77" s="171"/>
+      <c r="W77" s="172"/>
       <c r="AA77" s="26"/>
       <c r="AB77" s="21" t="s">
         <v>3</v>
@@ -5921,13 +5921,13 @@
     </row>
     <row r="101" spans="19:23" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="102" spans="19:23" x14ac:dyDescent="0.2">
-      <c r="S102" s="148" t="s">
+      <c r="S102" s="183" t="s">
         <v>150</v>
       </c>
-      <c r="T102" s="149"/>
-      <c r="U102" s="149"/>
-      <c r="V102" s="149"/>
-      <c r="W102" s="150"/>
+      <c r="T102" s="184"/>
+      <c r="U102" s="184"/>
+      <c r="V102" s="184"/>
+      <c r="W102" s="185"/>
     </row>
     <row r="103" spans="19:23" x14ac:dyDescent="0.2">
       <c r="S103" s="67" t="s">
@@ -6170,13 +6170,13 @@
     </row>
     <row r="126" spans="19:23" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="127" spans="19:23" x14ac:dyDescent="0.2">
-      <c r="S127" s="154" t="s">
+      <c r="S127" s="161" t="s">
         <v>115</v>
       </c>
-      <c r="T127" s="155"/>
-      <c r="U127" s="155"/>
-      <c r="V127" s="155"/>
-      <c r="W127" s="156"/>
+      <c r="T127" s="162"/>
+      <c r="U127" s="162"/>
+      <c r="V127" s="162"/>
+      <c r="W127" s="163"/>
     </row>
     <row r="128" spans="19:23" x14ac:dyDescent="0.2">
       <c r="S128" s="67" t="s">
@@ -6273,15 +6273,12 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="AA36:AE36"/>
-    <mergeCell ref="AI7:AM7"/>
-    <mergeCell ref="AI21:AM21"/>
-    <mergeCell ref="AA50:AE50"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="S6:W6"/>
-    <mergeCell ref="S15:W15"/>
-    <mergeCell ref="AA11:AE11"/>
+    <mergeCell ref="AO21:AS21"/>
+    <mergeCell ref="AA73:AE73"/>
+    <mergeCell ref="S77:W77"/>
+    <mergeCell ref="S102:W102"/>
+    <mergeCell ref="K58:O58"/>
+    <mergeCell ref="AA66:AE66"/>
     <mergeCell ref="S127:W127"/>
     <mergeCell ref="C65:G65"/>
     <mergeCell ref="C58:G58"/>
@@ -6293,12 +6290,15 @@
     <mergeCell ref="K50:O50"/>
     <mergeCell ref="K26:O26"/>
     <mergeCell ref="K66:O66"/>
-    <mergeCell ref="AO21:AS21"/>
-    <mergeCell ref="AA73:AE73"/>
-    <mergeCell ref="S77:W77"/>
-    <mergeCell ref="S102:W102"/>
-    <mergeCell ref="K58:O58"/>
-    <mergeCell ref="AA66:AE66"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="AA36:AE36"/>
+    <mergeCell ref="AI7:AM7"/>
+    <mergeCell ref="AI21:AM21"/>
+    <mergeCell ref="AA50:AE50"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="S6:W6"/>
+    <mergeCell ref="S15:W15"/>
+    <mergeCell ref="AA11:AE11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Documentacion/Base de Datos CBD v1.xlsx
+++ b/Documentacion/Base de Datos CBD v1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/omar/Documents/Proyecto CBD/Codigo/Documentacion/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/omaravalos/Documents/Proyecto CBD/Codigo/Documentacion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2A254D-E015-0B4E-A0C7-20A7BE52D9F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34A7725-59E5-3240-9868-2617C30E87BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="-340" windowWidth="38400" windowHeight="21140" xr2:uid="{D4FEB497-8318-AB43-A3DA-832786BD3E10}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14240" xr2:uid="{D4FEB497-8318-AB43-A3DA-832786BD3E10}"/>
   </bookViews>
   <sheets>
     <sheet name="Estructura" sheetId="1" r:id="rId1"/>
@@ -21,19 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="171">
   <si>
     <t>nombre</t>
   </si>
@@ -543,6 +536,9 @@
   </si>
   <si>
     <t>imagen_principal</t>
+  </si>
+  <si>
+    <t>informe</t>
   </si>
 </sst>
 </file>
@@ -748,7 +744,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -967,11 +963,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="189">
+  <cellXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1181,6 +1188,15 @@
     <xf numFmtId="0" fontId="4" fillId="23" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1190,6 +1206,90 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1229,15 +1329,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1247,90 +1338,18 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2752,8 +2771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{770F6DCC-4CB2-7A4E-A798-91BAB4EC9683}">
   <dimension ref="A1:AS134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O50" zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S56" sqref="S56"/>
+    <sheetView tabSelected="1" topLeftCell="P51" zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T61" sqref="T61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2814,13 +2833,13 @@
     </row>
     <row r="2" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="C3" s="139" t="s">
+      <c r="C3" s="142" t="s">
         <v>126</v>
       </c>
-      <c r="D3" s="140"/>
-      <c r="E3" s="140"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="141"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="143"/>
+      <c r="G3" s="144"/>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C4" s="98" t="s">
@@ -2868,20 +2887,20 @@
         <v>39</v>
       </c>
       <c r="G6" s="10"/>
-      <c r="K6" s="151" t="s">
+      <c r="K6" s="182" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="152"/>
-      <c r="M6" s="152"/>
-      <c r="N6" s="152"/>
-      <c r="O6" s="153"/>
-      <c r="S6" s="145" t="s">
+      <c r="L6" s="183"/>
+      <c r="M6" s="183"/>
+      <c r="N6" s="183"/>
+      <c r="O6" s="184"/>
+      <c r="S6" s="176" t="s">
         <v>36</v>
       </c>
-      <c r="T6" s="146"/>
-      <c r="U6" s="146"/>
-      <c r="V6" s="154"/>
-      <c r="W6" s="147"/>
+      <c r="T6" s="177"/>
+      <c r="U6" s="177"/>
+      <c r="V6" s="185"/>
+      <c r="W6" s="178"/>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C7" s="25"/>
@@ -2925,13 +2944,13 @@
       <c r="W7" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="AI7" s="145" t="s">
+      <c r="AI7" s="176" t="s">
         <v>108</v>
       </c>
-      <c r="AJ7" s="146"/>
-      <c r="AK7" s="146"/>
-      <c r="AL7" s="146"/>
-      <c r="AM7" s="147"/>
+      <c r="AJ7" s="177"/>
+      <c r="AK7" s="177"/>
+      <c r="AL7" s="177"/>
+      <c r="AM7" s="178"/>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C8" s="25"/>
@@ -3111,13 +3130,13 @@
       </c>
       <c r="O11" s="5"/>
       <c r="S11" s="23"/>
-      <c r="AA11" s="158" t="s">
+      <c r="AA11" s="186" t="s">
         <v>43</v>
       </c>
-      <c r="AB11" s="159"/>
-      <c r="AC11" s="159"/>
-      <c r="AD11" s="159"/>
-      <c r="AE11" s="160"/>
+      <c r="AB11" s="187"/>
+      <c r="AC11" s="187"/>
+      <c r="AD11" s="187"/>
+      <c r="AE11" s="188"/>
       <c r="AI11" s="4"/>
       <c r="AJ11" s="19" t="s">
         <v>118</v>
@@ -3304,13 +3323,13 @@
         <v>39</v>
       </c>
       <c r="O15" s="8"/>
-      <c r="S15" s="155" t="s">
+      <c r="S15" s="163" t="s">
         <v>37</v>
       </c>
-      <c r="T15" s="156"/>
-      <c r="U15" s="156"/>
-      <c r="V15" s="156"/>
-      <c r="W15" s="157"/>
+      <c r="T15" s="164"/>
+      <c r="U15" s="164"/>
+      <c r="V15" s="164"/>
+      <c r="W15" s="166"/>
       <c r="AA15" s="43" t="s">
         <v>46</v>
       </c>
@@ -3594,20 +3613,20 @@
       </c>
       <c r="F21" s="18"/>
       <c r="G21" s="5"/>
-      <c r="AI21" s="142" t="s">
+      <c r="AI21" s="173" t="s">
         <v>112</v>
       </c>
-      <c r="AJ21" s="143"/>
-      <c r="AK21" s="143"/>
-      <c r="AL21" s="143"/>
-      <c r="AM21" s="144"/>
-      <c r="AO21" s="177" t="s">
+      <c r="AJ21" s="174"/>
+      <c r="AK21" s="174"/>
+      <c r="AL21" s="174"/>
+      <c r="AM21" s="175"/>
+      <c r="AO21" s="139" t="s">
         <v>162</v>
       </c>
-      <c r="AP21" s="178"/>
-      <c r="AQ21" s="178"/>
-      <c r="AR21" s="178"/>
-      <c r="AS21" s="179"/>
+      <c r="AP21" s="140"/>
+      <c r="AQ21" s="140"/>
+      <c r="AR21" s="140"/>
+      <c r="AS21" s="141"/>
     </row>
     <row r="22" spans="3:45" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C22" s="26"/>
@@ -3734,20 +3753,20 @@
       <c r="AS25" s="5"/>
     </row>
     <row r="26" spans="3:45" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K26" s="177" t="s">
+      <c r="K26" s="139" t="s">
         <v>50</v>
       </c>
-      <c r="L26" s="178"/>
-      <c r="M26" s="178"/>
-      <c r="N26" s="178"/>
-      <c r="O26" s="179"/>
-      <c r="S26" s="161" t="s">
+      <c r="L26" s="140"/>
+      <c r="M26" s="140"/>
+      <c r="N26" s="140"/>
+      <c r="O26" s="141"/>
+      <c r="S26" s="154" t="s">
         <v>74</v>
       </c>
-      <c r="T26" s="162"/>
-      <c r="U26" s="162"/>
-      <c r="V26" s="162"/>
-      <c r="W26" s="163"/>
+      <c r="T26" s="155"/>
+      <c r="U26" s="155"/>
+      <c r="V26" s="155"/>
+      <c r="W26" s="156"/>
       <c r="AI26" s="4"/>
       <c r="AJ26" s="18" t="s">
         <v>114</v>
@@ -3772,13 +3791,13 @@
       <c r="AS26" s="5"/>
     </row>
     <row r="27" spans="3:45" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="174" t="s">
+      <c r="C27" s="167" t="s">
         <v>127</v>
       </c>
-      <c r="D27" s="175"/>
-      <c r="E27" s="175"/>
-      <c r="F27" s="175"/>
-      <c r="G27" s="176"/>
+      <c r="D27" s="168"/>
+      <c r="E27" s="168"/>
+      <c r="F27" s="168"/>
+      <c r="G27" s="169"/>
       <c r="K27" s="58" t="s">
         <v>22</v>
       </c>
@@ -4191,13 +4210,13 @@
       <c r="W36" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="AA36" s="142" t="s">
+      <c r="AA36" s="173" t="s">
         <v>103</v>
       </c>
-      <c r="AB36" s="143"/>
-      <c r="AC36" s="143"/>
-      <c r="AD36" s="143"/>
-      <c r="AE36" s="144"/>
+      <c r="AB36" s="174"/>
+      <c r="AC36" s="174"/>
+      <c r="AD36" s="174"/>
+      <c r="AE36" s="175"/>
     </row>
     <row r="37" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C37" s="25"/>
@@ -4644,29 +4663,29 @@
       </c>
     </row>
     <row r="50" spans="3:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K50" s="167" t="s">
+      <c r="K50" s="160" t="s">
         <v>97</v>
       </c>
-      <c r="L50" s="168"/>
-      <c r="M50" s="168"/>
-      <c r="N50" s="168"/>
-      <c r="O50" s="169"/>
-      <c r="AA50" s="148" t="s">
+      <c r="L50" s="161"/>
+      <c r="M50" s="161"/>
+      <c r="N50" s="161"/>
+      <c r="O50" s="162"/>
+      <c r="AA50" s="179" t="s">
         <v>87</v>
       </c>
-      <c r="AB50" s="149"/>
-      <c r="AC50" s="149"/>
-      <c r="AD50" s="149"/>
-      <c r="AE50" s="150"/>
+      <c r="AB50" s="180"/>
+      <c r="AC50" s="180"/>
+      <c r="AD50" s="180"/>
+      <c r="AE50" s="181"/>
     </row>
     <row r="51" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C51" s="155" t="s">
+      <c r="C51" s="163" t="s">
         <v>59</v>
       </c>
-      <c r="D51" s="156"/>
-      <c r="E51" s="156"/>
-      <c r="F51" s="173"/>
-      <c r="G51" s="157"/>
+      <c r="D51" s="164"/>
+      <c r="E51" s="164"/>
+      <c r="F51" s="165"/>
+      <c r="G51" s="166"/>
       <c r="K51" s="78" t="s">
         <v>22</v>
       </c>
@@ -4682,13 +4701,13 @@
       <c r="O51" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="S51" s="170" t="s">
+      <c r="S51" s="145" t="s">
         <v>84</v>
       </c>
-      <c r="T51" s="171"/>
-      <c r="U51" s="171"/>
-      <c r="V51" s="171"/>
-      <c r="W51" s="172"/>
+      <c r="T51" s="146"/>
+      <c r="U51" s="146"/>
+      <c r="V51" s="146"/>
+      <c r="W51" s="147"/>
       <c r="AA51" s="90" t="s">
         <v>22</v>
       </c>
@@ -4959,20 +4978,20 @@
       <c r="AE57" s="5"/>
     </row>
     <row r="58" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C58" s="164" t="s">
+      <c r="C58" s="157" t="s">
         <v>70</v>
       </c>
-      <c r="D58" s="165"/>
-      <c r="E58" s="165"/>
-      <c r="F58" s="165"/>
-      <c r="G58" s="166"/>
-      <c r="K58" s="186" t="s">
+      <c r="D58" s="158"/>
+      <c r="E58" s="158"/>
+      <c r="F58" s="158"/>
+      <c r="G58" s="159"/>
+      <c r="K58" s="151" t="s">
         <v>155</v>
       </c>
-      <c r="L58" s="187"/>
-      <c r="M58" s="187"/>
-      <c r="N58" s="187"/>
-      <c r="O58" s="188"/>
+      <c r="L58" s="152"/>
+      <c r="M58" s="152"/>
+      <c r="N58" s="152"/>
+      <c r="O58" s="153"/>
       <c r="S58" s="96" t="s">
         <v>46</v>
       </c>
@@ -5232,13 +5251,13 @@
       <c r="W64" s="5"/>
     </row>
     <row r="65" spans="3:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C65" s="161" t="s">
+      <c r="C65" s="154" t="s">
         <v>63</v>
       </c>
-      <c r="D65" s="162"/>
-      <c r="E65" s="162"/>
-      <c r="F65" s="162"/>
-      <c r="G65" s="163"/>
+      <c r="D65" s="155"/>
+      <c r="E65" s="155"/>
+      <c r="F65" s="155"/>
+      <c r="G65" s="156"/>
       <c r="S65" s="4"/>
       <c r="T65" s="19" t="s">
         <v>156</v>
@@ -5265,13 +5284,13 @@
       <c r="G66" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="K66" s="180" t="s">
+      <c r="K66" s="170" t="s">
         <v>167</v>
       </c>
-      <c r="L66" s="181"/>
-      <c r="M66" s="181"/>
-      <c r="N66" s="181"/>
-      <c r="O66" s="182"/>
+      <c r="L66" s="171"/>
+      <c r="M66" s="171"/>
+      <c r="N66" s="171"/>
+      <c r="O66" s="172"/>
       <c r="S66" s="25"/>
       <c r="T66" s="19" t="s">
         <v>148</v>
@@ -5283,13 +5302,13 @@
         <v>39</v>
       </c>
       <c r="W66" s="5"/>
-      <c r="AA66" s="177" t="s">
+      <c r="AA66" s="139" t="s">
         <v>157</v>
       </c>
-      <c r="AB66" s="178"/>
-      <c r="AC66" s="178"/>
-      <c r="AD66" s="178"/>
-      <c r="AE66" s="179"/>
+      <c r="AB66" s="140"/>
+      <c r="AC66" s="140"/>
+      <c r="AD66" s="140"/>
+      <c r="AE66" s="141"/>
     </row>
     <row r="67" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C67" s="71" t="s">
@@ -5531,13 +5550,13 @@
       <c r="W72" s="5"/>
     </row>
     <row r="73" spans="3:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C73" s="167" t="s">
+      <c r="C73" s="160" t="s">
         <v>67</v>
       </c>
-      <c r="D73" s="168"/>
-      <c r="E73" s="168"/>
-      <c r="F73" s="168"/>
-      <c r="G73" s="169"/>
+      <c r="D73" s="161"/>
+      <c r="E73" s="161"/>
+      <c r="F73" s="161"/>
+      <c r="G73" s="162"/>
       <c r="S73" s="26"/>
       <c r="T73" s="21" t="s">
         <v>3</v>
@@ -5551,13 +5570,13 @@
       <c r="W73" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AA73" s="139" t="s">
+      <c r="AA73" s="142" t="s">
         <v>158</v>
       </c>
-      <c r="AB73" s="140"/>
-      <c r="AC73" s="140"/>
-      <c r="AD73" s="140"/>
-      <c r="AE73" s="141"/>
+      <c r="AB73" s="143"/>
+      <c r="AC73" s="143"/>
+      <c r="AD73" s="143"/>
+      <c r="AE73" s="144"/>
     </row>
     <row r="74" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C74" s="78" t="s">
@@ -5574,6 +5593,15 @@
       </c>
       <c r="G74" s="81" t="s">
         <v>21</v>
+      </c>
+      <c r="T74" s="189" t="s">
+        <v>170</v>
+      </c>
+      <c r="U74" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="V74" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="AA74" s="98" t="s">
         <v>22</v>
@@ -5659,13 +5687,13 @@
       <c r="G77" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="S77" s="170" t="s">
+      <c r="S77" s="145" t="s">
         <v>149</v>
       </c>
-      <c r="T77" s="171"/>
-      <c r="U77" s="171"/>
-      <c r="V77" s="171"/>
-      <c r="W77" s="172"/>
+      <c r="T77" s="146"/>
+      <c r="U77" s="146"/>
+      <c r="V77" s="146"/>
+      <c r="W77" s="147"/>
       <c r="AA77" s="26"/>
       <c r="AB77" s="21" t="s">
         <v>3</v>
@@ -5721,7 +5749,7 @@
       <c r="V80" s="120"/>
       <c r="W80" s="123"/>
     </row>
-    <row r="81" spans="19:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="19:32" x14ac:dyDescent="0.2">
       <c r="S81" s="122"/>
       <c r="T81" s="120" t="s">
         <v>138</v>
@@ -5731,8 +5759,15 @@
       </c>
       <c r="V81" s="120"/>
       <c r="W81" s="123"/>
-    </row>
-    <row r="82" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="Z81" s="109"/>
+      <c r="AA81" s="109"/>
+      <c r="AB81" s="109"/>
+      <c r="AC81" s="109"/>
+      <c r="AD81" s="109"/>
+      <c r="AE81" s="109"/>
+      <c r="AF81" s="109"/>
+    </row>
+    <row r="82" spans="19:32" x14ac:dyDescent="0.2">
       <c r="S82" s="119"/>
       <c r="T82" s="120" t="s">
         <v>0</v>
@@ -5742,8 +5777,15 @@
       </c>
       <c r="V82" s="120"/>
       <c r="W82" s="123"/>
-    </row>
-    <row r="83" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="Z82" s="109"/>
+      <c r="AA82" s="190"/>
+      <c r="AB82" s="190"/>
+      <c r="AC82" s="190"/>
+      <c r="AD82" s="190"/>
+      <c r="AE82" s="190"/>
+      <c r="AF82" s="109"/>
+    </row>
+    <row r="83" spans="19:32" x14ac:dyDescent="0.2">
       <c r="S83" s="119"/>
       <c r="T83" s="120" t="s">
         <v>121</v>
@@ -5753,8 +5795,15 @@
       </c>
       <c r="V83" s="120"/>
       <c r="W83" s="123"/>
-    </row>
-    <row r="84" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="Z83" s="109"/>
+      <c r="AA83" s="191"/>
+      <c r="AB83" s="192"/>
+      <c r="AC83" s="192"/>
+      <c r="AD83" s="192"/>
+      <c r="AE83" s="192"/>
+      <c r="AF83" s="109"/>
+    </row>
+    <row r="84" spans="19:32" x14ac:dyDescent="0.2">
       <c r="S84" s="119"/>
       <c r="T84" s="120" t="s">
         <v>139</v>
@@ -5764,8 +5813,15 @@
       </c>
       <c r="V84" s="120"/>
       <c r="W84" s="123"/>
-    </row>
-    <row r="85" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="Z84" s="109"/>
+      <c r="AA84" s="193"/>
+      <c r="AB84" s="109"/>
+      <c r="AC84" s="109"/>
+      <c r="AD84" s="109"/>
+      <c r="AE84" s="109"/>
+      <c r="AF84" s="109"/>
+    </row>
+    <row r="85" spans="19:32" x14ac:dyDescent="0.2">
       <c r="S85" s="122"/>
       <c r="T85" s="120" t="s">
         <v>141</v>
@@ -5775,8 +5831,15 @@
       </c>
       <c r="V85" s="128"/>
       <c r="W85" s="123"/>
-    </row>
-    <row r="86" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="Z85" s="109"/>
+      <c r="AA85" s="193"/>
+      <c r="AB85" s="109"/>
+      <c r="AC85" s="109"/>
+      <c r="AD85" s="109"/>
+      <c r="AE85" s="109"/>
+      <c r="AF85" s="109"/>
+    </row>
+    <row r="86" spans="19:32" x14ac:dyDescent="0.2">
       <c r="S86" s="122"/>
       <c r="T86" s="120" t="s">
         <v>142</v>
@@ -5786,8 +5849,15 @@
       </c>
       <c r="V86" s="120"/>
       <c r="W86" s="123"/>
-    </row>
-    <row r="87" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="Z86" s="109"/>
+      <c r="AA86" s="109"/>
+      <c r="AB86" s="109"/>
+      <c r="AC86" s="194"/>
+      <c r="AD86" s="109"/>
+      <c r="AE86" s="109"/>
+      <c r="AF86" s="109"/>
+    </row>
+    <row r="87" spans="19:32" x14ac:dyDescent="0.2">
       <c r="S87" s="122"/>
       <c r="T87" s="120" t="s">
         <v>143</v>
@@ -5797,8 +5867,15 @@
       </c>
       <c r="V87" s="120"/>
       <c r="W87" s="123"/>
-    </row>
-    <row r="88" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="Z87" s="109"/>
+      <c r="AA87" s="193"/>
+      <c r="AB87" s="109"/>
+      <c r="AC87" s="109"/>
+      <c r="AD87" s="109"/>
+      <c r="AE87" s="109"/>
+      <c r="AF87" s="109"/>
+    </row>
+    <row r="88" spans="19:32" x14ac:dyDescent="0.2">
       <c r="S88" s="119"/>
       <c r="T88" s="120" t="s">
         <v>144</v>
@@ -5808,8 +5885,15 @@
       </c>
       <c r="V88" s="120"/>
       <c r="W88" s="123"/>
-    </row>
-    <row r="89" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="Z88" s="109"/>
+      <c r="AA88" s="193"/>
+      <c r="AB88" s="109"/>
+      <c r="AC88" s="109"/>
+      <c r="AD88" s="109"/>
+      <c r="AE88" s="109"/>
+      <c r="AF88" s="109"/>
+    </row>
+    <row r="89" spans="19:32" x14ac:dyDescent="0.2">
       <c r="S89" s="119"/>
       <c r="T89" s="120" t="s">
         <v>145</v>
@@ -5819,8 +5903,15 @@
       </c>
       <c r="V89" s="120"/>
       <c r="W89" s="123"/>
-    </row>
-    <row r="90" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="Z89" s="109"/>
+      <c r="AA89" s="193"/>
+      <c r="AB89" s="109"/>
+      <c r="AC89" s="109"/>
+      <c r="AD89" s="109"/>
+      <c r="AE89" s="109"/>
+      <c r="AF89" s="109"/>
+    </row>
+    <row r="90" spans="19:32" x14ac:dyDescent="0.2">
       <c r="S90" s="119"/>
       <c r="T90" s="120" t="s">
         <v>147</v>
@@ -5830,8 +5921,15 @@
       </c>
       <c r="V90" s="120"/>
       <c r="W90" s="123"/>
-    </row>
-    <row r="91" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="Z90" s="109"/>
+      <c r="AA90" s="109"/>
+      <c r="AB90" s="109"/>
+      <c r="AC90" s="109"/>
+      <c r="AD90" s="109"/>
+      <c r="AE90" s="109"/>
+      <c r="AF90" s="109"/>
+    </row>
+    <row r="91" spans="19:32" x14ac:dyDescent="0.2">
       <c r="S91" s="122"/>
       <c r="T91" s="120" t="s">
         <v>156</v>
@@ -5842,7 +5940,7 @@
       <c r="V91" s="120"/>
       <c r="W91" s="123"/>
     </row>
-    <row r="92" spans="19:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="19:32" x14ac:dyDescent="0.2">
       <c r="S92" s="119"/>
       <c r="T92" s="120" t="s">
         <v>148</v>
@@ -5853,7 +5951,7 @@
       <c r="V92" s="120"/>
       <c r="W92" s="123"/>
     </row>
-    <row r="93" spans="19:23" x14ac:dyDescent="0.2">
+    <row r="93" spans="19:32" x14ac:dyDescent="0.2">
       <c r="S93" s="122"/>
       <c r="T93" s="120" t="s">
         <v>2</v>
@@ -5864,7 +5962,7 @@
       <c r="V93" s="120"/>
       <c r="W93" s="123"/>
     </row>
-    <row r="94" spans="19:23" x14ac:dyDescent="0.2">
+    <row r="94" spans="19:32" x14ac:dyDescent="0.2">
       <c r="S94" s="119"/>
       <c r="T94" s="120" t="s">
         <v>4</v>
@@ -5875,7 +5973,7 @@
       <c r="V94" s="120"/>
       <c r="W94" s="123"/>
     </row>
-    <row r="95" spans="19:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="19:32" x14ac:dyDescent="0.2">
       <c r="S95" s="119"/>
       <c r="T95" s="120" t="s">
         <v>8</v>
@@ -5886,7 +5984,7 @@
       <c r="V95" s="120"/>
       <c r="W95" s="123"/>
     </row>
-    <row r="96" spans="19:23" x14ac:dyDescent="0.2">
+    <row r="96" spans="19:32" x14ac:dyDescent="0.2">
       <c r="S96" s="119"/>
       <c r="T96" s="120" t="s">
         <v>5</v>
@@ -5921,13 +6019,13 @@
     </row>
     <row r="101" spans="19:23" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="102" spans="19:23" x14ac:dyDescent="0.2">
-      <c r="S102" s="183" t="s">
+      <c r="S102" s="148" t="s">
         <v>150</v>
       </c>
-      <c r="T102" s="184"/>
-      <c r="U102" s="184"/>
-      <c r="V102" s="184"/>
-      <c r="W102" s="185"/>
+      <c r="T102" s="149"/>
+      <c r="U102" s="149"/>
+      <c r="V102" s="149"/>
+      <c r="W102" s="150"/>
     </row>
     <row r="103" spans="19:23" x14ac:dyDescent="0.2">
       <c r="S103" s="67" t="s">
@@ -6170,13 +6268,13 @@
     </row>
     <row r="126" spans="19:23" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="127" spans="19:23" x14ac:dyDescent="0.2">
-      <c r="S127" s="161" t="s">
+      <c r="S127" s="154" t="s">
         <v>115</v>
       </c>
-      <c r="T127" s="162"/>
-      <c r="U127" s="162"/>
-      <c r="V127" s="162"/>
-      <c r="W127" s="163"/>
+      <c r="T127" s="155"/>
+      <c r="U127" s="155"/>
+      <c r="V127" s="155"/>
+      <c r="W127" s="156"/>
     </row>
     <row r="128" spans="19:23" x14ac:dyDescent="0.2">
       <c r="S128" s="67" t="s">
@@ -6272,13 +6370,16 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="AO21:AS21"/>
-    <mergeCell ref="AA73:AE73"/>
-    <mergeCell ref="S77:W77"/>
-    <mergeCell ref="S102:W102"/>
-    <mergeCell ref="K58:O58"/>
-    <mergeCell ref="AA66:AE66"/>
+  <mergeCells count="27">
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="AA36:AE36"/>
+    <mergeCell ref="AI7:AM7"/>
+    <mergeCell ref="AI21:AM21"/>
+    <mergeCell ref="AA50:AE50"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="S6:W6"/>
+    <mergeCell ref="S15:W15"/>
+    <mergeCell ref="AA11:AE11"/>
     <mergeCell ref="S127:W127"/>
     <mergeCell ref="C65:G65"/>
     <mergeCell ref="C58:G58"/>
@@ -6290,15 +6391,13 @@
     <mergeCell ref="K50:O50"/>
     <mergeCell ref="K26:O26"/>
     <mergeCell ref="K66:O66"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="AA36:AE36"/>
-    <mergeCell ref="AI7:AM7"/>
-    <mergeCell ref="AI21:AM21"/>
-    <mergeCell ref="AA50:AE50"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="S6:W6"/>
-    <mergeCell ref="S15:W15"/>
-    <mergeCell ref="AA11:AE11"/>
+    <mergeCell ref="AO21:AS21"/>
+    <mergeCell ref="AA73:AE73"/>
+    <mergeCell ref="S77:W77"/>
+    <mergeCell ref="S102:W102"/>
+    <mergeCell ref="K58:O58"/>
+    <mergeCell ref="AA66:AE66"/>
+    <mergeCell ref="AA82:AE82"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
